--- a/Stock Item Type Listing.xlsx
+++ b/Stock Item Type Listing.xlsx
@@ -1,25 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\5901\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp2\htdocs\Internship-Yung-Kong-Website\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA545C19-67F8-48A8-90CF-D4F6094D5383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9600"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$1:$C$195</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="402">
   <si>
     <t>Item Group</t>
   </si>
@@ -1192,13 +1196,46 @@
   </si>
   <si>
     <t>categories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item Type </t>
+  </si>
+  <si>
+    <t>Building Materials</t>
+  </si>
+  <si>
+    <t>Hand Tools</t>
+  </si>
+  <si>
+    <t>General &amp; Household</t>
+  </si>
+  <si>
+    <t>Welding &amp; Machinery</t>
+  </si>
+  <si>
+    <t>Safety &amp; Security</t>
+  </si>
+  <si>
+    <t>Electrical Accessories</t>
+  </si>
+  <si>
+    <t>Plumbing</t>
+  </si>
+  <si>
+    <t>Power Tools</t>
+  </si>
+  <si>
+    <t>Paint</t>
+  </si>
+  <si>
+    <t>Bolts &amp; Fasteners</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1210,8 +1247,22 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1220,7 +1271,62 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1251,22 +1357,89 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1548,2166 +1721,3078 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C195"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I221"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="55.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="D1" s="10"/>
+      <c r="E1" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="G1" s="11"/>
+    </row>
+    <row r="2" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="D2" s="9"/>
+      <c r="E2" s="6">
+        <v>0</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="G2" s="13"/>
+    </row>
+    <row r="3" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="6">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="G3" s="13"/>
+    </row>
+    <row r="4" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="D4" s="9"/>
+      <c r="E4" s="6">
+        <v>2</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="G4" s="13"/>
+    </row>
+    <row r="5" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="D5" s="9"/>
+      <c r="E5" s="6">
+        <v>3</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="G5" s="13"/>
+    </row>
+    <row r="6" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="D6" s="9"/>
+      <c r="E6" s="6">
+        <v>4</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="D7" s="9"/>
+      <c r="E7" s="6">
+        <v>5</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="G7" s="13"/>
+    </row>
+    <row r="8" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="D8" s="9"/>
+      <c r="E8" s="6">
+        <v>6</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="D9" s="9"/>
+      <c r="E9" s="6">
+        <v>7</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="13"/>
+    </row>
+    <row r="10" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="D10" s="9"/>
+      <c r="E10" s="6">
+        <v>8</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="G10" s="13"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="13"/>
+    </row>
+    <row r="11" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="D11" s="9"/>
+      <c r="E11" s="6">
+        <v>9</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="G11" s="13"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="13"/>
+    </row>
+    <row r="12" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="D12" s="9"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="13"/>
+    </row>
+    <row r="13" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="D13" s="9"/>
+      <c r="E13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="13"/>
+    </row>
+    <row r="14" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="D14" s="9"/>
+      <c r="E14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="13"/>
+    </row>
+    <row r="15" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="D15" s="9"/>
+      <c r="E15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="13"/>
+    </row>
+    <row r="16" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="D16" s="9"/>
+      <c r="E16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="13"/>
+    </row>
+    <row r="17" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="D17" s="9"/>
+      <c r="E17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="13"/>
+    </row>
+    <row r="18" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="D18" s="9"/>
+      <c r="E18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="13"/>
+    </row>
+    <row r="19" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="D19" s="9"/>
+      <c r="E19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="13"/>
+    </row>
+    <row r="20" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="D20" s="9"/>
+      <c r="E20" s="12"/>
+    </row>
+    <row r="21" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="D21" s="9"/>
+      <c r="E21" s="12"/>
+    </row>
+    <row r="22" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="D22" s="9"/>
+      <c r="E22" s="12"/>
+    </row>
+    <row r="23" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="D23" s="9"/>
+      <c r="E23" s="12"/>
+    </row>
+    <row r="24" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="D24" s="9"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="13"/>
+    </row>
+    <row r="25" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="D25" s="9"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="13"/>
+    </row>
+    <row r="26" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+      <c r="D26" s="9"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="13"/>
+    </row>
+    <row r="27" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+      <c r="D27" s="9"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="13"/>
+    </row>
+    <row r="28" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="D28" s="9"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="13"/>
+    </row>
+    <row r="29" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+      <c r="D29" s="9"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="13"/>
+    </row>
+    <row r="30" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+      <c r="D30" s="9"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="13"/>
+    </row>
+    <row r="31" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+      <c r="D31" s="9"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="13"/>
+    </row>
+    <row r="32" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+      <c r="D32" s="9"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="13"/>
+    </row>
+    <row r="33" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+      <c r="D33" s="9"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="13"/>
+    </row>
+    <row r="34" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
+      <c r="D34" s="9"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="13"/>
+    </row>
+    <row r="35" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
+      <c r="D35" s="9"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="13"/>
+    </row>
+    <row r="36" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+      <c r="D36" s="9"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="13"/>
+    </row>
+    <row r="37" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+      <c r="D37" s="9"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="13"/>
+    </row>
+    <row r="38" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
+      <c r="D38" s="9"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="13"/>
+    </row>
+    <row r="39" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
+      <c r="D39" s="9"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="13"/>
+    </row>
+    <row r="40" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
+      <c r="D40" s="9"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="13"/>
+    </row>
+    <row r="41" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
+      <c r="D41" s="9"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="13"/>
+    </row>
+    <row r="42" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
+      <c r="D42" s="9"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="13"/>
+    </row>
+    <row r="43" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
+      <c r="D43" s="9"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="13"/>
+    </row>
+    <row r="44" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
+      <c r="D44" s="9"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="13"/>
+    </row>
+    <row r="45" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
+      <c r="D45" s="9"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="13"/>
+    </row>
+    <row r="46" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
+      <c r="D46" s="9"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="13"/>
+    </row>
+    <row r="47" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
+      <c r="D47" s="9"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="13"/>
+    </row>
+    <row r="48" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
+      <c r="D48" s="9"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="13"/>
+    </row>
+    <row r="49" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
+      <c r="D49" s="9"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="13"/>
+    </row>
+    <row r="50" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C50" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
+      <c r="D50" s="9"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="13"/>
+    </row>
+    <row r="51" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
+      <c r="D51" s="9"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="13"/>
+    </row>
+    <row r="52" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C52" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
+      <c r="D52" s="9"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="13"/>
+    </row>
+    <row r="53" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C53" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
+      <c r="D53" s="9"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="13"/>
+    </row>
+    <row r="54" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C54" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
+      <c r="D54" s="9"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="13"/>
+    </row>
+    <row r="55" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C55" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
+      <c r="D55" s="9"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="13"/>
+    </row>
+    <row r="56" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C56" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
+      <c r="D56" s="9"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="13"/>
+    </row>
+    <row r="57" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C57" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
+      <c r="D57" s="9"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="13"/>
+    </row>
+    <row r="58" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C58" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
+      <c r="D58" s="9"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="13"/>
+    </row>
+    <row r="59" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="C59" s="3">
+      <c r="C59" s="17">
         <v>2</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
+      <c r="D59" s="9"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="13"/>
+    </row>
+    <row r="60" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="C60" s="3">
+      <c r="C60" s="17">
         <v>2</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
+      <c r="D60" s="9"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="13"/>
+    </row>
+    <row r="61" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="C61" s="3">
+      <c r="C61" s="17">
         <v>2</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
+      <c r="D61" s="9"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="13"/>
+    </row>
+    <row r="62" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="C62" s="3">
+      <c r="C62" s="17">
         <v>2</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="s">
+      <c r="D62" s="9"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="13"/>
+    </row>
+    <row r="63" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="C63" s="3">
+      <c r="C63" s="17">
         <v>2</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="s">
+      <c r="D63" s="9"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="13"/>
+    </row>
+    <row r="64" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="C64" s="3">
+      <c r="C64" s="17">
         <v>2</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="s">
+      <c r="D64" s="9"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="13"/>
+    </row>
+    <row r="65" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="16" t="s">
         <v>259</v>
       </c>
-      <c r="C65" s="3">
+      <c r="C65" s="17">
         <v>2</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="4" t="s">
+      <c r="D65" s="9"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="13"/>
+    </row>
+    <row r="66" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B66" s="16" t="s">
         <v>260</v>
       </c>
-      <c r="C66" s="3">
+      <c r="C66" s="17">
         <v>2</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
+      <c r="D66" s="9"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="13"/>
+    </row>
+    <row r="67" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B67" s="16" t="s">
         <v>261</v>
       </c>
-      <c r="C67" s="3">
+      <c r="C67" s="17">
         <v>2</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="4" t="s">
+      <c r="D67" s="9"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="13"/>
+    </row>
+    <row r="68" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B68" s="16" t="s">
         <v>262</v>
       </c>
-      <c r="C68" s="3">
+      <c r="C68" s="17">
         <v>2</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
+      <c r="D68" s="9"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="13"/>
+    </row>
+    <row r="69" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B69" s="16" t="s">
         <v>263</v>
       </c>
-      <c r="C69" s="3">
+      <c r="C69" s="17">
         <v>2</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="4" t="s">
+      <c r="D69" s="9"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="13"/>
+    </row>
+    <row r="70" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B70" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="C70" s="3">
+      <c r="C70" s="17">
         <v>2</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="s">
+      <c r="D70" s="9"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="13"/>
+    </row>
+    <row r="71" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B71" s="16" t="s">
         <v>265</v>
       </c>
-      <c r="C71" s="3">
+      <c r="C71" s="17">
         <v>2</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="4" t="s">
+      <c r="D71" s="9"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="13"/>
+    </row>
+    <row r="72" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B72" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="C72" s="3">
+      <c r="C72" s="17">
         <v>2</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="s">
+      <c r="D72" s="9"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="13"/>
+    </row>
+    <row r="73" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B73" s="16" t="s">
         <v>267</v>
       </c>
-      <c r="C73" s="3">
+      <c r="C73" s="17">
         <v>2</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="4" t="s">
+      <c r="D73" s="9"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="13"/>
+    </row>
+    <row r="74" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B74" s="16" t="s">
         <v>268</v>
       </c>
-      <c r="C74" s="3">
+      <c r="C74" s="17">
         <v>2</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="s">
+      <c r="D74" s="9"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="13"/>
+    </row>
+    <row r="75" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B75" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="C75" s="3">
+      <c r="C75" s="17">
         <v>2</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="4" t="s">
+      <c r="D75" s="9"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="13"/>
+    </row>
+    <row r="76" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B76" s="16" t="s">
         <v>270</v>
       </c>
-      <c r="C76" s="3">
+      <c r="C76" s="17">
         <v>2</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="s">
+      <c r="D76" s="9"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="13"/>
+    </row>
+    <row r="77" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B77" s="16" t="s">
         <v>271</v>
       </c>
-      <c r="C77" s="3">
+      <c r="C77" s="17">
         <v>2</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="4" t="s">
+      <c r="D77" s="9"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="13"/>
+    </row>
+    <row r="78" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B78" s="16" t="s">
         <v>272</v>
       </c>
-      <c r="C78" s="3">
+      <c r="C78" s="17">
         <v>2</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="4" t="s">
+      <c r="D78" s="9"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="13"/>
+    </row>
+    <row r="79" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B79" s="16" t="s">
         <v>273</v>
       </c>
-      <c r="C79" s="3">
+      <c r="C79" s="17">
         <v>2</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="4" t="s">
+      <c r="D79" s="9"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="12"/>
+      <c r="G79" s="13"/>
+    </row>
+    <row r="80" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B80" s="16" t="s">
         <v>274</v>
       </c>
-      <c r="C80" s="3">
+      <c r="C80" s="17">
         <v>2</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="4" t="s">
+      <c r="D80" s="9"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="13"/>
+    </row>
+    <row r="81" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="B81" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="C81" s="3">
+      <c r="C81" s="17">
         <v>2</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="4" t="s">
+      <c r="D81" s="9"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="13"/>
+    </row>
+    <row r="82" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="B82" s="18" t="s">
         <v>276</v>
       </c>
-      <c r="C82" s="3">
+      <c r="C82" s="19">
         <v>3</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="4" t="s">
+      <c r="D82" s="9"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="13"/>
+    </row>
+    <row r="83" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="B83" s="18" t="s">
         <v>277</v>
       </c>
-      <c r="C83" s="3">
+      <c r="C83" s="19">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="4" t="s">
+      <c r="D83" s="9"/>
+      <c r="E83" s="12"/>
+      <c r="F83" s="12"/>
+      <c r="G83" s="13"/>
+    </row>
+    <row r="84" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="B84" s="18" t="s">
         <v>278</v>
       </c>
-      <c r="C84" s="3">
+      <c r="C84" s="19">
         <v>3</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="4" t="s">
+      <c r="D84" s="9"/>
+      <c r="E84" s="12"/>
+      <c r="F84" s="12"/>
+      <c r="G84" s="13"/>
+    </row>
+    <row r="85" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="B85" s="18" t="s">
         <v>279</v>
       </c>
-      <c r="C85" s="3">
+      <c r="C85" s="19">
         <v>3</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="4" t="s">
+      <c r="D85" s="9"/>
+      <c r="E85" s="12"/>
+      <c r="F85" s="12"/>
+      <c r="G85" s="13"/>
+    </row>
+    <row r="86" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B86" s="18" t="s">
         <v>280</v>
       </c>
-      <c r="C86" s="3">
+      <c r="C86" s="19">
         <v>3</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="4" t="s">
+      <c r="D86" s="9"/>
+      <c r="E86" s="12"/>
+      <c r="F86" s="12"/>
+      <c r="G86" s="13"/>
+    </row>
+    <row r="87" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B87" s="18" t="s">
         <v>281</v>
       </c>
-      <c r="C87" s="3">
+      <c r="C87" s="19">
         <v>3</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="4" t="s">
+      <c r="D87" s="9"/>
+      <c r="E87" s="12"/>
+      <c r="F87" s="12"/>
+      <c r="G87" s="13"/>
+    </row>
+    <row r="88" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="B88" s="4" t="s">
+      <c r="B88" s="18" t="s">
         <v>282</v>
       </c>
-      <c r="C88" s="3">
+      <c r="C88" s="19">
         <v>3</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="4" t="s">
+      <c r="D88" s="9"/>
+      <c r="E88" s="12"/>
+      <c r="F88" s="12"/>
+      <c r="G88" s="13"/>
+    </row>
+    <row r="89" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="B89" s="4" t="s">
+      <c r="B89" s="18" t="s">
         <v>283</v>
       </c>
-      <c r="C89" s="3">
+      <c r="C89" s="19">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="4" t="s">
+      <c r="D89" s="9"/>
+      <c r="E89" s="12"/>
+      <c r="F89" s="12"/>
+      <c r="G89" s="13"/>
+    </row>
+    <row r="90" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="B90" s="4" t="s">
+      <c r="B90" s="18" t="s">
         <v>284</v>
       </c>
-      <c r="C90" s="3">
+      <c r="C90" s="19">
         <v>3</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="4" t="s">
+      <c r="D90" s="9"/>
+      <c r="E90" s="12"/>
+      <c r="F90" s="12"/>
+      <c r="G90" s="13"/>
+    </row>
+    <row r="91" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="B91" s="4" t="s">
+      <c r="B91" s="18" t="s">
         <v>285</v>
       </c>
-      <c r="C91" s="3">
+      <c r="C91" s="19">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="4" t="s">
+      <c r="D91" s="9"/>
+      <c r="E91" s="12"/>
+      <c r="F91" s="12"/>
+      <c r="G91" s="13"/>
+    </row>
+    <row r="92" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="B92" s="4" t="s">
+      <c r="B92" s="18" t="s">
         <v>286</v>
       </c>
-      <c r="C92" s="3">
+      <c r="C92" s="19">
         <v>3</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="4" t="s">
+      <c r="D92" s="9"/>
+      <c r="E92" s="12"/>
+      <c r="F92" s="12"/>
+      <c r="G92" s="13"/>
+    </row>
+    <row r="93" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="B93" s="4" t="s">
+      <c r="B93" s="18" t="s">
         <v>287</v>
       </c>
-      <c r="C93" s="3">
+      <c r="C93" s="19">
         <v>3</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="4" t="s">
+      <c r="D93" s="9"/>
+      <c r="E93" s="12"/>
+      <c r="F93" s="12"/>
+      <c r="G93" s="13"/>
+    </row>
+    <row r="94" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="B94" s="4" t="s">
+      <c r="B94" s="18" t="s">
         <v>288</v>
       </c>
-      <c r="C94" s="3">
+      <c r="C94" s="19">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="4" t="s">
+      <c r="D94" s="9"/>
+      <c r="E94" s="12"/>
+      <c r="F94" s="12"/>
+      <c r="G94" s="13"/>
+    </row>
+    <row r="95" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="B95" s="4" t="s">
+      <c r="B95" s="18" t="s">
         <v>289</v>
       </c>
-      <c r="C95" s="3">
+      <c r="C95" s="19">
         <v>3</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="4" t="s">
+      <c r="D95" s="9"/>
+      <c r="E95" s="12"/>
+      <c r="F95" s="12"/>
+      <c r="G95" s="13"/>
+    </row>
+    <row r="96" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="B96" s="4" t="s">
+      <c r="B96" s="18" t="s">
         <v>290</v>
       </c>
-      <c r="C96" s="3">
+      <c r="C96" s="19">
         <v>3</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="4" t="s">
+      <c r="D96" s="9"/>
+      <c r="E96" s="12"/>
+      <c r="F96" s="12"/>
+      <c r="G96" s="13"/>
+    </row>
+    <row r="97" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="B97" s="4" t="s">
+      <c r="B97" s="18" t="s">
         <v>291</v>
       </c>
-      <c r="C97" s="3">
+      <c r="C97" s="19">
         <v>3</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="4" t="s">
+      <c r="D97" s="9"/>
+      <c r="E97" s="12"/>
+      <c r="F97" s="12"/>
+      <c r="G97" s="13"/>
+    </row>
+    <row r="98" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="B98" s="4" t="s">
+      <c r="B98" s="18" t="s">
         <v>292</v>
       </c>
-      <c r="C98" s="3">
+      <c r="C98" s="19">
         <v>3</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="4" t="s">
+      <c r="D98" s="9"/>
+      <c r="E98" s="12"/>
+      <c r="F98" s="12"/>
+      <c r="G98" s="13"/>
+    </row>
+    <row r="99" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="B99" s="4" t="s">
+      <c r="B99" s="18" t="s">
         <v>293</v>
       </c>
-      <c r="C99" s="3">
+      <c r="C99" s="19">
         <v>3</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="4" t="s">
+      <c r="D99" s="9"/>
+      <c r="E99" s="12"/>
+      <c r="F99" s="12"/>
+      <c r="G99" s="13"/>
+    </row>
+    <row r="100" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="B100" s="4" t="s">
+      <c r="B100" s="18" t="s">
         <v>294</v>
       </c>
-      <c r="C100" s="3">
+      <c r="C100" s="19">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="4" t="s">
+      <c r="D100" s="9"/>
+      <c r="E100" s="12"/>
+      <c r="F100" s="12"/>
+      <c r="G100" s="13"/>
+    </row>
+    <row r="101" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="B101" s="4" t="s">
+      <c r="B101" s="18" t="s">
         <v>295</v>
       </c>
-      <c r="C101" s="3">
+      <c r="C101" s="19">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="4" t="s">
+      <c r="D101" s="9"/>
+      <c r="E101" s="12"/>
+      <c r="F101" s="12"/>
+      <c r="G101" s="13"/>
+    </row>
+    <row r="102" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="B102" s="4" t="s">
+      <c r="B102" s="18" t="s">
         <v>296</v>
       </c>
-      <c r="C102" s="3">
+      <c r="C102" s="19">
         <v>3</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="4" t="s">
+      <c r="D102" s="9"/>
+      <c r="E102" s="12"/>
+      <c r="F102" s="12"/>
+      <c r="G102" s="13"/>
+    </row>
+    <row r="103" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="B103" s="4" t="s">
+      <c r="B103" s="18" t="s">
         <v>297</v>
       </c>
-      <c r="C103" s="3">
+      <c r="C103" s="19">
         <v>3</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="4" t="s">
+      <c r="D103" s="9"/>
+      <c r="E103" s="12"/>
+      <c r="F103" s="12"/>
+      <c r="G103" s="13"/>
+    </row>
+    <row r="104" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="B104" s="4" t="s">
+      <c r="B104" s="18" t="s">
         <v>298</v>
       </c>
-      <c r="C104" s="3">
+      <c r="C104" s="19">
         <v>3</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="4" t="s">
+      <c r="D104" s="9"/>
+      <c r="E104" s="12"/>
+      <c r="F104" s="12"/>
+      <c r="G104" s="13"/>
+    </row>
+    <row r="105" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="B105" s="4" t="s">
+      <c r="B105" s="18" t="s">
         <v>299</v>
       </c>
-      <c r="C105" s="3">
+      <c r="C105" s="19">
         <v>3</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="4" t="s">
+      <c r="D105" s="9"/>
+      <c r="E105" s="12"/>
+      <c r="F105" s="12"/>
+      <c r="G105" s="13"/>
+    </row>
+    <row r="106" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="B106" s="4" t="s">
+      <c r="B106" s="18" t="s">
         <v>300</v>
       </c>
-      <c r="C106" s="3">
+      <c r="C106" s="19">
         <v>3</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="4" t="s">
+      <c r="D106" s="9"/>
+      <c r="E106" s="12"/>
+      <c r="F106" s="12"/>
+      <c r="G106" s="13"/>
+    </row>
+    <row r="107" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="B107" s="4" t="s">
+      <c r="B107" s="18" t="s">
         <v>301</v>
       </c>
-      <c r="C107" s="3">
+      <c r="C107" s="19">
         <v>3</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="4" t="s">
+      <c r="D107" s="9"/>
+      <c r="E107" s="12"/>
+      <c r="F107" s="12"/>
+      <c r="G107" s="13"/>
+    </row>
+    <row r="108" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="B108" s="4" t="s">
+      <c r="B108" s="18" t="s">
         <v>302</v>
       </c>
-      <c r="C108" s="3">
+      <c r="C108" s="19">
         <v>3</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="4" t="s">
+      <c r="D108" s="9"/>
+      <c r="E108" s="12"/>
+      <c r="F108" s="12"/>
+      <c r="G108" s="13"/>
+    </row>
+    <row r="109" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="B109" s="4" t="s">
+      <c r="B109" s="18" t="s">
         <v>303</v>
       </c>
-      <c r="C109" s="3">
+      <c r="C109" s="19">
         <v>3</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="4" t="s">
+      <c r="D109" s="9"/>
+      <c r="E109" s="12"/>
+      <c r="F109" s="12"/>
+      <c r="G109" s="13"/>
+    </row>
+    <row r="110" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="B110" s="4" t="s">
+      <c r="B110" s="18" t="s">
         <v>304</v>
       </c>
-      <c r="C110" s="3">
+      <c r="C110" s="19">
         <v>3</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="4" t="s">
+      <c r="D110" s="9"/>
+      <c r="E110" s="12"/>
+      <c r="F110" s="12"/>
+      <c r="G110" s="13"/>
+    </row>
+    <row r="111" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="B111" s="4" t="s">
+      <c r="B111" s="18" t="s">
         <v>305</v>
       </c>
-      <c r="C111" s="3">
+      <c r="C111" s="19">
         <v>3</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="4" t="s">
+      <c r="D111" s="9"/>
+      <c r="E111" s="12"/>
+      <c r="F111" s="12"/>
+      <c r="G111" s="13"/>
+    </row>
+    <row r="112" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="B112" s="4" t="s">
+      <c r="B112" s="18" t="s">
         <v>306</v>
       </c>
-      <c r="C112" s="3">
+      <c r="C112" s="19">
         <v>3</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="4" t="s">
+      <c r="D112" s="9"/>
+      <c r="E112" s="12"/>
+      <c r="F112" s="12"/>
+      <c r="G112" s="13"/>
+    </row>
+    <row r="113" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="B113" s="4" t="s">
+      <c r="B113" s="18" t="s">
         <v>307</v>
       </c>
-      <c r="C113" s="3">
+      <c r="C113" s="19">
         <v>3</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="4" t="s">
+      <c r="D113" s="9"/>
+      <c r="E113" s="12"/>
+      <c r="F113" s="12"/>
+      <c r="G113" s="13"/>
+    </row>
+    <row r="114" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="B114" s="4" t="s">
+      <c r="B114" s="18" t="s">
         <v>308</v>
       </c>
-      <c r="C114" s="3">
+      <c r="C114" s="19">
         <v>3</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="4" t="s">
+      <c r="D114" s="9"/>
+      <c r="E114" s="12"/>
+      <c r="F114" s="12"/>
+      <c r="G114" s="13"/>
+    </row>
+    <row r="115" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="B115" s="4" t="s">
+      <c r="B115" s="20" t="s">
         <v>309</v>
       </c>
-      <c r="C115" s="3">
+      <c r="C115" s="21">
         <v>4</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="4" t="s">
+      <c r="D115" s="9"/>
+      <c r="E115" s="12"/>
+      <c r="F115" s="12"/>
+      <c r="G115" s="13"/>
+    </row>
+    <row r="116" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="B116" s="4" t="s">
+      <c r="B116" s="20" t="s">
         <v>310</v>
       </c>
-      <c r="C116" s="3">
+      <c r="C116" s="21">
         <v>4</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="4" t="s">
+      <c r="D116" s="9"/>
+      <c r="E116" s="12"/>
+      <c r="F116" s="12"/>
+      <c r="G116" s="13"/>
+    </row>
+    <row r="117" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="B117" s="4" t="s">
+      <c r="B117" s="20" t="s">
         <v>311</v>
       </c>
-      <c r="C117" s="3">
+      <c r="C117" s="21">
         <v>4</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="4" t="s">
+      <c r="D117" s="9"/>
+      <c r="E117" s="12"/>
+      <c r="F117" s="12"/>
+      <c r="G117" s="13"/>
+    </row>
+    <row r="118" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="B118" s="4" t="s">
+      <c r="B118" s="20" t="s">
         <v>312</v>
       </c>
-      <c r="C118" s="3">
+      <c r="C118" s="21">
         <v>4</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="4" t="s">
+      <c r="D118" s="9"/>
+      <c r="E118" s="12"/>
+      <c r="F118" s="12"/>
+      <c r="G118" s="13"/>
+    </row>
+    <row r="119" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="B119" s="4" t="s">
+      <c r="B119" s="20" t="s">
         <v>313</v>
       </c>
-      <c r="C119" s="3">
+      <c r="C119" s="21">
         <v>4</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="4" t="s">
+      <c r="D119" s="9"/>
+      <c r="E119" s="12"/>
+      <c r="F119" s="12"/>
+      <c r="G119" s="13"/>
+    </row>
+    <row r="120" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="B120" s="4" t="s">
+      <c r="B120" s="20" t="s">
         <v>314</v>
       </c>
-      <c r="C120" s="3">
+      <c r="C120" s="21">
         <v>4</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="4" t="s">
+      <c r="D120" s="9"/>
+      <c r="E120" s="12"/>
+      <c r="F120" s="12"/>
+      <c r="G120" s="13"/>
+    </row>
+    <row r="121" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="B121" s="4" t="s">
+      <c r="B121" s="20" t="s">
         <v>315</v>
       </c>
-      <c r="C121" s="3">
+      <c r="C121" s="21">
         <v>4</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="4" t="s">
+      <c r="D121" s="9"/>
+      <c r="E121" s="12"/>
+      <c r="F121" s="12"/>
+      <c r="G121" s="13"/>
+    </row>
+    <row r="122" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="B122" s="4" t="s">
+      <c r="B122" s="20" t="s">
         <v>316</v>
       </c>
-      <c r="C122" s="3">
+      <c r="C122" s="21">
         <v>4</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="4" t="s">
+      <c r="D122" s="9"/>
+      <c r="E122" s="12"/>
+      <c r="F122" s="12"/>
+      <c r="G122" s="13"/>
+    </row>
+    <row r="123" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="B123" s="4" t="s">
+      <c r="B123" s="20" t="s">
         <v>317</v>
       </c>
-      <c r="C123" s="3">
+      <c r="C123" s="21">
         <v>4</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="4" t="s">
+      <c r="D123" s="9"/>
+      <c r="E123" s="12"/>
+      <c r="F123" s="12"/>
+      <c r="G123" s="13"/>
+    </row>
+    <row r="124" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="B124" s="4" t="s">
+      <c r="B124" s="20" t="s">
         <v>318</v>
       </c>
-      <c r="C124" s="3">
+      <c r="C124" s="21">
         <v>4</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="4" t="s">
+      <c r="D124" s="9"/>
+      <c r="E124" s="12"/>
+      <c r="F124" s="12"/>
+      <c r="G124" s="13"/>
+    </row>
+    <row r="125" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="B125" s="4" t="s">
+      <c r="B125" s="20" t="s">
         <v>319</v>
       </c>
-      <c r="C125" s="3">
+      <c r="C125" s="21">
         <v>4</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="4" t="s">
+      <c r="D125" s="9"/>
+      <c r="E125" s="12"/>
+      <c r="F125" s="12"/>
+      <c r="G125" s="13"/>
+    </row>
+    <row r="126" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="B126" s="4" t="s">
+      <c r="B126" s="20" t="s">
         <v>320</v>
       </c>
-      <c r="C126" s="3">
+      <c r="C126" s="21">
         <v>4</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="4" t="s">
+      <c r="D126" s="9"/>
+      <c r="E126" s="12"/>
+      <c r="F126" s="12"/>
+      <c r="G126" s="13"/>
+    </row>
+    <row r="127" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="B127" s="4" t="s">
+      <c r="B127" s="20" t="s">
         <v>321</v>
       </c>
-      <c r="C127" s="3">
+      <c r="C127" s="21">
         <v>4</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="4" t="s">
+      <c r="D127" s="9"/>
+      <c r="E127" s="12"/>
+      <c r="F127" s="12"/>
+      <c r="G127" s="13"/>
+    </row>
+    <row r="128" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="B128" s="4" t="s">
+      <c r="B128" s="20" t="s">
         <v>322</v>
       </c>
-      <c r="C128" s="3">
+      <c r="C128" s="21">
         <v>4</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="4" t="s">
+      <c r="D128" s="9"/>
+      <c r="E128" s="12"/>
+      <c r="F128" s="12"/>
+      <c r="G128" s="13"/>
+    </row>
+    <row r="129" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="B129" s="4" t="s">
+      <c r="B129" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="C129" s="3">
+      <c r="C129" s="21">
         <v>4</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="4" t="s">
+      <c r="D129" s="9"/>
+      <c r="E129" s="12"/>
+      <c r="F129" s="12"/>
+      <c r="G129" s="13"/>
+    </row>
+    <row r="130" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="B130" s="4" t="s">
+      <c r="B130" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="C130" s="3">
+      <c r="C130" s="21">
         <v>4</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="4" t="s">
+      <c r="D130" s="9"/>
+      <c r="E130" s="12"/>
+      <c r="F130" s="12"/>
+      <c r="G130" s="13"/>
+    </row>
+    <row r="131" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="B131" s="4" t="s">
+      <c r="B131" s="22" t="s">
         <v>325</v>
       </c>
-      <c r="C131" s="3">
+      <c r="C131" s="23">
         <v>5</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="4" t="s">
+      <c r="D131" s="9"/>
+      <c r="E131" s="12"/>
+      <c r="F131" s="12"/>
+      <c r="G131" s="13"/>
+    </row>
+    <row r="132" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="B132" s="4" t="s">
+      <c r="B132" s="22" t="s">
         <v>326</v>
       </c>
-      <c r="C132" s="3">
+      <c r="C132" s="23">
         <v>5</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="4" t="s">
+      <c r="D132" s="9"/>
+      <c r="E132" s="12"/>
+      <c r="F132" s="12"/>
+      <c r="G132" s="13"/>
+    </row>
+    <row r="133" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="B133" s="4" t="s">
+      <c r="B133" s="22" t="s">
         <v>327</v>
       </c>
-      <c r="C133" s="3">
+      <c r="C133" s="23">
         <v>5</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="4" t="s">
+      <c r="D133" s="9"/>
+      <c r="E133" s="12"/>
+      <c r="F133" s="12"/>
+      <c r="G133" s="13"/>
+    </row>
+    <row r="134" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="B134" s="4" t="s">
+      <c r="B134" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="C134" s="3">
+      <c r="C134" s="23">
         <v>5</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="4" t="s">
+      <c r="D134" s="9"/>
+      <c r="E134" s="12"/>
+      <c r="F134" s="12"/>
+      <c r="G134" s="13"/>
+    </row>
+    <row r="135" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="B135" s="4" t="s">
+      <c r="B135" s="22" t="s">
         <v>329</v>
       </c>
-      <c r="C135" s="3">
+      <c r="C135" s="23">
         <v>5</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="4" t="s">
+      <c r="D135" s="9"/>
+      <c r="E135" s="12"/>
+      <c r="F135" s="12"/>
+      <c r="G135" s="13"/>
+    </row>
+    <row r="136" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="B136" s="4" t="s">
+      <c r="B136" s="22" t="s">
         <v>330</v>
       </c>
-      <c r="C136" s="3">
+      <c r="C136" s="23">
         <v>5</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="4" t="s">
+      <c r="D136" s="9"/>
+      <c r="E136" s="12"/>
+      <c r="F136" s="12"/>
+      <c r="G136" s="13"/>
+    </row>
+    <row r="137" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="B137" s="4" t="s">
+      <c r="B137" s="22" t="s">
         <v>331</v>
       </c>
-      <c r="C137" s="3">
+      <c r="C137" s="23">
         <v>5</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="4" t="s">
+      <c r="D137" s="9"/>
+      <c r="E137" s="12"/>
+      <c r="F137" s="12"/>
+      <c r="G137" s="13"/>
+    </row>
+    <row r="138" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="B138" s="4" t="s">
+      <c r="B138" s="22" t="s">
         <v>332</v>
       </c>
-      <c r="C138" s="3">
+      <c r="C138" s="23">
         <v>5</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="4" t="s">
+      <c r="D138" s="9"/>
+      <c r="E138" s="12"/>
+      <c r="F138" s="12"/>
+      <c r="G138" s="13"/>
+    </row>
+    <row r="139" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="B139" s="4" t="s">
+      <c r="B139" s="22" t="s">
         <v>333</v>
       </c>
-      <c r="C139" s="3">
+      <c r="C139" s="23">
         <v>5</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="4" t="s">
+      <c r="D139" s="9"/>
+      <c r="E139" s="12"/>
+      <c r="F139" s="12"/>
+      <c r="G139" s="13"/>
+    </row>
+    <row r="140" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="B140" s="4" t="s">
+      <c r="B140" s="22" t="s">
         <v>334</v>
       </c>
-      <c r="C140" s="3">
+      <c r="C140" s="23">
         <v>5</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="4" t="s">
+      <c r="D140" s="9"/>
+      <c r="E140" s="12"/>
+      <c r="F140" s="12"/>
+      <c r="G140" s="13"/>
+    </row>
+    <row r="141" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="B141" s="4" t="s">
+      <c r="B141" s="22" t="s">
         <v>335</v>
       </c>
-      <c r="C141" s="3">
+      <c r="C141" s="23">
         <v>5</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="4" t="s">
+      <c r="D141" s="9"/>
+      <c r="E141" s="12"/>
+      <c r="F141" s="12"/>
+      <c r="G141" s="13"/>
+    </row>
+    <row r="142" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="B142" s="4" t="s">
+      <c r="B142" s="22" t="s">
         <v>336</v>
       </c>
-      <c r="C142" s="3">
+      <c r="C142" s="23">
         <v>5</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="4" t="s">
+      <c r="D142" s="9"/>
+      <c r="E142" s="12"/>
+      <c r="F142" s="12"/>
+      <c r="G142" s="13"/>
+    </row>
+    <row r="143" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="B143" s="4" t="s">
+      <c r="B143" s="22" t="s">
         <v>337</v>
       </c>
-      <c r="C143" s="3">
+      <c r="C143" s="23">
         <v>5</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="4" t="s">
+      <c r="D143" s="9"/>
+      <c r="E143" s="12"/>
+      <c r="F143" s="12"/>
+      <c r="G143" s="13"/>
+    </row>
+    <row r="144" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="B144" s="4" t="s">
+      <c r="B144" s="22" t="s">
         <v>338</v>
       </c>
-      <c r="C144" s="3">
+      <c r="C144" s="23">
         <v>5</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="4" t="s">
+      <c r="D144" s="9"/>
+      <c r="E144" s="12"/>
+      <c r="F144" s="12"/>
+      <c r="G144" s="13"/>
+    </row>
+    <row r="145" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="B145" s="4" t="s">
+      <c r="B145" s="24" t="s">
         <v>339</v>
       </c>
-      <c r="C145" s="3">
+      <c r="C145" s="25">
         <v>6</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="4" t="s">
+      <c r="D145" s="9"/>
+      <c r="E145" s="12"/>
+      <c r="F145" s="12"/>
+      <c r="G145" s="13"/>
+    </row>
+    <row r="146" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="B146" s="4" t="s">
+      <c r="B146" s="24" t="s">
         <v>340</v>
       </c>
-      <c r="C146" s="3">
+      <c r="C146" s="25">
         <v>6</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="4" t="s">
+      <c r="D146" s="9"/>
+      <c r="E146" s="12"/>
+      <c r="F146" s="12"/>
+      <c r="G146" s="13"/>
+    </row>
+    <row r="147" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="B147" s="4" t="s">
+      <c r="B147" s="24" t="s">
         <v>341</v>
       </c>
-      <c r="C147" s="3">
+      <c r="C147" s="25">
         <v>6</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="4" t="s">
+      <c r="D147" s="9"/>
+      <c r="E147" s="12"/>
+      <c r="F147" s="12"/>
+      <c r="G147" s="13"/>
+    </row>
+    <row r="148" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="B148" s="4" t="s">
+      <c r="B148" s="24" t="s">
         <v>342</v>
       </c>
-      <c r="C148" s="3">
+      <c r="C148" s="25">
         <v>6</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="4" t="s">
+      <c r="D148" s="9"/>
+      <c r="E148" s="12"/>
+      <c r="F148" s="12"/>
+      <c r="G148" s="13"/>
+    </row>
+    <row r="149" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="B149" s="4" t="s">
+      <c r="B149" s="24" t="s">
         <v>343</v>
       </c>
-      <c r="C149" s="3">
+      <c r="C149" s="25">
         <v>6</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="4" t="s">
+      <c r="D149" s="9"/>
+      <c r="E149" s="12"/>
+      <c r="F149" s="12"/>
+      <c r="G149" s="13"/>
+    </row>
+    <row r="150" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="B150" s="4" t="s">
+      <c r="B150" s="24" t="s">
         <v>344</v>
       </c>
-      <c r="C150" s="3">
+      <c r="C150" s="25">
         <v>6</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="4" t="s">
+      <c r="D150" s="9"/>
+      <c r="E150" s="12"/>
+      <c r="F150" s="12"/>
+      <c r="G150" s="13"/>
+    </row>
+    <row r="151" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="B151" s="4" t="s">
+      <c r="B151" s="24" t="s">
         <v>345</v>
       </c>
-      <c r="C151" s="3">
+      <c r="C151" s="25">
         <v>6</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="4" t="s">
+      <c r="D151" s="9"/>
+      <c r="E151" s="12"/>
+      <c r="F151" s="12"/>
+      <c r="G151" s="13"/>
+    </row>
+    <row r="152" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="B152" s="4" t="s">
+      <c r="B152" s="24" t="s">
         <v>346</v>
       </c>
-      <c r="C152" s="3">
+      <c r="C152" s="25">
         <v>6</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="4" t="s">
+      <c r="D152" s="9"/>
+      <c r="E152" s="12"/>
+      <c r="F152" s="12"/>
+      <c r="G152" s="13"/>
+    </row>
+    <row r="153" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="B153" s="4" t="s">
+      <c r="B153" s="24" t="s">
         <v>347</v>
       </c>
-      <c r="C153" s="3">
+      <c r="C153" s="25">
         <v>6</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="4" t="s">
+      <c r="D153" s="9"/>
+      <c r="E153" s="12"/>
+      <c r="F153" s="12"/>
+      <c r="G153" s="13"/>
+    </row>
+    <row r="154" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="B154" s="4" t="s">
+      <c r="B154" s="24" t="s">
         <v>348</v>
       </c>
-      <c r="C154" s="3">
+      <c r="C154" s="25">
         <v>6</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="4" t="s">
+      <c r="D154" s="9"/>
+      <c r="E154" s="12"/>
+      <c r="F154" s="12"/>
+      <c r="G154" s="13"/>
+    </row>
+    <row r="155" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="B155" s="4" t="s">
+      <c r="B155" s="26" t="s">
         <v>349</v>
       </c>
-      <c r="C155" s="3">
+      <c r="C155" s="27">
         <v>7</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="4" t="s">
+      <c r="D155" s="9"/>
+      <c r="E155" s="12"/>
+      <c r="F155" s="12"/>
+      <c r="G155" s="13"/>
+    </row>
+    <row r="156" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="B156" s="4" t="s">
+      <c r="B156" s="26" t="s">
         <v>350</v>
       </c>
-      <c r="C156" s="3">
+      <c r="C156" s="27">
         <v>7</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="4" t="s">
+      <c r="D156" s="9"/>
+      <c r="E156" s="12"/>
+      <c r="F156" s="12"/>
+      <c r="G156" s="13"/>
+    </row>
+    <row r="157" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="B157" s="4" t="s">
+      <c r="B157" s="26" t="s">
         <v>351</v>
       </c>
-      <c r="C157" s="3">
+      <c r="C157" s="27">
         <v>7</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="4" t="s">
+      <c r="D157" s="9"/>
+      <c r="E157" s="12"/>
+      <c r="F157" s="12"/>
+      <c r="G157" s="13"/>
+    </row>
+    <row r="158" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="B158" s="4" t="s">
+      <c r="B158" s="26" t="s">
         <v>352</v>
       </c>
-      <c r="C158" s="3">
+      <c r="C158" s="27">
         <v>7</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="4" t="s">
+      <c r="D158" s="9"/>
+      <c r="E158" s="12"/>
+      <c r="F158" s="12"/>
+      <c r="G158" s="13"/>
+    </row>
+    <row r="159" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="B159" s="4" t="s">
+      <c r="B159" s="26" t="s">
         <v>353</v>
       </c>
-      <c r="C159" s="3">
+      <c r="C159" s="27">
         <v>7</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="4" t="s">
+      <c r="D159" s="9"/>
+      <c r="E159" s="12"/>
+      <c r="F159" s="12"/>
+      <c r="G159" s="13"/>
+    </row>
+    <row r="160" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="B160" s="4" t="s">
+      <c r="B160" s="26" t="s">
         <v>354</v>
       </c>
-      <c r="C160" s="3">
+      <c r="C160" s="27">
         <v>7</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="4" t="s">
+      <c r="D160" s="9"/>
+      <c r="E160" s="12"/>
+      <c r="F160" s="12"/>
+      <c r="G160" s="13"/>
+    </row>
+    <row r="161" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="B161" s="4" t="s">
+      <c r="B161" s="26" t="s">
         <v>355</v>
       </c>
-      <c r="C161" s="3">
+      <c r="C161" s="27">
         <v>7</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="4" t="s">
+      <c r="D161" s="9"/>
+      <c r="E161" s="12"/>
+      <c r="F161" s="12"/>
+      <c r="G161" s="13"/>
+    </row>
+    <row r="162" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="B162" s="4" t="s">
+      <c r="B162" s="26" t="s">
         <v>356</v>
       </c>
-      <c r="C162" s="3">
+      <c r="C162" s="27">
         <v>7</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="4" t="s">
+      <c r="D162" s="9"/>
+      <c r="E162" s="12"/>
+      <c r="F162" s="12"/>
+      <c r="G162" s="13"/>
+    </row>
+    <row r="163" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="B163" s="4" t="s">
+      <c r="B163" s="26" t="s">
         <v>357</v>
       </c>
-      <c r="C163" s="3">
+      <c r="C163" s="27">
         <v>7</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="4" t="s">
+      <c r="D163" s="9"/>
+      <c r="E163" s="12"/>
+      <c r="F163" s="12"/>
+      <c r="G163" s="13"/>
+    </row>
+    <row r="164" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="B164" s="4" t="s">
+      <c r="B164" s="26" t="s">
         <v>358</v>
       </c>
-      <c r="C164" s="3">
+      <c r="C164" s="27">
         <v>7</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="4" t="s">
+      <c r="D164" s="9"/>
+      <c r="E164" s="12"/>
+      <c r="F164" s="12"/>
+      <c r="G164" s="13"/>
+    </row>
+    <row r="165" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="B165" s="4" t="s">
+      <c r="B165" s="26" t="s">
         <v>359</v>
       </c>
-      <c r="C165" s="3">
+      <c r="C165" s="27">
         <v>7</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="4" t="s">
+      <c r="D165" s="9"/>
+      <c r="E165" s="12"/>
+      <c r="F165" s="12"/>
+      <c r="G165" s="13"/>
+    </row>
+    <row r="166" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="B166" s="4" t="s">
+      <c r="B166" s="26" t="s">
         <v>360</v>
       </c>
-      <c r="C166" s="3">
+      <c r="C166" s="27">
         <v>7</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="4" t="s">
+      <c r="D166" s="9"/>
+      <c r="E166" s="12"/>
+      <c r="F166" s="12"/>
+      <c r="G166" s="13"/>
+    </row>
+    <row r="167" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="B167" s="4" t="s">
+      <c r="B167" s="26" t="s">
         <v>361</v>
       </c>
-      <c r="C167" s="3">
+      <c r="C167" s="27">
         <v>7</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="4" t="s">
+      <c r="D167" s="9"/>
+      <c r="E167" s="12"/>
+      <c r="F167" s="12"/>
+      <c r="G167" s="13"/>
+    </row>
+    <row r="168" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="B168" s="4" t="s">
+      <c r="B168" s="26" t="s">
         <v>362</v>
       </c>
-      <c r="C168" s="3">
+      <c r="C168" s="27">
         <v>7</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="4" t="s">
+      <c r="D168" s="9"/>
+      <c r="E168" s="12"/>
+      <c r="F168" s="12"/>
+      <c r="G168" s="13"/>
+    </row>
+    <row r="169" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="B169" s="4" t="s">
+      <c r="B169" s="26" t="s">
         <v>363</v>
       </c>
-      <c r="C169" s="3">
+      <c r="C169" s="27">
         <v>7</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="4" t="s">
+      <c r="D169" s="9"/>
+      <c r="E169" s="12"/>
+      <c r="F169" s="12"/>
+      <c r="G169" s="13"/>
+    </row>
+    <row r="170" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="B170" s="4" t="s">
+      <c r="B170" s="28" t="s">
         <v>364</v>
       </c>
-      <c r="C170" s="3">
+      <c r="C170" s="29">
         <v>8</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="4" t="s">
+      <c r="D170" s="9"/>
+      <c r="E170" s="12"/>
+      <c r="F170" s="12"/>
+      <c r="G170" s="13"/>
+    </row>
+    <row r="171" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="B171" s="4" t="s">
+      <c r="B171" s="28" t="s">
         <v>365</v>
       </c>
-      <c r="C171" s="3">
+      <c r="C171" s="29">
         <v>8</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="4" t="s">
+      <c r="D171" s="9"/>
+      <c r="E171" s="12"/>
+      <c r="F171" s="12"/>
+      <c r="G171" s="13"/>
+    </row>
+    <row r="172" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="B172" s="4" t="s">
+      <c r="B172" s="28" t="s">
         <v>366</v>
       </c>
-      <c r="C172" s="3">
+      <c r="C172" s="29">
         <v>8</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="4" t="s">
+      <c r="D172" s="9"/>
+      <c r="E172" s="12"/>
+      <c r="F172" s="12"/>
+      <c r="G172" s="13"/>
+    </row>
+    <row r="173" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="28" t="s">
         <v>172</v>
       </c>
-      <c r="B173" s="4" t="s">
+      <c r="B173" s="28" t="s">
         <v>367</v>
       </c>
-      <c r="C173" s="3">
+      <c r="C173" s="29">
         <v>8</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="4" t="s">
+      <c r="D173" s="9"/>
+      <c r="E173" s="12"/>
+      <c r="F173" s="12"/>
+      <c r="G173" s="13"/>
+    </row>
+    <row r="174" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="B174" s="4" t="s">
+      <c r="B174" s="28" t="s">
         <v>368</v>
       </c>
-      <c r="C174" s="3">
+      <c r="C174" s="29">
         <v>8</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="4" t="s">
+      <c r="D174" s="9"/>
+      <c r="E174" s="12"/>
+      <c r="F174" s="12"/>
+      <c r="G174" s="13"/>
+    </row>
+    <row r="175" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="B175" s="4" t="s">
+      <c r="B175" s="28" t="s">
         <v>369</v>
       </c>
-      <c r="C175" s="3">
+      <c r="C175" s="29">
         <v>8</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="4" t="s">
+      <c r="D175" s="9"/>
+      <c r="E175" s="12"/>
+      <c r="F175" s="12"/>
+      <c r="G175" s="13"/>
+    </row>
+    <row r="176" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="B176" s="4" t="s">
+      <c r="B176" s="28" t="s">
         <v>370</v>
       </c>
-      <c r="C176" s="3">
+      <c r="C176" s="29">
         <v>8</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="4" t="s">
+      <c r="D176" s="9"/>
+      <c r="E176" s="12"/>
+      <c r="F176" s="12"/>
+      <c r="G176" s="13"/>
+    </row>
+    <row r="177" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="28" t="s">
         <v>176</v>
       </c>
-      <c r="B177" s="4" t="s">
+      <c r="B177" s="28" t="s">
         <v>371</v>
       </c>
-      <c r="C177" s="3">
+      <c r="C177" s="29">
         <v>8</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="4" t="s">
+      <c r="D177" s="9"/>
+      <c r="E177" s="12"/>
+      <c r="F177" s="12"/>
+      <c r="G177" s="13"/>
+    </row>
+    <row r="178" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="B178" s="4" t="s">
+      <c r="B178" s="28" t="s">
         <v>372</v>
       </c>
-      <c r="C178" s="3">
+      <c r="C178" s="29">
         <v>8</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="4" t="s">
+      <c r="D178" s="9"/>
+      <c r="E178" s="12"/>
+      <c r="F178" s="12"/>
+      <c r="G178" s="13"/>
+    </row>
+    <row r="179" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="B179" s="4" t="s">
+      <c r="B179" s="28" t="s">
         <v>373</v>
       </c>
-      <c r="C179" s="3">
+      <c r="C179" s="29">
         <v>8</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="4" t="s">
+      <c r="D179" s="9"/>
+      <c r="E179" s="12"/>
+      <c r="F179" s="12"/>
+      <c r="G179" s="13"/>
+    </row>
+    <row r="180" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="28" t="s">
         <v>179</v>
       </c>
-      <c r="B180" s="4" t="s">
+      <c r="B180" s="28" t="s">
         <v>374</v>
       </c>
-      <c r="C180" s="3">
+      <c r="C180" s="29">
         <v>8</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="4" t="s">
+      <c r="D180" s="9"/>
+      <c r="E180" s="12"/>
+      <c r="F180" s="12"/>
+      <c r="G180" s="13"/>
+    </row>
+    <row r="181" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="B181" s="4" t="s">
+      <c r="B181" s="28" t="s">
         <v>375</v>
       </c>
-      <c r="C181" s="3">
+      <c r="C181" s="29">
         <v>8</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="4" t="s">
+      <c r="D181" s="9"/>
+      <c r="E181" s="12"/>
+      <c r="F181" s="12"/>
+      <c r="G181" s="13"/>
+    </row>
+    <row r="182" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="B182" s="4" t="s">
+      <c r="B182" s="28" t="s">
         <v>376</v>
       </c>
-      <c r="C182" s="3">
+      <c r="C182" s="29">
         <v>8</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="4" t="s">
+      <c r="D182" s="9"/>
+      <c r="E182" s="12"/>
+      <c r="F182" s="12"/>
+      <c r="G182" s="13"/>
+    </row>
+    <row r="183" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="B183" s="4" t="s">
+      <c r="B183" s="28" t="s">
         <v>377</v>
       </c>
-      <c r="C183" s="3">
+      <c r="C183" s="29">
         <v>8</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="4" t="s">
+      <c r="D183" s="9"/>
+      <c r="E183" s="12"/>
+      <c r="F183" s="12"/>
+      <c r="G183" s="13"/>
+    </row>
+    <row r="184" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="B184" s="4" t="s">
+      <c r="B184" s="28" t="s">
         <v>378</v>
       </c>
-      <c r="C184" s="3">
+      <c r="C184" s="29">
         <v>8</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="4" t="s">
+      <c r="D184" s="9"/>
+      <c r="E184" s="12"/>
+      <c r="F184" s="12"/>
+      <c r="G184" s="13"/>
+    </row>
+    <row r="185" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="28" t="s">
         <v>184</v>
       </c>
-      <c r="B185" s="4" t="s">
+      <c r="B185" s="28" t="s">
         <v>379</v>
       </c>
-      <c r="C185" s="3">
+      <c r="C185" s="29">
         <v>8</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="4" t="s">
+      <c r="D185" s="9"/>
+      <c r="E185" s="12"/>
+      <c r="F185" s="12"/>
+      <c r="G185" s="13"/>
+    </row>
+    <row r="186" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="B186" s="4" t="s">
+      <c r="B186" s="28" t="s">
         <v>380</v>
       </c>
-      <c r="C186" s="3">
+      <c r="C186" s="29">
         <v>8</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="4" t="s">
+      <c r="D186" s="9"/>
+      <c r="E186" s="12"/>
+      <c r="F186" s="12"/>
+      <c r="G186" s="13"/>
+    </row>
+    <row r="187" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="28" t="s">
         <v>186</v>
       </c>
-      <c r="B187" s="4" t="s">
+      <c r="B187" s="28" t="s">
         <v>381</v>
       </c>
-      <c r="C187" s="3">
+      <c r="C187" s="29">
         <v>8</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="4" t="s">
+      <c r="D187" s="9"/>
+      <c r="E187" s="12"/>
+      <c r="F187" s="12"/>
+      <c r="G187" s="13"/>
+    </row>
+    <row r="188" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="B188" s="4" t="s">
+      <c r="B188" s="28" t="s">
         <v>382</v>
       </c>
-      <c r="C188" s="3">
+      <c r="C188" s="29">
         <v>8</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="4" t="s">
+      <c r="D188" s="9"/>
+      <c r="E188" s="12"/>
+      <c r="F188" s="12"/>
+      <c r="G188" s="13"/>
+    </row>
+    <row r="189" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="B189" s="4" t="s">
+      <c r="B189" s="28" t="s">
         <v>383</v>
       </c>
-      <c r="C189" s="3">
+      <c r="C189" s="29">
         <v>8</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="4" t="s">
+      <c r="D189" s="9"/>
+      <c r="E189" s="12"/>
+      <c r="F189" s="12"/>
+      <c r="G189" s="13"/>
+    </row>
+    <row r="190" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="B190" s="4" t="s">
+      <c r="B190" s="28" t="s">
         <v>384</v>
       </c>
-      <c r="C190" s="3">
+      <c r="C190" s="29">
         <v>8</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="4" t="s">
+      <c r="D190" s="9"/>
+      <c r="E190" s="12"/>
+      <c r="F190" s="12"/>
+      <c r="G190" s="13"/>
+    </row>
+    <row r="191" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="B191" s="4" t="s">
+      <c r="B191" s="30" t="s">
         <v>385</v>
       </c>
-      <c r="C191" s="3">
+      <c r="C191" s="31">
         <v>9</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="4" t="s">
+      <c r="D191" s="9"/>
+      <c r="E191" s="12"/>
+      <c r="F191" s="12"/>
+      <c r="G191" s="13"/>
+    </row>
+    <row r="192" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="30" t="s">
         <v>191</v>
       </c>
-      <c r="B192" s="4" t="s">
+      <c r="B192" s="30" t="s">
         <v>386</v>
       </c>
-      <c r="C192" s="3">
+      <c r="C192" s="31">
         <v>9</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="4" t="s">
+      <c r="D192" s="9"/>
+      <c r="E192" s="12"/>
+      <c r="F192" s="12"/>
+      <c r="G192" s="13"/>
+    </row>
+    <row r="193" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="B193" s="4" t="s">
+      <c r="B193" s="30" t="s">
         <v>387</v>
       </c>
-      <c r="C193" s="3">
+      <c r="C193" s="31">
         <v>9</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="4" t="s">
+      <c r="D193" s="9"/>
+      <c r="E193" s="12"/>
+      <c r="F193" s="12"/>
+      <c r="G193" s="13"/>
+    </row>
+    <row r="194" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="30" t="s">
         <v>193</v>
       </c>
-      <c r="B194" s="4" t="s">
+      <c r="B194" s="30" t="s">
         <v>388</v>
       </c>
-      <c r="C194" s="3">
+      <c r="C194" s="31">
         <v>9</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="4" t="s">
+      <c r="D194" s="9"/>
+      <c r="E194" s="12"/>
+      <c r="F194" s="12"/>
+      <c r="G194" s="13"/>
+    </row>
+    <row r="195" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="30" t="s">
         <v>194</v>
       </c>
-      <c r="B195" s="4" t="s">
+      <c r="B195" s="30" t="s">
         <v>389</v>
       </c>
-      <c r="C195" s="3">
+      <c r="C195" s="31">
         <v>9</v>
       </c>
+      <c r="D195" s="9"/>
+      <c r="E195" s="12"/>
+      <c r="F195" s="12"/>
+      <c r="G195" s="13"/>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D196" s="9"/>
+      <c r="E196" s="9"/>
+      <c r="F196" s="9"/>
+      <c r="G196" s="9"/>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D197" s="9"/>
+      <c r="E197" s="9"/>
+      <c r="F197" s="9"/>
+      <c r="G197" s="9"/>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D198" s="9"/>
+      <c r="E198" s="9"/>
+      <c r="F198" s="9"/>
+      <c r="G198" s="9"/>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D199" s="9"/>
+      <c r="E199" s="9"/>
+      <c r="F199" s="9"/>
+      <c r="G199" s="9"/>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D200" s="9"/>
+      <c r="E200" s="9"/>
+      <c r="F200" s="9"/>
+      <c r="G200" s="9"/>
+    </row>
+    <row r="213" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D213" s="9"/>
+      <c r="E213" s="9"/>
+      <c r="F213" s="9"/>
+      <c r="G213" s="9"/>
+    </row>
+    <row r="214" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D214" s="9"/>
+      <c r="E214" s="9"/>
+      <c r="F214" s="9"/>
+      <c r="G214" s="9"/>
+    </row>
+    <row r="215" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D215" s="9"/>
+      <c r="E215" s="9"/>
+      <c r="F215" s="9"/>
+      <c r="G215" s="9"/>
+    </row>
+    <row r="216" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D216" s="9"/>
+      <c r="E216" s="9"/>
+      <c r="F216" s="9"/>
+      <c r="G216" s="9"/>
+    </row>
+    <row r="217" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D217" s="9"/>
+      <c r="E217" s="9"/>
+      <c r="F217" s="9"/>
+      <c r="G217" s="9"/>
+    </row>
+    <row r="218" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D218" s="9"/>
+      <c r="E218" s="9"/>
+      <c r="F218" s="9"/>
+      <c r="G218" s="9"/>
+    </row>
+    <row r="219" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D219" s="9"/>
+      <c r="E219" s="9"/>
+      <c r="F219" s="9"/>
+      <c r="G219" s="9"/>
+    </row>
+    <row r="220" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D220" s="9"/>
+      <c r="E220" s="9"/>
+      <c r="F220" s="9"/>
+      <c r="G220" s="9"/>
+    </row>
+    <row r="221" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D221" s="9"/>
+      <c r="E221" s="9"/>
+      <c r="F221" s="9"/>
+      <c r="G221" s="9"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C195" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Stock Item Type Listing.xlsx
+++ b/Stock Item Type Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp2\htdocs\Internship-Yung-Kong-Website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA545C19-67F8-48A8-90CF-D4F6094D5383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE58C49-2077-4B4C-8C09-2481B765A69C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$1:$C$195</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$2:$C$196</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -1357,7 +1357,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1377,16 +1377,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1722,10 +1715,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I221"/>
+  <dimension ref="A1:I196"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1733,3066 +1726,2775 @@
     <col min="1" max="1" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="5" t="s">
+      <c r="D2" s="9"/>
+      <c r="E2" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="G1" s="11"/>
-    </row>
-    <row r="2" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    </row>
+    <row r="3" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B3" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="C2" s="8">
-        <v>0</v>
-      </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="6">
-        <v>0</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>392</v>
-      </c>
-      <c r="G2" s="13"/>
-    </row>
-    <row r="3" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="C3" s="8">
         <v>0</v>
       </c>
-      <c r="D3" s="9"/>
       <c r="E3" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="G3" s="13"/>
-    </row>
-    <row r="4" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C4" s="8">
         <v>0</v>
       </c>
-      <c r="D4" s="9"/>
       <c r="E4" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="G4" s="13"/>
-    </row>
-    <row r="5" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C5" s="8">
         <v>0</v>
       </c>
-      <c r="D5" s="9"/>
       <c r="E5" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="G5" s="13"/>
-    </row>
-    <row r="6" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C6" s="8">
         <v>0</v>
       </c>
-      <c r="D6" s="9"/>
       <c r="E6" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="G6" s="13"/>
-    </row>
-    <row r="7" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C7" s="8">
         <v>0</v>
       </c>
-      <c r="D7" s="9"/>
       <c r="E7" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="G7" s="13"/>
-    </row>
-    <row r="8" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C8" s="8">
         <v>0</v>
       </c>
-      <c r="D8" s="9"/>
       <c r="E8" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="G8" s="13"/>
-    </row>
-    <row r="9" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>396</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C9" s="8">
         <v>0</v>
       </c>
-      <c r="D9" s="9"/>
       <c r="E9" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>398</v>
-      </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="13"/>
-    </row>
-    <row r="10" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>397</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C10" s="8">
         <v>0</v>
       </c>
-      <c r="D10" s="9"/>
       <c r="E10" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="G10" s="13"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="13"/>
-    </row>
-    <row r="11" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C11" s="8">
         <v>0</v>
       </c>
-      <c r="D11" s="9"/>
       <c r="E11" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="13"/>
-    </row>
-    <row r="12" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C12" s="8">
         <v>0</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="13"/>
-    </row>
-    <row r="13" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E12" s="6">
+        <v>9</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C13" s="8">
         <v>0</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="13"/>
-    </row>
-    <row r="14" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C14" s="8">
         <v>0</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="13"/>
-    </row>
-    <row r="15" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E14" s="10"/>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C15" s="8">
         <v>0</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="13"/>
-    </row>
-    <row r="16" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E15" s="10"/>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C16" s="8">
         <v>0</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="13"/>
+      <c r="E16" s="10"/>
+      <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C17" s="8">
         <v>0</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="13"/>
+      <c r="E17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C18" s="8">
         <v>0</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="13"/>
+      <c r="E18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C19" s="8">
         <v>0</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="13"/>
+      <c r="E19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C20" s="8">
         <v>0</v>
       </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="12"/>
+      <c r="E20" s="10"/>
+      <c r="H20" s="10"/>
     </row>
     <row r="21" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C21" s="8">
         <v>0</v>
       </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="12"/>
+      <c r="E21" s="10"/>
     </row>
     <row r="22" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C22" s="8">
         <v>0</v>
       </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="12"/>
+      <c r="E22" s="10"/>
     </row>
     <row r="23" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C23" s="8">
         <v>0</v>
       </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="12"/>
+      <c r="E23" s="10"/>
     </row>
     <row r="24" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C24" s="8">
         <v>0</v>
       </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="13"/>
+      <c r="E24" s="10"/>
     </row>
     <row r="25" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C25" s="8">
         <v>0</v>
       </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="13"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C26" s="8">
         <v>0</v>
       </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="13"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C27" s="8">
         <v>0</v>
       </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="13"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C28" s="8">
         <v>0</v>
       </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="13"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C29" s="8">
         <v>0</v>
       </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="13"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C30" s="8">
         <v>0</v>
       </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="13"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C31" s="8">
         <v>0</v>
       </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="13"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C32" s="8">
         <v>0</v>
       </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="13"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C33" s="8">
         <v>0</v>
       </c>
-      <c r="D33" s="9"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="13"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C34" s="8">
         <v>0</v>
       </c>
-      <c r="D34" s="9"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="13"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C35" s="8">
         <v>0</v>
       </c>
-      <c r="D35" s="9"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="13"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C36" s="8">
         <v>0</v>
       </c>
-      <c r="D36" s="9"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="13"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C37" s="8">
         <v>0</v>
       </c>
-      <c r="D37" s="9"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="13"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C38" s="8">
         <v>0</v>
       </c>
-      <c r="D38" s="9"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="13"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C39" s="8">
         <v>0</v>
       </c>
-      <c r="D39" s="9"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="13"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C40" s="8">
         <v>0</v>
       </c>
-      <c r="D40" s="9"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="13"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C41" s="8">
         <v>0</v>
       </c>
-      <c r="D41" s="9"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="13"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C42" s="8">
         <v>0</v>
       </c>
-      <c r="D42" s="9"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="13"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C43" s="8">
         <v>0</v>
       </c>
-      <c r="D43" s="9"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="13"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="1"/>
     </row>
     <row r="44" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C44" s="8">
         <v>0</v>
       </c>
-      <c r="D44" s="9"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="13"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="14" t="s">
+      <c r="A45" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C45" s="8">
+        <v>0</v>
+      </c>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="14" t="s">
+      <c r="B46" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="C45" s="15">
+      <c r="C46" s="12">
         <v>1</v>
       </c>
-      <c r="D45" s="9"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="13"/>
-    </row>
-    <row r="46" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="14" t="s">
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="14" t="s">
+      <c r="B47" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="C46" s="15">
+      <c r="C47" s="12">
         <v>1</v>
       </c>
-      <c r="D46" s="9"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="13"/>
-    </row>
-    <row r="47" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="14" t="s">
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="14" t="s">
+      <c r="B48" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="C47" s="15">
+      <c r="C48" s="12">
         <v>1</v>
       </c>
-      <c r="D47" s="9"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="13"/>
-    </row>
-    <row r="48" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="14" t="s">
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="14" t="s">
+      <c r="B49" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="C48" s="15">
+      <c r="C49" s="12">
         <v>1</v>
       </c>
-      <c r="D48" s="9"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="13"/>
-    </row>
-    <row r="49" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="14" t="s">
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="14" t="s">
+      <c r="B50" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="C49" s="15">
+      <c r="C50" s="12">
         <v>1</v>
       </c>
-      <c r="D49" s="9"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="13"/>
-    </row>
-    <row r="50" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="14" t="s">
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="14" t="s">
+      <c r="B51" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="C50" s="15">
+      <c r="C51" s="12">
         <v>1</v>
       </c>
-      <c r="D50" s="9"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="13"/>
-    </row>
-    <row r="51" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="14" t="s">
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B51" s="14" t="s">
+      <c r="B52" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="C51" s="15">
+      <c r="C52" s="12">
         <v>1</v>
       </c>
-      <c r="D51" s="9"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="13"/>
-    </row>
-    <row r="52" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="14" t="s">
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="1"/>
+    </row>
+    <row r="53" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B52" s="14" t="s">
+      <c r="B53" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="C52" s="15">
+      <c r="C53" s="12">
         <v>1</v>
       </c>
-      <c r="D52" s="9"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="13"/>
-    </row>
-    <row r="53" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="14" t="s">
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="1"/>
+    </row>
+    <row r="54" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B53" s="14" t="s">
+      <c r="B54" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="C53" s="15">
+      <c r="C54" s="12">
         <v>1</v>
       </c>
-      <c r="D53" s="9"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="13"/>
-    </row>
-    <row r="54" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="14" t="s">
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="1"/>
+    </row>
+    <row r="55" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B54" s="14" t="s">
+      <c r="B55" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="C54" s="15">
+      <c r="C55" s="12">
         <v>1</v>
       </c>
-      <c r="D54" s="9"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="13"/>
-    </row>
-    <row r="55" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="14" t="s">
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="1"/>
+    </row>
+    <row r="56" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B55" s="14" t="s">
+      <c r="B56" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="C55" s="15">
+      <c r="C56" s="12">
         <v>1</v>
       </c>
-      <c r="D55" s="9"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="13"/>
-    </row>
-    <row r="56" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="14" t="s">
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="1"/>
+    </row>
+    <row r="57" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B56" s="14" t="s">
+      <c r="B57" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="C56" s="15">
+      <c r="C57" s="12">
         <v>1</v>
       </c>
-      <c r="D56" s="9"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="13"/>
-    </row>
-    <row r="57" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="14" t="s">
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B57" s="14" t="s">
+      <c r="B58" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="C57" s="15">
+      <c r="C58" s="12">
         <v>1</v>
       </c>
-      <c r="D57" s="9"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="13"/>
-    </row>
-    <row r="58" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="14" t="s">
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="1"/>
+    </row>
+    <row r="59" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B58" s="14" t="s">
+      <c r="B59" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="C58" s="15">
+      <c r="C59" s="12">
         <v>1</v>
       </c>
-      <c r="D58" s="9"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="13"/>
-    </row>
-    <row r="59" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="16" t="s">
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="1"/>
+    </row>
+    <row r="60" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B59" s="16" t="s">
+      <c r="B60" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="C59" s="17">
+      <c r="C60" s="14">
         <v>2</v>
       </c>
-      <c r="D59" s="9"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="12"/>
-      <c r="G59" s="13"/>
-    </row>
-    <row r="60" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="16" t="s">
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="1"/>
+    </row>
+    <row r="61" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B60" s="16" t="s">
+      <c r="B61" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="C60" s="17">
+      <c r="C61" s="14">
         <v>2</v>
       </c>
-      <c r="D60" s="9"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="13"/>
-    </row>
-    <row r="61" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="16" t="s">
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="1"/>
+    </row>
+    <row r="62" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B61" s="16" t="s">
+      <c r="B62" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="C61" s="17">
+      <c r="C62" s="14">
         <v>2</v>
       </c>
-      <c r="D61" s="9"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="12"/>
-      <c r="G61" s="13"/>
-    </row>
-    <row r="62" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="16" t="s">
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="1"/>
+    </row>
+    <row r="63" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B62" s="16" t="s">
+      <c r="B63" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="C62" s="17">
+      <c r="C63" s="14">
         <v>2</v>
       </c>
-      <c r="D62" s="9"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="12"/>
-      <c r="G62" s="13"/>
-    </row>
-    <row r="63" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="16" t="s">
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="1"/>
+    </row>
+    <row r="64" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B63" s="16" t="s">
+      <c r="B64" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="C63" s="17">
+      <c r="C64" s="14">
         <v>2</v>
       </c>
-      <c r="D63" s="9"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="12"/>
-      <c r="G63" s="13"/>
-    </row>
-    <row r="64" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="16" t="s">
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="1"/>
+    </row>
+    <row r="65" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B64" s="16" t="s">
+      <c r="B65" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="C64" s="17">
+      <c r="C65" s="14">
         <v>2</v>
       </c>
-      <c r="D64" s="9"/>
-      <c r="E64" s="12"/>
-      <c r="F64" s="12"/>
-      <c r="G64" s="13"/>
-    </row>
-    <row r="65" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="16" t="s">
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="1"/>
+    </row>
+    <row r="66" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B65" s="16" t="s">
+      <c r="B66" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="C65" s="17">
+      <c r="C66" s="14">
         <v>2</v>
       </c>
-      <c r="D65" s="9"/>
-      <c r="E65" s="12"/>
-      <c r="F65" s="12"/>
-      <c r="G65" s="13"/>
-    </row>
-    <row r="66" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="16" t="s">
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="1"/>
+    </row>
+    <row r="67" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B66" s="16" t="s">
+      <c r="B67" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="C66" s="17">
+      <c r="C67" s="14">
         <v>2</v>
       </c>
-      <c r="D66" s="9"/>
-      <c r="E66" s="12"/>
-      <c r="F66" s="12"/>
-      <c r="G66" s="13"/>
-    </row>
-    <row r="67" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="16" t="s">
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="1"/>
+    </row>
+    <row r="68" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B67" s="16" t="s">
+      <c r="B68" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="C67" s="17">
+      <c r="C68" s="14">
         <v>2</v>
       </c>
-      <c r="D67" s="9"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="12"/>
-      <c r="G67" s="13"/>
-    </row>
-    <row r="68" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="16" t="s">
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="1"/>
+    </row>
+    <row r="69" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B68" s="16" t="s">
+      <c r="B69" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="C68" s="17">
+      <c r="C69" s="14">
         <v>2</v>
       </c>
-      <c r="D68" s="9"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="12"/>
-      <c r="G68" s="13"/>
-    </row>
-    <row r="69" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="16" t="s">
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="1"/>
+    </row>
+    <row r="70" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="B69" s="16" t="s">
+      <c r="B70" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="C69" s="17">
+      <c r="C70" s="14">
         <v>2</v>
       </c>
-      <c r="D69" s="9"/>
-      <c r="E69" s="12"/>
-      <c r="F69" s="12"/>
-      <c r="G69" s="13"/>
-    </row>
-    <row r="70" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="16" t="s">
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="1"/>
+    </row>
+    <row r="71" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B70" s="16" t="s">
+      <c r="B71" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="C70" s="17">
+      <c r="C71" s="14">
         <v>2</v>
       </c>
-      <c r="D70" s="9"/>
-      <c r="E70" s="12"/>
-      <c r="F70" s="12"/>
-      <c r="G70" s="13"/>
-    </row>
-    <row r="71" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="16" t="s">
+      <c r="E71" s="10"/>
+      <c r="F71" s="10"/>
+      <c r="G71" s="1"/>
+    </row>
+    <row r="72" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B71" s="16" t="s">
+      <c r="B72" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="C71" s="17">
+      <c r="C72" s="14">
         <v>2</v>
       </c>
-      <c r="D71" s="9"/>
-      <c r="E71" s="12"/>
-      <c r="F71" s="12"/>
-      <c r="G71" s="13"/>
-    </row>
-    <row r="72" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="16" t="s">
+      <c r="E72" s="10"/>
+      <c r="F72" s="10"/>
+      <c r="G72" s="1"/>
+    </row>
+    <row r="73" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B72" s="16" t="s">
+      <c r="B73" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="C72" s="17">
+      <c r="C73" s="14">
         <v>2</v>
       </c>
-      <c r="D72" s="9"/>
-      <c r="E72" s="12"/>
-      <c r="F72" s="12"/>
-      <c r="G72" s="13"/>
-    </row>
-    <row r="73" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="16" t="s">
+      <c r="E73" s="10"/>
+      <c r="F73" s="10"/>
+      <c r="G73" s="1"/>
+    </row>
+    <row r="74" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="B73" s="16" t="s">
+      <c r="B74" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="C73" s="17">
+      <c r="C74" s="14">
         <v>2</v>
       </c>
-      <c r="D73" s="9"/>
-      <c r="E73" s="12"/>
-      <c r="F73" s="12"/>
-      <c r="G73" s="13"/>
-    </row>
-    <row r="74" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="16" t="s">
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="1"/>
+    </row>
+    <row r="75" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="B74" s="16" t="s">
+      <c r="B75" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="C74" s="17">
+      <c r="C75" s="14">
         <v>2</v>
       </c>
-      <c r="D74" s="9"/>
-      <c r="E74" s="12"/>
-      <c r="F74" s="12"/>
-      <c r="G74" s="13"/>
-    </row>
-    <row r="75" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="16" t="s">
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="1"/>
+    </row>
+    <row r="76" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="B75" s="16" t="s">
+      <c r="B76" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="C75" s="17">
+      <c r="C76" s="14">
         <v>2</v>
       </c>
-      <c r="D75" s="9"/>
-      <c r="E75" s="12"/>
-      <c r="F75" s="12"/>
-      <c r="G75" s="13"/>
-    </row>
-    <row r="76" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="16" t="s">
+      <c r="E76" s="10"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="1"/>
+    </row>
+    <row r="77" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="B76" s="16" t="s">
+      <c r="B77" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="C76" s="17">
+      <c r="C77" s="14">
         <v>2</v>
       </c>
-      <c r="D76" s="9"/>
-      <c r="E76" s="12"/>
-      <c r="F76" s="12"/>
-      <c r="G76" s="13"/>
-    </row>
-    <row r="77" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="16" t="s">
+      <c r="E77" s="10"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="1"/>
+    </row>
+    <row r="78" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B77" s="16" t="s">
+      <c r="B78" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="C77" s="17">
+      <c r="C78" s="14">
         <v>2</v>
       </c>
-      <c r="D77" s="9"/>
-      <c r="E77" s="12"/>
-      <c r="F77" s="12"/>
-      <c r="G77" s="13"/>
-    </row>
-    <row r="78" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="16" t="s">
+      <c r="E78" s="10"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="1"/>
+    </row>
+    <row r="79" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="B78" s="16" t="s">
+      <c r="B79" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="C78" s="17">
+      <c r="C79" s="14">
         <v>2</v>
       </c>
-      <c r="D78" s="9"/>
-      <c r="E78" s="12"/>
-      <c r="F78" s="12"/>
-      <c r="G78" s="13"/>
-    </row>
-    <row r="79" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="16" t="s">
+      <c r="E79" s="10"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="1"/>
+    </row>
+    <row r="80" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B79" s="16" t="s">
+      <c r="B80" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="C79" s="17">
+      <c r="C80" s="14">
         <v>2</v>
       </c>
-      <c r="D79" s="9"/>
-      <c r="E79" s="12"/>
-      <c r="F79" s="12"/>
-      <c r="G79" s="13"/>
-    </row>
-    <row r="80" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="16" t="s">
+      <c r="E80" s="10"/>
+      <c r="F80" s="10"/>
+      <c r="G80" s="1"/>
+    </row>
+    <row r="81" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="B80" s="16" t="s">
+      <c r="B81" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="C80" s="17">
+      <c r="C81" s="14">
         <v>2</v>
       </c>
-      <c r="D80" s="9"/>
-      <c r="E80" s="12"/>
-      <c r="F80" s="12"/>
-      <c r="G80" s="13"/>
-    </row>
-    <row r="81" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="16" t="s">
+      <c r="E81" s="10"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="1"/>
+    </row>
+    <row r="82" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="B81" s="16" t="s">
+      <c r="B82" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="C81" s="17">
+      <c r="C82" s="14">
         <v>2</v>
       </c>
-      <c r="D81" s="9"/>
-      <c r="E81" s="12"/>
-      <c r="F81" s="12"/>
-      <c r="G81" s="13"/>
-    </row>
-    <row r="82" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="18" t="s">
+      <c r="E82" s="10"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="1"/>
+    </row>
+    <row r="83" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="B82" s="18" t="s">
+      <c r="B83" s="15" t="s">
         <v>276</v>
       </c>
-      <c r="C82" s="19">
+      <c r="C83" s="16">
         <v>3</v>
       </c>
-      <c r="D82" s="9"/>
-      <c r="E82" s="12"/>
-      <c r="F82" s="12"/>
-      <c r="G82" s="13"/>
-    </row>
-    <row r="83" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="18" t="s">
+      <c r="E83" s="10"/>
+      <c r="F83" s="10"/>
+      <c r="G83" s="1"/>
+    </row>
+    <row r="84" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="B83" s="18" t="s">
+      <c r="B84" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="C83" s="19">
+      <c r="C84" s="16">
         <v>3</v>
       </c>
-      <c r="D83" s="9"/>
-      <c r="E83" s="12"/>
-      <c r="F83" s="12"/>
-      <c r="G83" s="13"/>
-    </row>
-    <row r="84" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="18" t="s">
+      <c r="E84" s="10"/>
+      <c r="F84" s="10"/>
+      <c r="G84" s="1"/>
+    </row>
+    <row r="85" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="B84" s="18" t="s">
+      <c r="B85" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="C84" s="19">
+      <c r="C85" s="16">
         <v>3</v>
       </c>
-      <c r="D84" s="9"/>
-      <c r="E84" s="12"/>
-      <c r="F84" s="12"/>
-      <c r="G84" s="13"/>
-    </row>
-    <row r="85" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="18" t="s">
+      <c r="E85" s="10"/>
+      <c r="F85" s="10"/>
+      <c r="G85" s="1"/>
+    </row>
+    <row r="86" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="B85" s="18" t="s">
+      <c r="B86" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="C85" s="19">
+      <c r="C86" s="16">
         <v>3</v>
       </c>
-      <c r="D85" s="9"/>
-      <c r="E85" s="12"/>
-      <c r="F85" s="12"/>
-      <c r="G85" s="13"/>
-    </row>
-    <row r="86" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="18" t="s">
+      <c r="E86" s="10"/>
+      <c r="F86" s="10"/>
+      <c r="G86" s="1"/>
+    </row>
+    <row r="87" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B86" s="18" t="s">
+      <c r="B87" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="C86" s="19">
+      <c r="C87" s="16">
         <v>3</v>
       </c>
-      <c r="D86" s="9"/>
-      <c r="E86" s="12"/>
-      <c r="F86" s="12"/>
-      <c r="G86" s="13"/>
-    </row>
-    <row r="87" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="18" t="s">
+      <c r="E87" s="10"/>
+      <c r="F87" s="10"/>
+      <c r="G87" s="1"/>
+    </row>
+    <row r="88" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="B87" s="18" t="s">
+      <c r="B88" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="C87" s="19">
+      <c r="C88" s="16">
         <v>3</v>
       </c>
-      <c r="D87" s="9"/>
-      <c r="E87" s="12"/>
-      <c r="F87" s="12"/>
-      <c r="G87" s="13"/>
-    </row>
-    <row r="88" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="18" t="s">
+      <c r="E88" s="10"/>
+      <c r="F88" s="10"/>
+      <c r="G88" s="1"/>
+    </row>
+    <row r="89" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="B88" s="18" t="s">
+      <c r="B89" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="C88" s="19">
+      <c r="C89" s="16">
         <v>3</v>
       </c>
-      <c r="D88" s="9"/>
-      <c r="E88" s="12"/>
-      <c r="F88" s="12"/>
-      <c r="G88" s="13"/>
-    </row>
-    <row r="89" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="18" t="s">
+      <c r="E89" s="10"/>
+      <c r="F89" s="10"/>
+      <c r="G89" s="1"/>
+    </row>
+    <row r="90" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="B89" s="18" t="s">
+      <c r="B90" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="C89" s="19">
+      <c r="C90" s="16">
         <v>3</v>
       </c>
-      <c r="D89" s="9"/>
-      <c r="E89" s="12"/>
-      <c r="F89" s="12"/>
-      <c r="G89" s="13"/>
-    </row>
-    <row r="90" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="18" t="s">
+      <c r="E90" s="10"/>
+      <c r="F90" s="10"/>
+      <c r="G90" s="1"/>
+    </row>
+    <row r="91" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="B90" s="18" t="s">
+      <c r="B91" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="C90" s="19">
+      <c r="C91" s="16">
         <v>3</v>
       </c>
-      <c r="D90" s="9"/>
-      <c r="E90" s="12"/>
-      <c r="F90" s="12"/>
-      <c r="G90" s="13"/>
-    </row>
-    <row r="91" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="18" t="s">
+      <c r="E91" s="10"/>
+      <c r="F91" s="10"/>
+      <c r="G91" s="1"/>
+    </row>
+    <row r="92" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="B91" s="18" t="s">
+      <c r="B92" s="15" t="s">
         <v>285</v>
       </c>
-      <c r="C91" s="19">
+      <c r="C92" s="16">
         <v>3</v>
       </c>
-      <c r="D91" s="9"/>
-      <c r="E91" s="12"/>
-      <c r="F91" s="12"/>
-      <c r="G91" s="13"/>
-    </row>
-    <row r="92" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="18" t="s">
+      <c r="E92" s="10"/>
+      <c r="F92" s="10"/>
+      <c r="G92" s="1"/>
+    </row>
+    <row r="93" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="B92" s="18" t="s">
+      <c r="B93" s="15" t="s">
         <v>286</v>
       </c>
-      <c r="C92" s="19">
+      <c r="C93" s="16">
         <v>3</v>
       </c>
-      <c r="D92" s="9"/>
-      <c r="E92" s="12"/>
-      <c r="F92" s="12"/>
-      <c r="G92" s="13"/>
-    </row>
-    <row r="93" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="18" t="s">
+      <c r="E93" s="10"/>
+      <c r="F93" s="10"/>
+      <c r="G93" s="1"/>
+    </row>
+    <row r="94" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="B93" s="18" t="s">
+      <c r="B94" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="C93" s="19">
+      <c r="C94" s="16">
         <v>3</v>
       </c>
-      <c r="D93" s="9"/>
-      <c r="E93" s="12"/>
-      <c r="F93" s="12"/>
-      <c r="G93" s="13"/>
-    </row>
-    <row r="94" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="18" t="s">
+      <c r="E94" s="10"/>
+      <c r="F94" s="10"/>
+      <c r="G94" s="1"/>
+    </row>
+    <row r="95" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="B94" s="18" t="s">
+      <c r="B95" s="15" t="s">
         <v>288</v>
       </c>
-      <c r="C94" s="19">
+      <c r="C95" s="16">
         <v>3</v>
       </c>
-      <c r="D94" s="9"/>
-      <c r="E94" s="12"/>
-      <c r="F94" s="12"/>
-      <c r="G94" s="13"/>
-    </row>
-    <row r="95" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="18" t="s">
+      <c r="E95" s="10"/>
+      <c r="F95" s="10"/>
+      <c r="G95" s="1"/>
+    </row>
+    <row r="96" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B95" s="18" t="s">
+      <c r="B96" s="15" t="s">
         <v>289</v>
       </c>
-      <c r="C95" s="19">
+      <c r="C96" s="16">
         <v>3</v>
       </c>
-      <c r="D95" s="9"/>
-      <c r="E95" s="12"/>
-      <c r="F95" s="12"/>
-      <c r="G95" s="13"/>
-    </row>
-    <row r="96" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="18" t="s">
+      <c r="E96" s="10"/>
+      <c r="F96" s="10"/>
+      <c r="G96" s="1"/>
+    </row>
+    <row r="97" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="B96" s="18" t="s">
+      <c r="B97" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="C96" s="19">
+      <c r="C97" s="16">
         <v>3</v>
       </c>
-      <c r="D96" s="9"/>
-      <c r="E96" s="12"/>
-      <c r="F96" s="12"/>
-      <c r="G96" s="13"/>
-    </row>
-    <row r="97" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="18" t="s">
+      <c r="E97" s="10"/>
+      <c r="F97" s="10"/>
+      <c r="G97" s="1"/>
+    </row>
+    <row r="98" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="B97" s="18" t="s">
+      <c r="B98" s="15" t="s">
         <v>291</v>
       </c>
-      <c r="C97" s="19">
+      <c r="C98" s="16">
         <v>3</v>
       </c>
-      <c r="D97" s="9"/>
-      <c r="E97" s="12"/>
-      <c r="F97" s="12"/>
-      <c r="G97" s="13"/>
-    </row>
-    <row r="98" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="18" t="s">
+      <c r="E98" s="10"/>
+      <c r="F98" s="10"/>
+      <c r="G98" s="1"/>
+    </row>
+    <row r="99" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="B98" s="18" t="s">
+      <c r="B99" s="15" t="s">
         <v>292</v>
       </c>
-      <c r="C98" s="19">
+      <c r="C99" s="16">
         <v>3</v>
       </c>
-      <c r="D98" s="9"/>
-      <c r="E98" s="12"/>
-      <c r="F98" s="12"/>
-      <c r="G98" s="13"/>
-    </row>
-    <row r="99" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="18" t="s">
+      <c r="E99" s="10"/>
+      <c r="F99" s="10"/>
+      <c r="G99" s="1"/>
+    </row>
+    <row r="100" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="B99" s="18" t="s">
+      <c r="B100" s="15" t="s">
         <v>293</v>
       </c>
-      <c r="C99" s="19">
+      <c r="C100" s="16">
         <v>3</v>
       </c>
-      <c r="D99" s="9"/>
-      <c r="E99" s="12"/>
-      <c r="F99" s="12"/>
-      <c r="G99" s="13"/>
-    </row>
-    <row r="100" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="18" t="s">
+      <c r="E100" s="10"/>
+      <c r="F100" s="10"/>
+      <c r="G100" s="1"/>
+    </row>
+    <row r="101" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="B100" s="18" t="s">
+      <c r="B101" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="C100" s="19">
+      <c r="C101" s="16">
         <v>3</v>
       </c>
-      <c r="D100" s="9"/>
-      <c r="E100" s="12"/>
-      <c r="F100" s="12"/>
-      <c r="G100" s="13"/>
-    </row>
-    <row r="101" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="18" t="s">
+      <c r="E101" s="10"/>
+      <c r="F101" s="10"/>
+      <c r="G101" s="1"/>
+    </row>
+    <row r="102" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="B101" s="18" t="s">
+      <c r="B102" s="15" t="s">
         <v>295</v>
       </c>
-      <c r="C101" s="19">
+      <c r="C102" s="16">
         <v>3</v>
       </c>
-      <c r="D101" s="9"/>
-      <c r="E101" s="12"/>
-      <c r="F101" s="12"/>
-      <c r="G101" s="13"/>
-    </row>
-    <row r="102" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="18" t="s">
+      <c r="E102" s="10"/>
+      <c r="F102" s="10"/>
+      <c r="G102" s="1"/>
+    </row>
+    <row r="103" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="B102" s="18" t="s">
+      <c r="B103" s="15" t="s">
         <v>296</v>
       </c>
-      <c r="C102" s="19">
+      <c r="C103" s="16">
         <v>3</v>
       </c>
-      <c r="D102" s="9"/>
-      <c r="E102" s="12"/>
-      <c r="F102" s="12"/>
-      <c r="G102" s="13"/>
-    </row>
-    <row r="103" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="18" t="s">
+      <c r="E103" s="10"/>
+      <c r="F103" s="10"/>
+      <c r="G103" s="1"/>
+    </row>
+    <row r="104" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="B103" s="18" t="s">
+      <c r="B104" s="15" t="s">
         <v>297</v>
       </c>
-      <c r="C103" s="19">
+      <c r="C104" s="16">
         <v>3</v>
       </c>
-      <c r="D103" s="9"/>
-      <c r="E103" s="12"/>
-      <c r="F103" s="12"/>
-      <c r="G103" s="13"/>
-    </row>
-    <row r="104" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="18" t="s">
+      <c r="E104" s="10"/>
+      <c r="F104" s="10"/>
+      <c r="G104" s="1"/>
+    </row>
+    <row r="105" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="B104" s="18" t="s">
+      <c r="B105" s="15" t="s">
         <v>298</v>
       </c>
-      <c r="C104" s="19">
+      <c r="C105" s="16">
         <v>3</v>
       </c>
-      <c r="D104" s="9"/>
-      <c r="E104" s="12"/>
-      <c r="F104" s="12"/>
-      <c r="G104" s="13"/>
-    </row>
-    <row r="105" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="18" t="s">
+      <c r="E105" s="10"/>
+      <c r="F105" s="10"/>
+      <c r="G105" s="1"/>
+    </row>
+    <row r="106" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="B105" s="18" t="s">
+      <c r="B106" s="15" t="s">
         <v>299</v>
       </c>
-      <c r="C105" s="19">
+      <c r="C106" s="16">
         <v>3</v>
       </c>
-      <c r="D105" s="9"/>
-      <c r="E105" s="12"/>
-      <c r="F105" s="12"/>
-      <c r="G105" s="13"/>
-    </row>
-    <row r="106" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="18" t="s">
+      <c r="E106" s="10"/>
+      <c r="F106" s="10"/>
+      <c r="G106" s="1"/>
+    </row>
+    <row r="107" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="B106" s="18" t="s">
+      <c r="B107" s="15" t="s">
         <v>300</v>
       </c>
-      <c r="C106" s="19">
+      <c r="C107" s="16">
         <v>3</v>
       </c>
-      <c r="D106" s="9"/>
-      <c r="E106" s="12"/>
-      <c r="F106" s="12"/>
-      <c r="G106" s="13"/>
-    </row>
-    <row r="107" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="18" t="s">
+      <c r="E107" s="10"/>
+      <c r="F107" s="10"/>
+      <c r="G107" s="1"/>
+    </row>
+    <row r="108" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="B107" s="18" t="s">
+      <c r="B108" s="15" t="s">
         <v>301</v>
       </c>
-      <c r="C107" s="19">
+      <c r="C108" s="16">
         <v>3</v>
       </c>
-      <c r="D107" s="9"/>
-      <c r="E107" s="12"/>
-      <c r="F107" s="12"/>
-      <c r="G107" s="13"/>
-    </row>
-    <row r="108" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="18" t="s">
+      <c r="E108" s="10"/>
+      <c r="F108" s="10"/>
+      <c r="G108" s="1"/>
+    </row>
+    <row r="109" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="B108" s="18" t="s">
+      <c r="B109" s="15" t="s">
         <v>302</v>
       </c>
-      <c r="C108" s="19">
+      <c r="C109" s="16">
         <v>3</v>
       </c>
-      <c r="D108" s="9"/>
-      <c r="E108" s="12"/>
-      <c r="F108" s="12"/>
-      <c r="G108" s="13"/>
-    </row>
-    <row r="109" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="18" t="s">
+      <c r="E109" s="10"/>
+      <c r="F109" s="10"/>
+      <c r="G109" s="1"/>
+    </row>
+    <row r="110" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="B109" s="18" t="s">
+      <c r="B110" s="15" t="s">
         <v>303</v>
       </c>
-      <c r="C109" s="19">
+      <c r="C110" s="16">
         <v>3</v>
       </c>
-      <c r="D109" s="9"/>
-      <c r="E109" s="12"/>
-      <c r="F109" s="12"/>
-      <c r="G109" s="13"/>
-    </row>
-    <row r="110" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="18" t="s">
+      <c r="E110" s="10"/>
+      <c r="F110" s="10"/>
+      <c r="G110" s="1"/>
+    </row>
+    <row r="111" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="B110" s="18" t="s">
+      <c r="B111" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="C110" s="19">
+      <c r="C111" s="16">
         <v>3</v>
       </c>
-      <c r="D110" s="9"/>
-      <c r="E110" s="12"/>
-      <c r="F110" s="12"/>
-      <c r="G110" s="13"/>
-    </row>
-    <row r="111" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="18" t="s">
+      <c r="E111" s="10"/>
+      <c r="F111" s="10"/>
+      <c r="G111" s="1"/>
+    </row>
+    <row r="112" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="B111" s="18" t="s">
+      <c r="B112" s="15" t="s">
         <v>305</v>
       </c>
-      <c r="C111" s="19">
+      <c r="C112" s="16">
         <v>3</v>
       </c>
-      <c r="D111" s="9"/>
-      <c r="E111" s="12"/>
-      <c r="F111" s="12"/>
-      <c r="G111" s="13"/>
-    </row>
-    <row r="112" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="18" t="s">
+      <c r="E112" s="10"/>
+      <c r="F112" s="10"/>
+      <c r="G112" s="1"/>
+    </row>
+    <row r="113" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="B112" s="18" t="s">
+      <c r="B113" s="15" t="s">
         <v>306</v>
       </c>
-      <c r="C112" s="19">
+      <c r="C113" s="16">
         <v>3</v>
       </c>
-      <c r="D112" s="9"/>
-      <c r="E112" s="12"/>
-      <c r="F112" s="12"/>
-      <c r="G112" s="13"/>
-    </row>
-    <row r="113" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="18" t="s">
+      <c r="E113" s="10"/>
+      <c r="F113" s="10"/>
+      <c r="G113" s="1"/>
+    </row>
+    <row r="114" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="B113" s="18" t="s">
+      <c r="B114" s="15" t="s">
         <v>307</v>
       </c>
-      <c r="C113" s="19">
+      <c r="C114" s="16">
         <v>3</v>
       </c>
-      <c r="D113" s="9"/>
-      <c r="E113" s="12"/>
-      <c r="F113" s="12"/>
-      <c r="G113" s="13"/>
-    </row>
-    <row r="114" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="18" t="s">
+      <c r="E114" s="10"/>
+      <c r="F114" s="10"/>
+      <c r="G114" s="1"/>
+    </row>
+    <row r="115" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="B114" s="18" t="s">
+      <c r="B115" s="15" t="s">
         <v>308</v>
       </c>
-      <c r="C114" s="19">
+      <c r="C115" s="16">
         <v>3</v>
       </c>
-      <c r="D114" s="9"/>
-      <c r="E114" s="12"/>
-      <c r="F114" s="12"/>
-      <c r="G114" s="13"/>
-    </row>
-    <row r="115" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="20" t="s">
+      <c r="E115" s="10"/>
+      <c r="F115" s="10"/>
+      <c r="G115" s="1"/>
+    </row>
+    <row r="116" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="B115" s="20" t="s">
+      <c r="B116" s="17" t="s">
         <v>309</v>
       </c>
-      <c r="C115" s="21">
+      <c r="C116" s="18">
         <v>4</v>
       </c>
-      <c r="D115" s="9"/>
-      <c r="E115" s="12"/>
-      <c r="F115" s="12"/>
-      <c r="G115" s="13"/>
-    </row>
-    <row r="116" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="20" t="s">
+      <c r="E116" s="10"/>
+      <c r="F116" s="10"/>
+      <c r="G116" s="1"/>
+    </row>
+    <row r="117" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="B116" s="20" t="s">
+      <c r="B117" s="17" t="s">
         <v>310</v>
       </c>
-      <c r="C116" s="21">
+      <c r="C117" s="18">
         <v>4</v>
       </c>
-      <c r="D116" s="9"/>
-      <c r="E116" s="12"/>
-      <c r="F116" s="12"/>
-      <c r="G116" s="13"/>
-    </row>
-    <row r="117" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="20" t="s">
+      <c r="E117" s="10"/>
+      <c r="F117" s="10"/>
+      <c r="G117" s="1"/>
+    </row>
+    <row r="118" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="B117" s="20" t="s">
+      <c r="B118" s="17" t="s">
         <v>311</v>
       </c>
-      <c r="C117" s="21">
+      <c r="C118" s="18">
         <v>4</v>
       </c>
-      <c r="D117" s="9"/>
-      <c r="E117" s="12"/>
-      <c r="F117" s="12"/>
-      <c r="G117" s="13"/>
-    </row>
-    <row r="118" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="20" t="s">
+      <c r="E118" s="10"/>
+      <c r="F118" s="10"/>
+      <c r="G118" s="1"/>
+    </row>
+    <row r="119" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="B118" s="20" t="s">
+      <c r="B119" s="17" t="s">
         <v>312</v>
       </c>
-      <c r="C118" s="21">
+      <c r="C119" s="18">
         <v>4</v>
       </c>
-      <c r="D118" s="9"/>
-      <c r="E118" s="12"/>
-      <c r="F118" s="12"/>
-      <c r="G118" s="13"/>
-    </row>
-    <row r="119" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="20" t="s">
+      <c r="E119" s="10"/>
+      <c r="F119" s="10"/>
+      <c r="G119" s="1"/>
+    </row>
+    <row r="120" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="B119" s="20" t="s">
+      <c r="B120" s="17" t="s">
         <v>313</v>
       </c>
-      <c r="C119" s="21">
+      <c r="C120" s="18">
         <v>4</v>
       </c>
-      <c r="D119" s="9"/>
-      <c r="E119" s="12"/>
-      <c r="F119" s="12"/>
-      <c r="G119" s="13"/>
-    </row>
-    <row r="120" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="20" t="s">
+      <c r="E120" s="10"/>
+      <c r="F120" s="10"/>
+      <c r="G120" s="1"/>
+    </row>
+    <row r="121" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="B120" s="20" t="s">
+      <c r="B121" s="17" t="s">
         <v>314</v>
       </c>
-      <c r="C120" s="21">
+      <c r="C121" s="18">
         <v>4</v>
       </c>
-      <c r="D120" s="9"/>
-      <c r="E120" s="12"/>
-      <c r="F120" s="12"/>
-      <c r="G120" s="13"/>
-    </row>
-    <row r="121" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="20" t="s">
+      <c r="E121" s="10"/>
+      <c r="F121" s="10"/>
+      <c r="G121" s="1"/>
+    </row>
+    <row r="122" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="B121" s="20" t="s">
+      <c r="B122" s="17" t="s">
         <v>315</v>
       </c>
-      <c r="C121" s="21">
+      <c r="C122" s="18">
         <v>4</v>
       </c>
-      <c r="D121" s="9"/>
-      <c r="E121" s="12"/>
-      <c r="F121" s="12"/>
-      <c r="G121" s="13"/>
-    </row>
-    <row r="122" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="20" t="s">
+      <c r="E122" s="10"/>
+      <c r="F122" s="10"/>
+      <c r="G122" s="1"/>
+    </row>
+    <row r="123" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="B122" s="20" t="s">
+      <c r="B123" s="17" t="s">
         <v>316</v>
       </c>
-      <c r="C122" s="21">
+      <c r="C123" s="18">
         <v>4</v>
       </c>
-      <c r="D122" s="9"/>
-      <c r="E122" s="12"/>
-      <c r="F122" s="12"/>
-      <c r="G122" s="13"/>
-    </row>
-    <row r="123" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="20" t="s">
+      <c r="E123" s="10"/>
+      <c r="F123" s="10"/>
+      <c r="G123" s="1"/>
+    </row>
+    <row r="124" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="B123" s="20" t="s">
+      <c r="B124" s="17" t="s">
         <v>317</v>
       </c>
-      <c r="C123" s="21">
+      <c r="C124" s="18">
         <v>4</v>
       </c>
-      <c r="D123" s="9"/>
-      <c r="E123" s="12"/>
-      <c r="F123" s="12"/>
-      <c r="G123" s="13"/>
-    </row>
-    <row r="124" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="20" t="s">
+      <c r="E124" s="10"/>
+      <c r="F124" s="10"/>
+      <c r="G124" s="1"/>
+    </row>
+    <row r="125" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="B124" s="20" t="s">
+      <c r="B125" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="C124" s="21">
+      <c r="C125" s="18">
         <v>4</v>
       </c>
-      <c r="D124" s="9"/>
-      <c r="E124" s="12"/>
-      <c r="F124" s="12"/>
-      <c r="G124" s="13"/>
-    </row>
-    <row r="125" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="20" t="s">
+      <c r="E125" s="10"/>
+      <c r="F125" s="10"/>
+      <c r="G125" s="1"/>
+    </row>
+    <row r="126" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="B125" s="20" t="s">
+      <c r="B126" s="17" t="s">
         <v>319</v>
       </c>
-      <c r="C125" s="21">
+      <c r="C126" s="18">
         <v>4</v>
       </c>
-      <c r="D125" s="9"/>
-      <c r="E125" s="12"/>
-      <c r="F125" s="12"/>
-      <c r="G125" s="13"/>
-    </row>
-    <row r="126" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="20" t="s">
+      <c r="E126" s="10"/>
+      <c r="F126" s="10"/>
+      <c r="G126" s="1"/>
+    </row>
+    <row r="127" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="B126" s="20" t="s">
+      <c r="B127" s="17" t="s">
         <v>320</v>
       </c>
-      <c r="C126" s="21">
+      <c r="C127" s="18">
         <v>4</v>
       </c>
-      <c r="D126" s="9"/>
-      <c r="E126" s="12"/>
-      <c r="F126" s="12"/>
-      <c r="G126" s="13"/>
-    </row>
-    <row r="127" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="20" t="s">
+      <c r="E127" s="10"/>
+      <c r="F127" s="10"/>
+      <c r="G127" s="1"/>
+    </row>
+    <row r="128" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="B127" s="20" t="s">
+      <c r="B128" s="17" t="s">
         <v>321</v>
       </c>
-      <c r="C127" s="21">
+      <c r="C128" s="18">
         <v>4</v>
       </c>
-      <c r="D127" s="9"/>
-      <c r="E127" s="12"/>
-      <c r="F127" s="12"/>
-      <c r="G127" s="13"/>
-    </row>
-    <row r="128" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="20" t="s">
+      <c r="E128" s="10"/>
+      <c r="F128" s="10"/>
+      <c r="G128" s="1"/>
+    </row>
+    <row r="129" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="B128" s="20" t="s">
+      <c r="B129" s="17" t="s">
         <v>322</v>
       </c>
-      <c r="C128" s="21">
+      <c r="C129" s="18">
         <v>4</v>
       </c>
-      <c r="D128" s="9"/>
-      <c r="E128" s="12"/>
-      <c r="F128" s="12"/>
-      <c r="G128" s="13"/>
-    </row>
-    <row r="129" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="20" t="s">
+      <c r="E129" s="10"/>
+      <c r="F129" s="10"/>
+      <c r="G129" s="1"/>
+    </row>
+    <row r="130" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="B129" s="20" t="s">
+      <c r="B130" s="17" t="s">
         <v>323</v>
       </c>
-      <c r="C129" s="21">
+      <c r="C130" s="18">
         <v>4</v>
       </c>
-      <c r="D129" s="9"/>
-      <c r="E129" s="12"/>
-      <c r="F129" s="12"/>
-      <c r="G129" s="13"/>
-    </row>
-    <row r="130" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="20" t="s">
+      <c r="E130" s="10"/>
+      <c r="F130" s="10"/>
+      <c r="G130" s="1"/>
+    </row>
+    <row r="131" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="B130" s="20" t="s">
+      <c r="B131" s="17" t="s">
         <v>324</v>
       </c>
-      <c r="C130" s="21">
+      <c r="C131" s="18">
         <v>4</v>
       </c>
-      <c r="D130" s="9"/>
-      <c r="E130" s="12"/>
-      <c r="F130" s="12"/>
-      <c r="G130" s="13"/>
-    </row>
-    <row r="131" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="22" t="s">
+      <c r="E131" s="10"/>
+      <c r="F131" s="10"/>
+      <c r="G131" s="1"/>
+    </row>
+    <row r="132" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="B131" s="22" t="s">
+      <c r="B132" s="19" t="s">
         <v>325</v>
       </c>
-      <c r="C131" s="23">
+      <c r="C132" s="20">
         <v>5</v>
       </c>
-      <c r="D131" s="9"/>
-      <c r="E131" s="12"/>
-      <c r="F131" s="12"/>
-      <c r="G131" s="13"/>
-    </row>
-    <row r="132" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="22" t="s">
+      <c r="E132" s="10"/>
+      <c r="F132" s="10"/>
+      <c r="G132" s="1"/>
+    </row>
+    <row r="133" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="B132" s="22" t="s">
+      <c r="B133" s="19" t="s">
         <v>326</v>
       </c>
-      <c r="C132" s="23">
+      <c r="C133" s="20">
         <v>5</v>
       </c>
-      <c r="D132" s="9"/>
-      <c r="E132" s="12"/>
-      <c r="F132" s="12"/>
-      <c r="G132" s="13"/>
-    </row>
-    <row r="133" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="22" t="s">
+      <c r="E133" s="10"/>
+      <c r="F133" s="10"/>
+      <c r="G133" s="1"/>
+    </row>
+    <row r="134" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="B133" s="22" t="s">
+      <c r="B134" s="19" t="s">
         <v>327</v>
       </c>
-      <c r="C133" s="23">
+      <c r="C134" s="20">
         <v>5</v>
       </c>
-      <c r="D133" s="9"/>
-      <c r="E133" s="12"/>
-      <c r="F133" s="12"/>
-      <c r="G133" s="13"/>
-    </row>
-    <row r="134" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="22" t="s">
+      <c r="E134" s="10"/>
+      <c r="F134" s="10"/>
+      <c r="G134" s="1"/>
+    </row>
+    <row r="135" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="B134" s="22" t="s">
+      <c r="B135" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="C134" s="23">
+      <c r="C135" s="20">
         <v>5</v>
       </c>
-      <c r="D134" s="9"/>
-      <c r="E134" s="12"/>
-      <c r="F134" s="12"/>
-      <c r="G134" s="13"/>
-    </row>
-    <row r="135" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="22" t="s">
+      <c r="E135" s="10"/>
+      <c r="F135" s="10"/>
+      <c r="G135" s="1"/>
+    </row>
+    <row r="136" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="B135" s="22" t="s">
+      <c r="B136" s="19" t="s">
         <v>329</v>
       </c>
-      <c r="C135" s="23">
+      <c r="C136" s="20">
         <v>5</v>
       </c>
-      <c r="D135" s="9"/>
-      <c r="E135" s="12"/>
-      <c r="F135" s="12"/>
-      <c r="G135" s="13"/>
-    </row>
-    <row r="136" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="22" t="s">
+      <c r="E136" s="10"/>
+      <c r="F136" s="10"/>
+      <c r="G136" s="1"/>
+    </row>
+    <row r="137" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="B136" s="22" t="s">
+      <c r="B137" s="19" t="s">
         <v>330</v>
       </c>
-      <c r="C136" s="23">
+      <c r="C137" s="20">
         <v>5</v>
       </c>
-      <c r="D136" s="9"/>
-      <c r="E136" s="12"/>
-      <c r="F136" s="12"/>
-      <c r="G136" s="13"/>
-    </row>
-    <row r="137" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="22" t="s">
+      <c r="E137" s="10"/>
+      <c r="F137" s="10"/>
+      <c r="G137" s="1"/>
+    </row>
+    <row r="138" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="B137" s="22" t="s">
+      <c r="B138" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="C137" s="23">
+      <c r="C138" s="20">
         <v>5</v>
       </c>
-      <c r="D137" s="9"/>
-      <c r="E137" s="12"/>
-      <c r="F137" s="12"/>
-      <c r="G137" s="13"/>
-    </row>
-    <row r="138" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="22" t="s">
+      <c r="E138" s="10"/>
+      <c r="F138" s="10"/>
+      <c r="G138" s="1"/>
+    </row>
+    <row r="139" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="B138" s="22" t="s">
+      <c r="B139" s="19" t="s">
         <v>332</v>
       </c>
-      <c r="C138" s="23">
+      <c r="C139" s="20">
         <v>5</v>
       </c>
-      <c r="D138" s="9"/>
-      <c r="E138" s="12"/>
-      <c r="F138" s="12"/>
-      <c r="G138" s="13"/>
-    </row>
-    <row r="139" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="22" t="s">
+      <c r="E139" s="10"/>
+      <c r="F139" s="10"/>
+      <c r="G139" s="1"/>
+    </row>
+    <row r="140" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="B139" s="22" t="s">
+      <c r="B140" s="19" t="s">
         <v>333</v>
       </c>
-      <c r="C139" s="23">
+      <c r="C140" s="20">
         <v>5</v>
       </c>
-      <c r="D139" s="9"/>
-      <c r="E139" s="12"/>
-      <c r="F139" s="12"/>
-      <c r="G139" s="13"/>
-    </row>
-    <row r="140" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="22" t="s">
+      <c r="E140" s="10"/>
+      <c r="F140" s="10"/>
+      <c r="G140" s="1"/>
+    </row>
+    <row r="141" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="B140" s="22" t="s">
+      <c r="B141" s="19" t="s">
         <v>334</v>
       </c>
-      <c r="C140" s="23">
+      <c r="C141" s="20">
         <v>5</v>
       </c>
-      <c r="D140" s="9"/>
-      <c r="E140" s="12"/>
-      <c r="F140" s="12"/>
-      <c r="G140" s="13"/>
-    </row>
-    <row r="141" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="22" t="s">
+      <c r="E141" s="10"/>
+      <c r="F141" s="10"/>
+      <c r="G141" s="1"/>
+    </row>
+    <row r="142" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="B141" s="22" t="s">
+      <c r="B142" s="19" t="s">
         <v>335</v>
       </c>
-      <c r="C141" s="23">
+      <c r="C142" s="20">
         <v>5</v>
       </c>
-      <c r="D141" s="9"/>
-      <c r="E141" s="12"/>
-      <c r="F141" s="12"/>
-      <c r="G141" s="13"/>
-    </row>
-    <row r="142" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="22" t="s">
+      <c r="E142" s="10"/>
+      <c r="F142" s="10"/>
+      <c r="G142" s="1"/>
+    </row>
+    <row r="143" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="B142" s="22" t="s">
+      <c r="B143" s="19" t="s">
         <v>336</v>
       </c>
-      <c r="C142" s="23">
+      <c r="C143" s="20">
         <v>5</v>
       </c>
-      <c r="D142" s="9"/>
-      <c r="E142" s="12"/>
-      <c r="F142" s="12"/>
-      <c r="G142" s="13"/>
-    </row>
-    <row r="143" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="22" t="s">
+      <c r="E143" s="10"/>
+      <c r="F143" s="10"/>
+      <c r="G143" s="1"/>
+    </row>
+    <row r="144" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="B143" s="22" t="s">
+      <c r="B144" s="19" t="s">
         <v>337</v>
       </c>
-      <c r="C143" s="23">
+      <c r="C144" s="20">
         <v>5</v>
       </c>
-      <c r="D143" s="9"/>
-      <c r="E143" s="12"/>
-      <c r="F143" s="12"/>
-      <c r="G143" s="13"/>
-    </row>
-    <row r="144" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="22" t="s">
+      <c r="E144" s="10"/>
+      <c r="F144" s="10"/>
+      <c r="G144" s="1"/>
+    </row>
+    <row r="145" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="B144" s="22" t="s">
+      <c r="B145" s="19" t="s">
         <v>338</v>
       </c>
-      <c r="C144" s="23">
+      <c r="C145" s="20">
         <v>5</v>
       </c>
-      <c r="D144" s="9"/>
-      <c r="E144" s="12"/>
-      <c r="F144" s="12"/>
-      <c r="G144" s="13"/>
-    </row>
-    <row r="145" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="24" t="s">
+      <c r="E145" s="10"/>
+      <c r="F145" s="10"/>
+      <c r="G145" s="1"/>
+    </row>
+    <row r="146" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="B145" s="24" t="s">
+      <c r="B146" s="21" t="s">
         <v>339</v>
       </c>
-      <c r="C145" s="25">
+      <c r="C146" s="22">
         <v>6</v>
       </c>
-      <c r="D145" s="9"/>
-      <c r="E145" s="12"/>
-      <c r="F145" s="12"/>
-      <c r="G145" s="13"/>
-    </row>
-    <row r="146" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="24" t="s">
+      <c r="E146" s="10"/>
+      <c r="F146" s="10"/>
+      <c r="G146" s="1"/>
+    </row>
+    <row r="147" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="B146" s="24" t="s">
+      <c r="B147" s="21" t="s">
         <v>340</v>
       </c>
-      <c r="C146" s="25">
+      <c r="C147" s="22">
         <v>6</v>
       </c>
-      <c r="D146" s="9"/>
-      <c r="E146" s="12"/>
-      <c r="F146" s="12"/>
-      <c r="G146" s="13"/>
-    </row>
-    <row r="147" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="24" t="s">
+      <c r="E147" s="10"/>
+      <c r="F147" s="10"/>
+      <c r="G147" s="1"/>
+    </row>
+    <row r="148" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="B147" s="24" t="s">
+      <c r="B148" s="21" t="s">
         <v>341</v>
       </c>
-      <c r="C147" s="25">
+      <c r="C148" s="22">
         <v>6</v>
       </c>
-      <c r="D147" s="9"/>
-      <c r="E147" s="12"/>
-      <c r="F147" s="12"/>
-      <c r="G147" s="13"/>
-    </row>
-    <row r="148" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="24" t="s">
+      <c r="E148" s="10"/>
+      <c r="F148" s="10"/>
+      <c r="G148" s="1"/>
+    </row>
+    <row r="149" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="B148" s="24" t="s">
+      <c r="B149" s="21" t="s">
         <v>342</v>
       </c>
-      <c r="C148" s="25">
+      <c r="C149" s="22">
         <v>6</v>
       </c>
-      <c r="D148" s="9"/>
-      <c r="E148" s="12"/>
-      <c r="F148" s="12"/>
-      <c r="G148" s="13"/>
-    </row>
-    <row r="149" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="24" t="s">
+      <c r="E149" s="10"/>
+      <c r="F149" s="10"/>
+      <c r="G149" s="1"/>
+    </row>
+    <row r="150" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="B149" s="24" t="s">
+      <c r="B150" s="21" t="s">
         <v>343</v>
       </c>
-      <c r="C149" s="25">
+      <c r="C150" s="22">
         <v>6</v>
       </c>
-      <c r="D149" s="9"/>
-      <c r="E149" s="12"/>
-      <c r="F149" s="12"/>
-      <c r="G149" s="13"/>
-    </row>
-    <row r="150" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="24" t="s">
+      <c r="E150" s="10"/>
+      <c r="F150" s="10"/>
+      <c r="G150" s="1"/>
+    </row>
+    <row r="151" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="B150" s="24" t="s">
+      <c r="B151" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="C150" s="25">
+      <c r="C151" s="22">
         <v>6</v>
       </c>
-      <c r="D150" s="9"/>
-      <c r="E150" s="12"/>
-      <c r="F150" s="12"/>
-      <c r="G150" s="13"/>
-    </row>
-    <row r="151" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="24" t="s">
+      <c r="E151" s="10"/>
+      <c r="F151" s="10"/>
+      <c r="G151" s="1"/>
+    </row>
+    <row r="152" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="B151" s="24" t="s">
+      <c r="B152" s="21" t="s">
         <v>345</v>
       </c>
-      <c r="C151" s="25">
+      <c r="C152" s="22">
         <v>6</v>
       </c>
-      <c r="D151" s="9"/>
-      <c r="E151" s="12"/>
-      <c r="F151" s="12"/>
-      <c r="G151" s="13"/>
-    </row>
-    <row r="152" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="24" t="s">
+      <c r="E152" s="10"/>
+      <c r="F152" s="10"/>
+      <c r="G152" s="1"/>
+    </row>
+    <row r="153" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="B152" s="24" t="s">
+      <c r="B153" s="21" t="s">
         <v>346</v>
       </c>
-      <c r="C152" s="25">
+      <c r="C153" s="22">
         <v>6</v>
       </c>
-      <c r="D152" s="9"/>
-      <c r="E152" s="12"/>
-      <c r="F152" s="12"/>
-      <c r="G152" s="13"/>
-    </row>
-    <row r="153" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="24" t="s">
+      <c r="E153" s="10"/>
+      <c r="F153" s="10"/>
+      <c r="G153" s="1"/>
+    </row>
+    <row r="154" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="B153" s="24" t="s">
+      <c r="B154" s="21" t="s">
         <v>347</v>
       </c>
-      <c r="C153" s="25">
+      <c r="C154" s="22">
         <v>6</v>
       </c>
-      <c r="D153" s="9"/>
-      <c r="E153" s="12"/>
-      <c r="F153" s="12"/>
-      <c r="G153" s="13"/>
-    </row>
-    <row r="154" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="24" t="s">
+      <c r="E154" s="10"/>
+      <c r="F154" s="10"/>
+      <c r="G154" s="1"/>
+    </row>
+    <row r="155" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="B154" s="24" t="s">
+      <c r="B155" s="21" t="s">
         <v>348</v>
       </c>
-      <c r="C154" s="25">
+      <c r="C155" s="22">
         <v>6</v>
       </c>
-      <c r="D154" s="9"/>
-      <c r="E154" s="12"/>
-      <c r="F154" s="12"/>
-      <c r="G154" s="13"/>
-    </row>
-    <row r="155" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="26" t="s">
+      <c r="E155" s="10"/>
+      <c r="F155" s="10"/>
+      <c r="G155" s="1"/>
+    </row>
+    <row r="156" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="B155" s="26" t="s">
+      <c r="B156" s="23" t="s">
         <v>349</v>
       </c>
-      <c r="C155" s="27">
+      <c r="C156" s="24">
         <v>7</v>
       </c>
-      <c r="D155" s="9"/>
-      <c r="E155" s="12"/>
-      <c r="F155" s="12"/>
-      <c r="G155" s="13"/>
-    </row>
-    <row r="156" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="26" t="s">
+      <c r="E156" s="10"/>
+      <c r="F156" s="10"/>
+      <c r="G156" s="1"/>
+    </row>
+    <row r="157" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="B156" s="26" t="s">
+      <c r="B157" s="23" t="s">
         <v>350</v>
       </c>
-      <c r="C156" s="27">
+      <c r="C157" s="24">
         <v>7</v>
       </c>
-      <c r="D156" s="9"/>
-      <c r="E156" s="12"/>
-      <c r="F156" s="12"/>
-      <c r="G156" s="13"/>
-    </row>
-    <row r="157" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="26" t="s">
+      <c r="E157" s="10"/>
+      <c r="F157" s="10"/>
+      <c r="G157" s="1"/>
+    </row>
+    <row r="158" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="B157" s="26" t="s">
+      <c r="B158" s="23" t="s">
         <v>351</v>
       </c>
-      <c r="C157" s="27">
+      <c r="C158" s="24">
         <v>7</v>
       </c>
-      <c r="D157" s="9"/>
-      <c r="E157" s="12"/>
-      <c r="F157" s="12"/>
-      <c r="G157" s="13"/>
-    </row>
-    <row r="158" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="26" t="s">
+      <c r="E158" s="10"/>
+      <c r="F158" s="10"/>
+      <c r="G158" s="1"/>
+    </row>
+    <row r="159" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="B158" s="26" t="s">
+      <c r="B159" s="23" t="s">
         <v>352</v>
       </c>
-      <c r="C158" s="27">
+      <c r="C159" s="24">
         <v>7</v>
       </c>
-      <c r="D158" s="9"/>
-      <c r="E158" s="12"/>
-      <c r="F158" s="12"/>
-      <c r="G158" s="13"/>
-    </row>
-    <row r="159" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="26" t="s">
+      <c r="E159" s="10"/>
+      <c r="F159" s="10"/>
+      <c r="G159" s="1"/>
+    </row>
+    <row r="160" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="B159" s="26" t="s">
+      <c r="B160" s="23" t="s">
         <v>353</v>
       </c>
-      <c r="C159" s="27">
+      <c r="C160" s="24">
         <v>7</v>
       </c>
-      <c r="D159" s="9"/>
-      <c r="E159" s="12"/>
-      <c r="F159" s="12"/>
-      <c r="G159" s="13"/>
-    </row>
-    <row r="160" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="26" t="s">
+      <c r="E160" s="10"/>
+      <c r="F160" s="10"/>
+      <c r="G160" s="1"/>
+    </row>
+    <row r="161" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="B160" s="26" t="s">
+      <c r="B161" s="23" t="s">
         <v>354</v>
       </c>
-      <c r="C160" s="27">
+      <c r="C161" s="24">
         <v>7</v>
       </c>
-      <c r="D160" s="9"/>
-      <c r="E160" s="12"/>
-      <c r="F160" s="12"/>
-      <c r="G160" s="13"/>
-    </row>
-    <row r="161" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="26" t="s">
+      <c r="E161" s="10"/>
+      <c r="F161" s="10"/>
+      <c r="G161" s="1"/>
+    </row>
+    <row r="162" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="B161" s="26" t="s">
+      <c r="B162" s="23" t="s">
         <v>355</v>
       </c>
-      <c r="C161" s="27">
+      <c r="C162" s="24">
         <v>7</v>
       </c>
-      <c r="D161" s="9"/>
-      <c r="E161" s="12"/>
-      <c r="F161" s="12"/>
-      <c r="G161" s="13"/>
-    </row>
-    <row r="162" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="26" t="s">
+      <c r="E162" s="10"/>
+      <c r="F162" s="10"/>
+      <c r="G162" s="1"/>
+    </row>
+    <row r="163" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="B162" s="26" t="s">
+      <c r="B163" s="23" t="s">
         <v>356</v>
       </c>
-      <c r="C162" s="27">
+      <c r="C163" s="24">
         <v>7</v>
       </c>
-      <c r="D162" s="9"/>
-      <c r="E162" s="12"/>
-      <c r="F162" s="12"/>
-      <c r="G162" s="13"/>
-    </row>
-    <row r="163" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="26" t="s">
+      <c r="E163" s="10"/>
+      <c r="F163" s="10"/>
+      <c r="G163" s="1"/>
+    </row>
+    <row r="164" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="B163" s="26" t="s">
+      <c r="B164" s="23" t="s">
         <v>357</v>
       </c>
-      <c r="C163" s="27">
+      <c r="C164" s="24">
         <v>7</v>
       </c>
-      <c r="D163" s="9"/>
-      <c r="E163" s="12"/>
-      <c r="F163" s="12"/>
-      <c r="G163" s="13"/>
-    </row>
-    <row r="164" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="26" t="s">
+      <c r="E164" s="10"/>
+      <c r="F164" s="10"/>
+      <c r="G164" s="1"/>
+    </row>
+    <row r="165" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="B164" s="26" t="s">
+      <c r="B165" s="23" t="s">
         <v>358</v>
       </c>
-      <c r="C164" s="27">
+      <c r="C165" s="24">
         <v>7</v>
       </c>
-      <c r="D164" s="9"/>
-      <c r="E164" s="12"/>
-      <c r="F164" s="12"/>
-      <c r="G164" s="13"/>
-    </row>
-    <row r="165" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="26" t="s">
+      <c r="E165" s="10"/>
+      <c r="F165" s="10"/>
+      <c r="G165" s="1"/>
+    </row>
+    <row r="166" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="B165" s="26" t="s">
+      <c r="B166" s="23" t="s">
         <v>359</v>
       </c>
-      <c r="C165" s="27">
+      <c r="C166" s="24">
         <v>7</v>
       </c>
-      <c r="D165" s="9"/>
-      <c r="E165" s="12"/>
-      <c r="F165" s="12"/>
-      <c r="G165" s="13"/>
-    </row>
-    <row r="166" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="26" t="s">
+      <c r="E166" s="10"/>
+      <c r="F166" s="10"/>
+      <c r="G166" s="1"/>
+    </row>
+    <row r="167" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="B166" s="26" t="s">
+      <c r="B167" s="23" t="s">
         <v>360</v>
       </c>
-      <c r="C166" s="27">
+      <c r="C167" s="24">
         <v>7</v>
       </c>
-      <c r="D166" s="9"/>
-      <c r="E166" s="12"/>
-      <c r="F166" s="12"/>
-      <c r="G166" s="13"/>
-    </row>
-    <row r="167" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="26" t="s">
+      <c r="E167" s="10"/>
+      <c r="F167" s="10"/>
+      <c r="G167" s="1"/>
+    </row>
+    <row r="168" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="B167" s="26" t="s">
+      <c r="B168" s="23" t="s">
         <v>361</v>
       </c>
-      <c r="C167" s="27">
+      <c r="C168" s="24">
         <v>7</v>
       </c>
-      <c r="D167" s="9"/>
-      <c r="E167" s="12"/>
-      <c r="F167" s="12"/>
-      <c r="G167" s="13"/>
-    </row>
-    <row r="168" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="26" t="s">
+      <c r="E168" s="10"/>
+      <c r="F168" s="10"/>
+      <c r="G168" s="1"/>
+    </row>
+    <row r="169" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="B168" s="26" t="s">
+      <c r="B169" s="23" t="s">
         <v>362</v>
       </c>
-      <c r="C168" s="27">
+      <c r="C169" s="24">
         <v>7</v>
       </c>
-      <c r="D168" s="9"/>
-      <c r="E168" s="12"/>
-      <c r="F168" s="12"/>
-      <c r="G168" s="13"/>
-    </row>
-    <row r="169" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="26" t="s">
+      <c r="E169" s="10"/>
+      <c r="F169" s="10"/>
+      <c r="G169" s="1"/>
+    </row>
+    <row r="170" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="B169" s="26" t="s">
+      <c r="B170" s="23" t="s">
         <v>363</v>
       </c>
-      <c r="C169" s="27">
+      <c r="C170" s="24">
         <v>7</v>
       </c>
-      <c r="D169" s="9"/>
-      <c r="E169" s="12"/>
-      <c r="F169" s="12"/>
-      <c r="G169" s="13"/>
-    </row>
-    <row r="170" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="28" t="s">
+      <c r="E170" s="10"/>
+      <c r="F170" s="10"/>
+      <c r="G170" s="1"/>
+    </row>
+    <row r="171" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="B170" s="28" t="s">
+      <c r="B171" s="25" t="s">
         <v>364</v>
       </c>
-      <c r="C170" s="29">
+      <c r="C171" s="26">
         <v>8</v>
       </c>
-      <c r="D170" s="9"/>
-      <c r="E170" s="12"/>
-      <c r="F170" s="12"/>
-      <c r="G170" s="13"/>
-    </row>
-    <row r="171" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="28" t="s">
+      <c r="E171" s="10"/>
+      <c r="F171" s="10"/>
+      <c r="G171" s="1"/>
+    </row>
+    <row r="172" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="B171" s="28" t="s">
+      <c r="B172" s="25" t="s">
         <v>365</v>
       </c>
-      <c r="C171" s="29">
+      <c r="C172" s="26">
         <v>8</v>
       </c>
-      <c r="D171" s="9"/>
-      <c r="E171" s="12"/>
-      <c r="F171" s="12"/>
-      <c r="G171" s="13"/>
-    </row>
-    <row r="172" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="28" t="s">
+      <c r="E172" s="10"/>
+      <c r="F172" s="10"/>
+      <c r="G172" s="1"/>
+    </row>
+    <row r="173" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="B172" s="28" t="s">
+      <c r="B173" s="25" t="s">
         <v>366</v>
       </c>
-      <c r="C172" s="29">
+      <c r="C173" s="26">
         <v>8</v>
       </c>
-      <c r="D172" s="9"/>
-      <c r="E172" s="12"/>
-      <c r="F172" s="12"/>
-      <c r="G172" s="13"/>
-    </row>
-    <row r="173" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="28" t="s">
+      <c r="E173" s="10"/>
+      <c r="F173" s="10"/>
+      <c r="G173" s="1"/>
+    </row>
+    <row r="174" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="B173" s="28" t="s">
+      <c r="B174" s="25" t="s">
         <v>367</v>
       </c>
-      <c r="C173" s="29">
+      <c r="C174" s="26">
         <v>8</v>
       </c>
-      <c r="D173" s="9"/>
-      <c r="E173" s="12"/>
-      <c r="F173" s="12"/>
-      <c r="G173" s="13"/>
-    </row>
-    <row r="174" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="28" t="s">
+      <c r="E174" s="10"/>
+      <c r="F174" s="10"/>
+      <c r="G174" s="1"/>
+    </row>
+    <row r="175" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="B174" s="28" t="s">
+      <c r="B175" s="25" t="s">
         <v>368</v>
       </c>
-      <c r="C174" s="29">
+      <c r="C175" s="26">
         <v>8</v>
       </c>
-      <c r="D174" s="9"/>
-      <c r="E174" s="12"/>
-      <c r="F174" s="12"/>
-      <c r="G174" s="13"/>
-    </row>
-    <row r="175" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="28" t="s">
+      <c r="E175" s="10"/>
+      <c r="F175" s="10"/>
+      <c r="G175" s="1"/>
+    </row>
+    <row r="176" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="B175" s="28" t="s">
+      <c r="B176" s="25" t="s">
         <v>369</v>
       </c>
-      <c r="C175" s="29">
+      <c r="C176" s="26">
         <v>8</v>
       </c>
-      <c r="D175" s="9"/>
-      <c r="E175" s="12"/>
-      <c r="F175" s="12"/>
-      <c r="G175" s="13"/>
-    </row>
-    <row r="176" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="28" t="s">
+      <c r="E176" s="10"/>
+      <c r="F176" s="10"/>
+      <c r="G176" s="1"/>
+    </row>
+    <row r="177" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="B176" s="28" t="s">
+      <c r="B177" s="25" t="s">
         <v>370</v>
       </c>
-      <c r="C176" s="29">
+      <c r="C177" s="26">
         <v>8</v>
       </c>
-      <c r="D176" s="9"/>
-      <c r="E176" s="12"/>
-      <c r="F176" s="12"/>
-      <c r="G176" s="13"/>
-    </row>
-    <row r="177" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="28" t="s">
+      <c r="E177" s="10"/>
+      <c r="F177" s="10"/>
+      <c r="G177" s="1"/>
+    </row>
+    <row r="178" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="B177" s="28" t="s">
+      <c r="B178" s="25" t="s">
         <v>371</v>
       </c>
-      <c r="C177" s="29">
+      <c r="C178" s="26">
         <v>8</v>
       </c>
-      <c r="D177" s="9"/>
-      <c r="E177" s="12"/>
-      <c r="F177" s="12"/>
-      <c r="G177" s="13"/>
-    </row>
-    <row r="178" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="28" t="s">
+      <c r="E178" s="10"/>
+      <c r="F178" s="10"/>
+      <c r="G178" s="1"/>
+    </row>
+    <row r="179" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="B178" s="28" t="s">
+      <c r="B179" s="25" t="s">
         <v>372</v>
       </c>
-      <c r="C178" s="29">
+      <c r="C179" s="26">
         <v>8</v>
       </c>
-      <c r="D178" s="9"/>
-      <c r="E178" s="12"/>
-      <c r="F178" s="12"/>
-      <c r="G178" s="13"/>
-    </row>
-    <row r="179" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="28" t="s">
+      <c r="E179" s="10"/>
+      <c r="F179" s="10"/>
+      <c r="G179" s="1"/>
+    </row>
+    <row r="180" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="B179" s="28" t="s">
+      <c r="B180" s="25" t="s">
         <v>373</v>
       </c>
-      <c r="C179" s="29">
+      <c r="C180" s="26">
         <v>8</v>
       </c>
-      <c r="D179" s="9"/>
-      <c r="E179" s="12"/>
-      <c r="F179" s="12"/>
-      <c r="G179" s="13"/>
-    </row>
-    <row r="180" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="28" t="s">
+      <c r="E180" s="10"/>
+      <c r="F180" s="10"/>
+      <c r="G180" s="1"/>
+    </row>
+    <row r="181" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="B180" s="28" t="s">
+      <c r="B181" s="25" t="s">
         <v>374</v>
       </c>
-      <c r="C180" s="29">
+      <c r="C181" s="26">
         <v>8</v>
       </c>
-      <c r="D180" s="9"/>
-      <c r="E180" s="12"/>
-      <c r="F180" s="12"/>
-      <c r="G180" s="13"/>
-    </row>
-    <row r="181" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="28" t="s">
+      <c r="E181" s="10"/>
+      <c r="F181" s="10"/>
+      <c r="G181" s="1"/>
+    </row>
+    <row r="182" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="B181" s="28" t="s">
+      <c r="B182" s="25" t="s">
         <v>375</v>
       </c>
-      <c r="C181" s="29">
+      <c r="C182" s="26">
         <v>8</v>
       </c>
-      <c r="D181" s="9"/>
-      <c r="E181" s="12"/>
-      <c r="F181" s="12"/>
-      <c r="G181" s="13"/>
-    </row>
-    <row r="182" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="28" t="s">
+      <c r="E182" s="10"/>
+      <c r="F182" s="10"/>
+      <c r="G182" s="1"/>
+    </row>
+    <row r="183" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="B182" s="28" t="s">
+      <c r="B183" s="25" t="s">
         <v>376</v>
       </c>
-      <c r="C182" s="29">
+      <c r="C183" s="26">
         <v>8</v>
       </c>
-      <c r="D182" s="9"/>
-      <c r="E182" s="12"/>
-      <c r="F182" s="12"/>
-      <c r="G182" s="13"/>
-    </row>
-    <row r="183" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="28" t="s">
+      <c r="E183" s="10"/>
+      <c r="F183" s="10"/>
+      <c r="G183" s="1"/>
+    </row>
+    <row r="184" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="B183" s="28" t="s">
+      <c r="B184" s="25" t="s">
         <v>377</v>
       </c>
-      <c r="C183" s="29">
+      <c r="C184" s="26">
         <v>8</v>
       </c>
-      <c r="D183" s="9"/>
-      <c r="E183" s="12"/>
-      <c r="F183" s="12"/>
-      <c r="G183" s="13"/>
-    </row>
-    <row r="184" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="28" t="s">
+      <c r="E184" s="10"/>
+      <c r="F184" s="10"/>
+      <c r="G184" s="1"/>
+    </row>
+    <row r="185" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="B184" s="28" t="s">
+      <c r="B185" s="25" t="s">
         <v>378</v>
       </c>
-      <c r="C184" s="29">
+      <c r="C185" s="26">
         <v>8</v>
       </c>
-      <c r="D184" s="9"/>
-      <c r="E184" s="12"/>
-      <c r="F184" s="12"/>
-      <c r="G184" s="13"/>
-    </row>
-    <row r="185" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="28" t="s">
+      <c r="E185" s="10"/>
+      <c r="F185" s="10"/>
+      <c r="G185" s="1"/>
+    </row>
+    <row r="186" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="B185" s="28" t="s">
+      <c r="B186" s="25" t="s">
         <v>379</v>
       </c>
-      <c r="C185" s="29">
+      <c r="C186" s="26">
         <v>8</v>
       </c>
-      <c r="D185" s="9"/>
-      <c r="E185" s="12"/>
-      <c r="F185" s="12"/>
-      <c r="G185" s="13"/>
-    </row>
-    <row r="186" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="28" t="s">
+      <c r="E186" s="10"/>
+      <c r="F186" s="10"/>
+      <c r="G186" s="1"/>
+    </row>
+    <row r="187" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="B186" s="28" t="s">
+      <c r="B187" s="25" t="s">
         <v>380</v>
       </c>
-      <c r="C186" s="29">
+      <c r="C187" s="26">
         <v>8</v>
       </c>
-      <c r="D186" s="9"/>
-      <c r="E186" s="12"/>
-      <c r="F186" s="12"/>
-      <c r="G186" s="13"/>
-    </row>
-    <row r="187" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="28" t="s">
+      <c r="E187" s="10"/>
+      <c r="F187" s="10"/>
+      <c r="G187" s="1"/>
+    </row>
+    <row r="188" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="B187" s="28" t="s">
+      <c r="B188" s="25" t="s">
         <v>381</v>
       </c>
-      <c r="C187" s="29">
+      <c r="C188" s="26">
         <v>8</v>
       </c>
-      <c r="D187" s="9"/>
-      <c r="E187" s="12"/>
-      <c r="F187" s="12"/>
-      <c r="G187" s="13"/>
-    </row>
-    <row r="188" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="28" t="s">
+      <c r="E188" s="10"/>
+      <c r="F188" s="10"/>
+      <c r="G188" s="1"/>
+    </row>
+    <row r="189" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="B188" s="28" t="s">
+      <c r="B189" s="25" t="s">
         <v>382</v>
       </c>
-      <c r="C188" s="29">
+      <c r="C189" s="26">
         <v>8</v>
       </c>
-      <c r="D188" s="9"/>
-      <c r="E188" s="12"/>
-      <c r="F188" s="12"/>
-      <c r="G188" s="13"/>
-    </row>
-    <row r="189" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="28" t="s">
+      <c r="E189" s="10"/>
+      <c r="F189" s="10"/>
+      <c r="G189" s="1"/>
+    </row>
+    <row r="190" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="B189" s="28" t="s">
+      <c r="B190" s="25" t="s">
         <v>383</v>
       </c>
-      <c r="C189" s="29">
+      <c r="C190" s="26">
         <v>8</v>
       </c>
-      <c r="D189" s="9"/>
-      <c r="E189" s="12"/>
-      <c r="F189" s="12"/>
-      <c r="G189" s="13"/>
-    </row>
-    <row r="190" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="28" t="s">
+      <c r="E190" s="10"/>
+      <c r="F190" s="10"/>
+      <c r="G190" s="1"/>
+    </row>
+    <row r="191" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="B190" s="28" t="s">
+      <c r="B191" s="25" t="s">
         <v>384</v>
       </c>
-      <c r="C190" s="29">
+      <c r="C191" s="26">
         <v>8</v>
       </c>
-      <c r="D190" s="9"/>
-      <c r="E190" s="12"/>
-      <c r="F190" s="12"/>
-      <c r="G190" s="13"/>
-    </row>
-    <row r="191" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="30" t="s">
+      <c r="E191" s="10"/>
+      <c r="F191" s="10"/>
+      <c r="G191" s="1"/>
+    </row>
+    <row r="192" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="B191" s="30" t="s">
+      <c r="B192" s="27" t="s">
         <v>385</v>
       </c>
-      <c r="C191" s="31">
+      <c r="C192" s="28">
         <v>9</v>
       </c>
-      <c r="D191" s="9"/>
-      <c r="E191" s="12"/>
-      <c r="F191" s="12"/>
-      <c r="G191" s="13"/>
-    </row>
-    <row r="192" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="30" t="s">
+      <c r="E192" s="10"/>
+      <c r="F192" s="10"/>
+      <c r="G192" s="1"/>
+    </row>
+    <row r="193" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="B192" s="30" t="s">
+      <c r="B193" s="27" t="s">
         <v>386</v>
       </c>
-      <c r="C192" s="31">
+      <c r="C193" s="28">
         <v>9</v>
       </c>
-      <c r="D192" s="9"/>
-      <c r="E192" s="12"/>
-      <c r="F192" s="12"/>
-      <c r="G192" s="13"/>
-    </row>
-    <row r="193" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="30" t="s">
+      <c r="E193" s="10"/>
+      <c r="F193" s="10"/>
+      <c r="G193" s="1"/>
+    </row>
+    <row r="194" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="27" t="s">
         <v>192</v>
       </c>
-      <c r="B193" s="30" t="s">
+      <c r="B194" s="27" t="s">
         <v>387</v>
       </c>
-      <c r="C193" s="31">
+      <c r="C194" s="28">
         <v>9</v>
       </c>
-      <c r="D193" s="9"/>
-      <c r="E193" s="12"/>
-      <c r="F193" s="12"/>
-      <c r="G193" s="13"/>
-    </row>
-    <row r="194" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="30" t="s">
+      <c r="E194" s="10"/>
+      <c r="F194" s="10"/>
+      <c r="G194" s="1"/>
+    </row>
+    <row r="195" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="B194" s="30" t="s">
+      <c r="B195" s="27" t="s">
         <v>388</v>
       </c>
-      <c r="C194" s="31">
+      <c r="C195" s="28">
         <v>9</v>
       </c>
-      <c r="D194" s="9"/>
-      <c r="E194" s="12"/>
-      <c r="F194" s="12"/>
-      <c r="G194" s="13"/>
-    </row>
-    <row r="195" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="30" t="s">
+      <c r="E195" s="10"/>
+      <c r="F195" s="10"/>
+      <c r="G195" s="1"/>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A196" s="27" t="s">
         <v>194</v>
       </c>
-      <c r="B195" s="30" t="s">
+      <c r="B196" s="27" t="s">
         <v>389</v>
       </c>
-      <c r="C195" s="31">
+      <c r="C196" s="28">
         <v>9</v>
       </c>
-      <c r="D195" s="9"/>
-      <c r="E195" s="12"/>
-      <c r="F195" s="12"/>
-      <c r="G195" s="13"/>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D196" s="9"/>
-      <c r="E196" s="9"/>
-      <c r="F196" s="9"/>
-      <c r="G196" s="9"/>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D197" s="9"/>
-      <c r="E197" s="9"/>
-      <c r="F197" s="9"/>
-      <c r="G197" s="9"/>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D198" s="9"/>
-      <c r="E198" s="9"/>
-      <c r="F198" s="9"/>
-      <c r="G198" s="9"/>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D199" s="9"/>
-      <c r="E199" s="9"/>
-      <c r="F199" s="9"/>
-      <c r="G199" s="9"/>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D200" s="9"/>
-      <c r="E200" s="9"/>
-      <c r="F200" s="9"/>
-      <c r="G200" s="9"/>
-    </row>
-    <row r="213" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D213" s="9"/>
-      <c r="E213" s="9"/>
-      <c r="F213" s="9"/>
-      <c r="G213" s="9"/>
-    </row>
-    <row r="214" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D214" s="9"/>
-      <c r="E214" s="9"/>
-      <c r="F214" s="9"/>
-      <c r="G214" s="9"/>
-    </row>
-    <row r="215" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D215" s="9"/>
-      <c r="E215" s="9"/>
-      <c r="F215" s="9"/>
-      <c r="G215" s="9"/>
-    </row>
-    <row r="216" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D216" s="9"/>
-      <c r="E216" s="9"/>
-      <c r="F216" s="9"/>
-      <c r="G216" s="9"/>
-    </row>
-    <row r="217" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D217" s="9"/>
-      <c r="E217" s="9"/>
-      <c r="F217" s="9"/>
-      <c r="G217" s="9"/>
-    </row>
-    <row r="218" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D218" s="9"/>
-      <c r="E218" s="9"/>
-      <c r="F218" s="9"/>
-      <c r="G218" s="9"/>
-    </row>
-    <row r="219" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D219" s="9"/>
-      <c r="E219" s="9"/>
-      <c r="F219" s="9"/>
-      <c r="G219" s="9"/>
-    </row>
-    <row r="220" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D220" s="9"/>
-      <c r="E220" s="9"/>
-      <c r="F220" s="9"/>
-      <c r="G220" s="9"/>
-    </row>
-    <row r="221" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D221" s="9"/>
-      <c r="E221" s="9"/>
-      <c r="F221" s="9"/>
-      <c r="G221" s="9"/>
+      <c r="E196" s="10"/>
+      <c r="F196" s="10"/>
+      <c r="G196" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C195" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:C196" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Stock Item Type Listing.xlsx
+++ b/Stock Item Type Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp2\htdocs\Internship-Yung-Kong-Website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE58C49-2077-4B4C-8C09-2481B765A69C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4771B695-AC7B-4C07-BBBA-E63078C97852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,12 +18,24 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$2:$C$196</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="403">
   <si>
     <t>Item Group</t>
   </si>
@@ -1229,13 +1241,16 @@
   </si>
   <si>
     <t>Bolts &amp; Fasteners</t>
+  </si>
+  <si>
+    <t>Count</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1257,6 +1272,12 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1357,7 +1378,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1435,6 +1456,8 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1718,7 +1741,7 @@
   <dimension ref="A1:I196"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1728,7 +1751,7 @@
     <col min="3" max="3" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="7" max="7" width="6.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1749,8 +1772,11 @@
       <c r="F2" s="5" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G2" s="29" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -1766,8 +1792,12 @@
       <c r="F3" s="6" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="30">
+        <f>COUNTIF(C3:C196,0)</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
@@ -1783,8 +1813,12 @@
       <c r="F4" s="6" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G4" s="30">
+        <f>COUNTIF(C3:C197,1)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
@@ -1800,9 +1834,12 @@
       <c r="F5" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G5" s="30">
+        <f>COUNTIF(C3:C197,2)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
@@ -1818,9 +1855,12 @@
       <c r="F6" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="30">
+        <f>COUNTIF(C3:C197,3)</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
@@ -1836,9 +1876,12 @@
       <c r="F7" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G7" s="30">
+        <f>COUNTIF(C3:C197,4)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
@@ -1854,9 +1897,12 @@
       <c r="F8" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G8" s="30">
+        <f>COUNTIF(C3:C197,5)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
@@ -1872,9 +1918,12 @@
       <c r="F9" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G9" s="30">
+        <f>COUNTIF(C3:C197,6)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>8</v>
       </c>
@@ -1890,9 +1939,12 @@
       <c r="F10" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="30">
+        <f>COUNTIF(C3:C197,7)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>9</v>
       </c>
@@ -1908,9 +1960,12 @@
       <c r="F11" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G11" s="30">
+        <f>COUNTIF(C3:C197,8)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
@@ -1926,7 +1981,10 @@
       <c r="F12" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="G12" s="1"/>
+      <c r="G12" s="30">
+        <f>COUNTIF(C3:C198,9)</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
@@ -1938,7 +1996,7 @@
       <c r="C13" s="8">
         <v>0</v>
       </c>
-      <c r="E13" s="10"/>
+      <c r="D13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="1"/>
       <c r="H13" s="10"/>
@@ -1953,7 +2011,7 @@
       <c r="C14" s="8">
         <v>0</v>
       </c>
-      <c r="E14" s="10"/>
+      <c r="D14" s="10"/>
       <c r="H14" s="10"/>
     </row>
     <row r="15" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1966,7 +2024,7 @@
       <c r="C15" s="8">
         <v>0</v>
       </c>
-      <c r="E15" s="10"/>
+      <c r="D15" s="10"/>
       <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1979,7 +2037,7 @@
       <c r="C16" s="8">
         <v>0</v>
       </c>
-      <c r="E16" s="10"/>
+      <c r="D16" s="10"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1992,7 +2050,7 @@
       <c r="C17" s="8">
         <v>0</v>
       </c>
-      <c r="E17" s="10"/>
+      <c r="D17" s="10"/>
       <c r="H17" s="10"/>
       <c r="I17" s="1"/>
     </row>
@@ -2006,7 +2064,7 @@
       <c r="C18" s="8">
         <v>0</v>
       </c>
-      <c r="E18" s="10"/>
+      <c r="D18" s="10"/>
       <c r="H18" s="10"/>
       <c r="I18" s="1"/>
     </row>
@@ -2020,7 +2078,7 @@
       <c r="C19" s="8">
         <v>0</v>
       </c>
-      <c r="E19" s="10"/>
+      <c r="D19" s="10"/>
       <c r="H19" s="10"/>
       <c r="I19" s="1"/>
     </row>
@@ -2034,7 +2092,7 @@
       <c r="C20" s="8">
         <v>0</v>
       </c>
-      <c r="E20" s="10"/>
+      <c r="D20" s="10"/>
       <c r="H20" s="10"/>
     </row>
     <row r="21" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2047,7 +2105,7 @@
       <c r="C21" s="8">
         <v>0</v>
       </c>
-      <c r="E21" s="10"/>
+      <c r="D21" s="10"/>
     </row>
     <row r="22" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
@@ -2059,7 +2117,7 @@
       <c r="C22" s="8">
         <v>0</v>
       </c>
-      <c r="E22" s="10"/>
+      <c r="D22" s="10"/>
     </row>
     <row r="23" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
@@ -4494,7 +4552,6 @@
       <c r="G196" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:C196" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Stock Item Type Listing.xlsx
+++ b/Stock Item Type Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp2\htdocs\Internship-Yung-Kong-Website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4771B695-AC7B-4C07-BBBA-E63078C97852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ECB2443-9353-4D7E-83B1-125F7680C921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1473,6 +1473,948 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet!$E$3:$F$12</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="10"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Building Materials</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Bolts &amp; Fasteners</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Hand Tools</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>General &amp; Household</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Welding &amp; Machinery</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Safety &amp; Security</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Electrical Accessories</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Plumbing</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Power Tools</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Paint</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>9</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet!$G$3:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5D15-4E0E-8C60-24B722565C3D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1975785776"/>
+        <c:axId val="1975782032"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1975785776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1975782032"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1975782032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1975785776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>457931</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>27842</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>183172</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>87924</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC77F4F9-A621-EAF1-64E6-A32B51D6DD0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1741,7 +2683,7 @@
   <dimension ref="A1:I196"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4554,5 +5496,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Stock Item Type Listing.xlsx
+++ b/Stock Item Type Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp2\htdocs\Internship-Yung-Kong-Website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ECB2443-9353-4D7E-83B1-125F7680C921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{869B0EB1-67A2-4407-AB78-E48B7278BDC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2380,16 +2380,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>457931</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3662</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>27842</xdr:rowOff>
+      <xdr:rowOff>5861</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>183172</xdr:colOff>
+      <xdr:colOff>337038</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>87924</xdr:rowOff>
+      <xdr:rowOff>65943</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2683,7 +2683,7 @@
   <dimension ref="A1:I196"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Stock Item Type Listing.xlsx
+++ b/Stock Item Type Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp2\htdocs\Internship-Yung-Kong-Website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{869B0EB1-67A2-4407-AB78-E48B7278BDC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B27C88D1-527E-4E7A-9AA7-955B1D69145B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2682,8 +2682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I196"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A160" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F170" sqref="F170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Stock Item Type Listing.xlsx
+++ b/Stock Item Type Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp2\htdocs\Internship-Yung-Kong-Website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B27C88D1-527E-4E7A-9AA7-955B1D69145B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D054383-032C-49D7-A40F-CCFF2CA1EAC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2682,8 +2682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F170" sqref="F170"/>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H97" sqref="H97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2938,7 +2938,7 @@
       <c r="C13" s="8">
         <v>0</v>
       </c>
-      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="1"/>
       <c r="H13" s="10"/>

--- a/Stock Item Type Listing.xlsx
+++ b/Stock Item Type Listing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp2\htdocs\Internship-Yung-Kong-Website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D054383-032C-49D7-A40F-CCFF2CA1EAC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91EC934-90D3-477F-8AC6-D5F75EE498F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13935" yWindow="360" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -877,9 +877,6 @@
     <t>HOOK,C PIN,SHELF &amp; L BRACKET &amp; SIMILARTY</t>
   </si>
   <si>
-    <t>CURTAIN ACCESORIES</t>
-  </si>
-  <si>
     <t>LAZOR GENERAL TOOLS</t>
   </si>
   <si>
@@ -1244,13 +1241,16 @@
   </si>
   <si>
     <t>Count</t>
+  </si>
+  <si>
+    <t>CURTAIN ACCESSORIES</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1280,6 +1280,14 @@
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1378,7 +1386,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1458,6 +1466,24 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2682,8 +2708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H97" sqref="H97"/>
+    <sheetView tabSelected="1" topLeftCell="A104" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E109" sqref="E109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2705,17 +2731,17 @@
         <v>195</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>195</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2723,7 +2749,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
       <c r="C3" s="8">
         <v>0</v>
@@ -2732,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G3" s="30">
         <f>COUNTIF(C3:C196,0)</f>
@@ -2744,7 +2770,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="C4" s="8">
         <v>0</v>
@@ -2753,7 +2779,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G4" s="30">
         <f>COUNTIF(C3:C197,1)</f>
@@ -2765,7 +2791,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>198</v>
+        <v>227</v>
       </c>
       <c r="C5" s="8">
         <v>0</v>
@@ -2774,7 +2800,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G5" s="30">
         <f>COUNTIF(C3:C197,2)</f>
@@ -2786,7 +2812,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>199</v>
+        <v>231</v>
       </c>
       <c r="C6" s="8">
         <v>0</v>
@@ -2795,7 +2821,7 @@
         <v>3</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G6" s="30">
         <f>COUNTIF(C3:C197,3)</f>
@@ -2807,7 +2833,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="C7" s="8">
         <v>0</v>
@@ -2816,7 +2842,7 @@
         <v>4</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G7" s="30">
         <f>COUNTIF(C3:C197,4)</f>
@@ -2828,7 +2854,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C8" s="8">
         <v>0</v>
@@ -2837,7 +2863,7 @@
         <v>5</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G8" s="30">
         <f>COUNTIF(C3:C197,5)</f>
@@ -2849,7 +2875,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="C9" s="8">
         <v>0</v>
@@ -2858,7 +2884,7 @@
         <v>6</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G9" s="30">
         <f>COUNTIF(C3:C197,6)</f>
@@ -2870,7 +2896,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C10" s="8">
         <v>0</v>
@@ -2879,7 +2905,7 @@
         <v>7</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G10" s="30">
         <f>COUNTIF(C3:C197,7)</f>
@@ -2891,7 +2917,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="C11" s="8">
         <v>0</v>
@@ -2900,7 +2926,7 @@
         <v>8</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G11" s="30">
         <f>COUNTIF(C3:C197,8)</f>
@@ -2911,8 +2937,8 @@
       <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>205</v>
+      <c r="B12" s="31" t="s">
+        <v>199</v>
       </c>
       <c r="C12" s="8">
         <v>0</v>
@@ -2921,7 +2947,7 @@
         <v>9</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G12" s="30">
         <f>COUNTIF(C3:C198,9)</f>
@@ -2933,7 +2959,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="C13" s="8">
         <v>0</v>
@@ -2948,7 +2974,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="C14" s="8">
         <v>0</v>
@@ -2961,7 +2987,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C15" s="8">
         <v>0</v>
@@ -2974,7 +3000,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C16" s="8">
         <v>0</v>
@@ -2987,7 +3013,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C17" s="8">
         <v>0</v>
@@ -3001,7 +3027,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="C18" s="8">
         <v>0</v>
@@ -3015,7 +3041,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="C19" s="8">
         <v>0</v>
@@ -3029,7 +3055,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C20" s="8">
         <v>0</v>
@@ -3042,7 +3068,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="C21" s="8">
         <v>0</v>
@@ -3054,7 +3080,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="C22" s="8">
         <v>0</v>
@@ -3066,7 +3092,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="C23" s="8">
         <v>0</v>
@@ -3078,7 +3104,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C24" s="8">
         <v>0</v>
@@ -3090,7 +3116,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="C25" s="8">
         <v>0</v>
@@ -3104,7 +3130,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C26" s="8">
         <v>0</v>
@@ -3118,7 +3144,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="C27" s="8">
         <v>0</v>
@@ -3132,7 +3158,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="C28" s="8">
         <v>0</v>
@@ -3146,7 +3172,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C29" s="8">
         <v>0</v>
@@ -3160,7 +3186,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C30" s="8">
         <v>0</v>
@@ -3174,7 +3200,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C31" s="8">
         <v>0</v>
@@ -3188,7 +3214,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="C32" s="8">
         <v>0</v>
@@ -3202,7 +3228,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="C33" s="8">
         <v>0</v>
@@ -3216,7 +3242,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>227</v>
+        <v>197</v>
       </c>
       <c r="C34" s="8">
         <v>0</v>
@@ -3230,7 +3256,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="C35" s="8">
         <v>0</v>
@@ -3244,7 +3270,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C36" s="8">
         <v>0</v>
@@ -3258,7 +3284,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C37" s="8">
         <v>0</v>
@@ -3272,7 +3298,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="C38" s="8">
         <v>0</v>
@@ -3286,7 +3312,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C39" s="8">
         <v>0</v>
@@ -3314,7 +3340,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>234</v>
+        <v>201</v>
       </c>
       <c r="C41" s="8">
         <v>0</v>
@@ -3327,8 +3353,8 @@
       <c r="A42" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="7" t="s">
-        <v>235</v>
+      <c r="B42" s="31" t="s">
+        <v>206</v>
       </c>
       <c r="C42" s="8">
         <v>0</v>
@@ -3342,7 +3368,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
       <c r="C43" s="8">
         <v>0</v>
@@ -3355,8 +3381,8 @@
       <c r="A44" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="7" t="s">
-        <v>237</v>
+      <c r="B44" s="31" t="s">
+        <v>200</v>
       </c>
       <c r="C44" s="8">
         <v>0</v>
@@ -3369,8 +3395,8 @@
       <c r="A45" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="7" t="s">
-        <v>238</v>
+      <c r="B45" s="31" t="s">
+        <v>209</v>
       </c>
       <c r="C45" s="8">
         <v>0</v>
@@ -3384,7 +3410,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="C46" s="12">
         <v>1</v>
@@ -3412,7 +3438,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C48" s="12">
         <v>1</v>
@@ -3426,7 +3452,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="C49" s="12">
         <v>1</v>
@@ -3440,7 +3466,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="C50" s="12">
         <v>1</v>
@@ -3454,7 +3480,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C51" s="12">
         <v>1</v>
@@ -3468,7 +3494,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C52" s="12">
         <v>1</v>
@@ -3482,7 +3508,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C53" s="12">
         <v>1</v>
@@ -3496,7 +3522,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C54" s="12">
         <v>1</v>
@@ -3510,7 +3536,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C55" s="12">
         <v>1</v>
@@ -3524,7 +3550,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C56" s="12">
         <v>1</v>
@@ -3538,7 +3564,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C57" s="12">
         <v>1</v>
@@ -3552,7 +3578,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C58" s="12">
         <v>1</v>
@@ -3566,7 +3592,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="C59" s="12">
         <v>1</v>
@@ -3580,7 +3606,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="C60" s="14">
         <v>2</v>
@@ -3594,7 +3620,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="C61" s="14">
         <v>2</v>
@@ -3608,7 +3634,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C62" s="14">
         <v>2</v>
@@ -3622,7 +3648,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="C63" s="14">
         <v>2</v>
@@ -3636,7 +3662,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="C64" s="14">
         <v>2</v>
@@ -3649,8 +3675,8 @@
       <c r="A65" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B65" s="13" t="s">
-        <v>258</v>
+      <c r="B65" s="32" t="s">
+        <v>256</v>
       </c>
       <c r="C65" s="14">
         <v>2</v>
@@ -3664,7 +3690,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C66" s="14">
         <v>2</v>
@@ -3678,7 +3704,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="C67" s="14">
         <v>2</v>
@@ -3691,8 +3717,8 @@
       <c r="A68" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B68" s="13" t="s">
-        <v>261</v>
+      <c r="B68" s="32" t="s">
+        <v>271</v>
       </c>
       <c r="C68" s="14">
         <v>2</v>
@@ -3706,7 +3732,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="C69" s="14">
         <v>2</v>
@@ -3719,8 +3745,8 @@
       <c r="A70" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="B70" s="13" t="s">
-        <v>263</v>
+      <c r="B70" s="32" t="s">
+        <v>267</v>
       </c>
       <c r="C70" s="14">
         <v>2</v>
@@ -3734,7 +3760,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C71" s="14">
         <v>2</v>
@@ -3762,7 +3788,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="C73" s="14">
         <v>2</v>
@@ -3776,7 +3802,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="C74" s="14">
         <v>2</v>
@@ -3790,7 +3816,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="C75" s="14">
         <v>2</v>
@@ -3804,7 +3830,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C76" s="14">
         <v>2</v>
@@ -3818,7 +3844,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C77" s="14">
         <v>2</v>
@@ -3832,7 +3858,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C78" s="14">
         <v>2</v>
@@ -3874,7 +3900,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="C81" s="14">
         <v>2</v>
@@ -3888,7 +3914,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="C82" s="14">
         <v>2</v>
@@ -3901,8 +3927,8 @@
       <c r="A83" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="B83" s="15" t="s">
-        <v>276</v>
+      <c r="B83" s="33" t="s">
+        <v>307</v>
       </c>
       <c r="C83" s="16">
         <v>3</v>
@@ -3916,7 +3942,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="C84" s="16">
         <v>3</v>
@@ -3930,7 +3956,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="C85" s="16">
         <v>3</v>
@@ -3944,7 +3970,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>279</v>
+        <v>402</v>
       </c>
       <c r="C86" s="16">
         <v>3</v>
@@ -3958,7 +3984,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>280</v>
+        <v>302</v>
       </c>
       <c r="C87" s="16">
         <v>3</v>
@@ -3972,7 +3998,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="C88" s="16">
         <v>3</v>
@@ -3986,7 +4012,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C89" s="16">
         <v>3</v>
@@ -4000,7 +4026,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="C90" s="16">
         <v>3</v>
@@ -4014,7 +4040,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="15" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C91" s="16">
         <v>3</v>
@@ -4028,7 +4054,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="15" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C92" s="16">
         <v>3</v>
@@ -4042,7 +4068,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C93" s="16">
         <v>3</v>
@@ -4056,7 +4082,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="15" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C94" s="16">
         <v>3</v>
@@ -4070,7 +4096,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="C95" s="16">
         <v>3</v>
@@ -4084,7 +4110,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="C96" s="16">
         <v>3</v>
@@ -4098,7 +4124,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="C97" s="16">
         <v>3</v>
@@ -4112,7 +4138,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C98" s="16">
         <v>3</v>
@@ -4126,7 +4152,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C99" s="16">
         <v>3</v>
@@ -4139,8 +4165,8 @@
       <c r="A100" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="B100" s="15" t="s">
-        <v>293</v>
+      <c r="B100" s="33" t="s">
+        <v>280</v>
       </c>
       <c r="C100" s="16">
         <v>3</v>
@@ -4153,8 +4179,8 @@
       <c r="A101" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="B101" s="15" t="s">
-        <v>294</v>
+      <c r="B101" s="33" t="s">
+        <v>289</v>
       </c>
       <c r="C101" s="16">
         <v>3</v>
@@ -4167,8 +4193,8 @@
       <c r="A102" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="B102" s="15" t="s">
-        <v>295</v>
+      <c r="B102" s="33" t="s">
+        <v>304</v>
       </c>
       <c r="C102" s="16">
         <v>3</v>
@@ -4181,8 +4207,8 @@
       <c r="A103" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="B103" s="15" t="s">
-        <v>296</v>
+      <c r="B103" s="33" t="s">
+        <v>306</v>
       </c>
       <c r="C103" s="16">
         <v>3</v>
@@ -4196,7 +4222,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="15" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C104" s="16">
         <v>3</v>
@@ -4210,7 +4236,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="15" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C105" s="16">
         <v>3</v>
@@ -4224,7 +4250,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="15" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C106" s="16">
         <v>3</v>
@@ -4238,7 +4264,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C107" s="16">
         <v>3</v>
@@ -4252,7 +4278,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="15" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C108" s="16">
         <v>3</v>
@@ -4266,7 +4292,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="15" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C109" s="16">
         <v>3</v>
@@ -4280,7 +4306,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="15" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="C110" s="16">
         <v>3</v>
@@ -4293,8 +4319,8 @@
       <c r="A111" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="B111" s="15" t="s">
-        <v>304</v>
+      <c r="B111" s="33" t="s">
+        <v>305</v>
       </c>
       <c r="C111" s="16">
         <v>3</v>
@@ -4308,7 +4334,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="15" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C112" s="16">
         <v>3</v>
@@ -4322,7 +4348,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="15" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="C113" s="16">
         <v>3</v>
@@ -4336,7 +4362,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="15" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="C114" s="16">
         <v>3</v>
@@ -4349,8 +4375,8 @@
       <c r="A115" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="B115" s="15" t="s">
-        <v>308</v>
+      <c r="B115" s="33" t="s">
+        <v>281</v>
       </c>
       <c r="C115" s="16">
         <v>3</v>
@@ -4364,7 +4390,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="17" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="C116" s="18">
         <v>4</v>
@@ -4378,7 +4404,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="17" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C117" s="18">
         <v>4</v>
@@ -4392,7 +4418,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="17" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="C118" s="18">
         <v>4</v>
@@ -4406,7 +4432,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="17" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C119" s="18">
         <v>4</v>
@@ -4420,7 +4446,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="17" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="C120" s="18">
         <v>4</v>
@@ -4434,7 +4460,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="17" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="C121" s="18">
         <v>4</v>
@@ -4448,7 +4474,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="17" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C122" s="18">
         <v>4</v>
@@ -4461,8 +4487,8 @@
       <c r="A123" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="B123" s="17" t="s">
-        <v>316</v>
+      <c r="B123" s="34" t="s">
+        <v>308</v>
       </c>
       <c r="C123" s="18">
         <v>4</v>
@@ -4476,7 +4502,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="17" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C124" s="18">
         <v>4</v>
@@ -4490,7 +4516,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="17" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="C125" s="18">
         <v>4</v>
@@ -4504,7 +4530,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="17" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C126" s="18">
         <v>4</v>
@@ -4518,7 +4544,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="17" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C127" s="18">
         <v>4</v>
@@ -4532,7 +4558,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="17" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C128" s="18">
         <v>4</v>
@@ -4546,7 +4572,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="17" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="C129" s="18">
         <v>4</v>
@@ -4560,7 +4586,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="17" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="C130" s="18">
         <v>4</v>
@@ -4574,7 +4600,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="17" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="C131" s="18">
         <v>4</v>
@@ -4588,7 +4614,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="19" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C132" s="20">
         <v>5</v>
@@ -4602,7 +4628,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="19" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C133" s="20">
         <v>5</v>
@@ -4616,7 +4642,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="19" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C134" s="20">
         <v>5</v>
@@ -4630,7 +4656,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="19" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="C135" s="20">
         <v>5</v>
@@ -4643,8 +4669,8 @@
       <c r="A136" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="B136" s="19" t="s">
-        <v>329</v>
+      <c r="B136" s="35" t="s">
+        <v>327</v>
       </c>
       <c r="C136" s="20">
         <v>5</v>
@@ -4657,8 +4683,8 @@
       <c r="A137" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="B137" s="19" t="s">
-        <v>330</v>
+      <c r="B137" s="35" t="s">
+        <v>334</v>
       </c>
       <c r="C137" s="20">
         <v>5</v>
@@ -4672,7 +4698,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="19" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C138" s="20">
         <v>5</v>
@@ -4686,7 +4712,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="19" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="C139" s="20">
         <v>5</v>
@@ -4700,7 +4726,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="19" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="C140" s="20">
         <v>5</v>
@@ -4714,7 +4740,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="19" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C141" s="20">
         <v>5</v>
@@ -4728,7 +4754,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C142" s="20">
         <v>5</v>
@@ -4742,7 +4768,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="19" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C143" s="20">
         <v>5</v>
@@ -4756,7 +4782,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="19" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C144" s="20">
         <v>5</v>
@@ -4770,7 +4796,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="19" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="C145" s="20">
         <v>5</v>
@@ -4784,7 +4810,7 @@
         <v>144</v>
       </c>
       <c r="B146" s="21" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C146" s="22">
         <v>6</v>
@@ -4812,7 +4838,7 @@
         <v>146</v>
       </c>
       <c r="B148" s="21" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C148" s="22">
         <v>6</v>
@@ -4826,7 +4852,7 @@
         <v>147</v>
       </c>
       <c r="B149" s="21" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="C149" s="22">
         <v>6</v>
@@ -4840,7 +4866,7 @@
         <v>148</v>
       </c>
       <c r="B150" s="21" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C150" s="22">
         <v>6</v>
@@ -4854,7 +4880,7 @@
         <v>149</v>
       </c>
       <c r="B151" s="21" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C151" s="22">
         <v>6</v>
@@ -4868,7 +4894,7 @@
         <v>150</v>
       </c>
       <c r="B152" s="21" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C152" s="22">
         <v>6</v>
@@ -4882,7 +4908,7 @@
         <v>151</v>
       </c>
       <c r="B153" s="21" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C153" s="22">
         <v>6</v>
@@ -4896,7 +4922,7 @@
         <v>152</v>
       </c>
       <c r="B154" s="21" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C154" s="22">
         <v>6</v>
@@ -4910,7 +4936,7 @@
         <v>153</v>
       </c>
       <c r="B155" s="21" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C155" s="22">
         <v>6</v>
@@ -4924,7 +4950,7 @@
         <v>154</v>
       </c>
       <c r="B156" s="23" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="C156" s="24">
         <v>7</v>
@@ -4938,7 +4964,7 @@
         <v>155</v>
       </c>
       <c r="B157" s="23" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="C157" s="24">
         <v>7</v>
@@ -4952,7 +4978,7 @@
         <v>156</v>
       </c>
       <c r="B158" s="23" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C158" s="24">
         <v>7</v>
@@ -4965,8 +4991,8 @@
       <c r="A159" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="B159" s="23" t="s">
-        <v>352</v>
+      <c r="B159" s="36" t="s">
+        <v>357</v>
       </c>
       <c r="C159" s="24">
         <v>7</v>
@@ -5008,7 +5034,7 @@
         <v>160</v>
       </c>
       <c r="B162" s="23" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C162" s="24">
         <v>7</v>
@@ -5022,7 +5048,7 @@
         <v>161</v>
       </c>
       <c r="B163" s="23" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C163" s="24">
         <v>7</v>
@@ -5036,7 +5062,7 @@
         <v>162</v>
       </c>
       <c r="B164" s="23" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="C164" s="24">
         <v>7</v>
@@ -5050,7 +5076,7 @@
         <v>163</v>
       </c>
       <c r="B165" s="23" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="C165" s="24">
         <v>7</v>
@@ -5064,7 +5090,7 @@
         <v>164</v>
       </c>
       <c r="B166" s="23" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C166" s="24">
         <v>7</v>
@@ -5078,7 +5104,7 @@
         <v>165</v>
       </c>
       <c r="B167" s="23" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C167" s="24">
         <v>7</v>
@@ -5092,7 +5118,7 @@
         <v>166</v>
       </c>
       <c r="B168" s="23" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="C168" s="24">
         <v>7</v>
@@ -5106,7 +5132,7 @@
         <v>167</v>
       </c>
       <c r="B169" s="23" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="C169" s="24">
         <v>7</v>
@@ -5120,7 +5146,7 @@
         <v>168</v>
       </c>
       <c r="B170" s="23" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="C170" s="24">
         <v>7</v>
@@ -5134,7 +5160,7 @@
         <v>169</v>
       </c>
       <c r="B171" s="25" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="C171" s="26">
         <v>8</v>
@@ -5148,7 +5174,7 @@
         <v>170</v>
       </c>
       <c r="B172" s="25" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="C172" s="26">
         <v>8</v>
@@ -5162,7 +5188,7 @@
         <v>171</v>
       </c>
       <c r="B173" s="25" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="C173" s="26">
         <v>8</v>
@@ -5176,7 +5202,7 @@
         <v>172</v>
       </c>
       <c r="B174" s="25" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C174" s="26">
         <v>8</v>
@@ -5190,7 +5216,7 @@
         <v>173</v>
       </c>
       <c r="B175" s="25" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="C175" s="26">
         <v>8</v>
@@ -5204,7 +5230,7 @@
         <v>174</v>
       </c>
       <c r="B176" s="25" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="C176" s="26">
         <v>8</v>
@@ -5218,7 +5244,7 @@
         <v>175</v>
       </c>
       <c r="B177" s="25" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="C177" s="26">
         <v>8</v>
@@ -5232,7 +5258,7 @@
         <v>176</v>
       </c>
       <c r="B178" s="25" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="C178" s="26">
         <v>8</v>
@@ -5246,7 +5272,7 @@
         <v>177</v>
       </c>
       <c r="B179" s="25" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C179" s="26">
         <v>8</v>
@@ -5260,7 +5286,7 @@
         <v>178</v>
       </c>
       <c r="B180" s="25" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="C180" s="26">
         <v>8</v>
@@ -5274,7 +5300,7 @@
         <v>179</v>
       </c>
       <c r="B181" s="25" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="C181" s="26">
         <v>8</v>
@@ -5288,7 +5314,7 @@
         <v>180</v>
       </c>
       <c r="B182" s="25" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="C182" s="26">
         <v>8</v>
@@ -5302,7 +5328,7 @@
         <v>181</v>
       </c>
       <c r="B183" s="25" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="C183" s="26">
         <v>8</v>
@@ -5316,7 +5342,7 @@
         <v>182</v>
       </c>
       <c r="B184" s="25" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C184" s="26">
         <v>8</v>
@@ -5330,7 +5356,7 @@
         <v>183</v>
       </c>
       <c r="B185" s="25" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C185" s="26">
         <v>8</v>
@@ -5344,7 +5370,7 @@
         <v>184</v>
       </c>
       <c r="B186" s="25" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C186" s="26">
         <v>8</v>
@@ -5358,7 +5384,7 @@
         <v>185</v>
       </c>
       <c r="B187" s="25" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C187" s="26">
         <v>8</v>
@@ -5372,7 +5398,7 @@
         <v>186</v>
       </c>
       <c r="B188" s="25" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C188" s="26">
         <v>8</v>
@@ -5386,7 +5412,7 @@
         <v>187</v>
       </c>
       <c r="B189" s="25" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C189" s="26">
         <v>8</v>
@@ -5400,7 +5426,7 @@
         <v>188</v>
       </c>
       <c r="B190" s="25" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C190" s="26">
         <v>8</v>
@@ -5414,7 +5440,7 @@
         <v>189</v>
       </c>
       <c r="B191" s="25" t="s">
-        <v>384</v>
+        <v>364</v>
       </c>
       <c r="C191" s="26">
         <v>8</v>
@@ -5428,7 +5454,7 @@
         <v>190</v>
       </c>
       <c r="B192" s="27" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C192" s="28">
         <v>9</v>
@@ -5442,7 +5468,7 @@
         <v>191</v>
       </c>
       <c r="B193" s="27" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C193" s="28">
         <v>9</v>
@@ -5456,7 +5482,7 @@
         <v>192</v>
       </c>
       <c r="B194" s="27" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C194" s="28">
         <v>9</v>
@@ -5470,7 +5496,7 @@
         <v>193</v>
       </c>
       <c r="B195" s="27" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C195" s="28">
         <v>9</v>
@@ -5484,7 +5510,7 @@
         <v>194</v>
       </c>
       <c r="B196" s="27" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C196" s="28">
         <v>9</v>
@@ -5494,6 +5520,9 @@
       <c r="G196" s="1"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B146:B155">
+    <sortCondition ref="B146:B155"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/Stock Item Type Listing.xlsx
+++ b/Stock Item Type Listing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp2\htdocs\Internship-Yung-Kong-Website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91EC934-90D3-477F-8AC6-D5F75EE498F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3C0BA0-1382-41D4-8ADA-B301118515AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13935" yWindow="360" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="360" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -2708,8 +2708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E109" sqref="E109"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Stock Item Type Listing.xlsx
+++ b/Stock Item Type Listing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp2\htdocs\Internship-Yung-Kong-Website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3C0BA0-1382-41D4-8ADA-B301118515AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB7073B-4BBB-46B9-B52E-820057F5F03B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="360" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="1305" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -2708,8 +2708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" topLeftCell="A140" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C148" sqref="C148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Stock Item Type Listing.xlsx
+++ b/Stock Item Type Listing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp2\htdocs\Internship-Yung-Kong-Website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB7073B-4BBB-46B9-B52E-820057F5F03B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262CE78E-B602-418D-835F-7F8568ED9A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="1305" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="404">
   <si>
     <t>Item Group</t>
   </si>
@@ -1244,6 +1244,9 @@
   </si>
   <si>
     <t>CURTAIN ACCESSORIES</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -2406,14 +2409,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>3662</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>589816</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>5861</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>337038</xdr:colOff>
+      <xdr:colOff>315057</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>65943</xdr:rowOff>
     </xdr:to>
@@ -2708,8 +2711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C148" sqref="C148"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2722,8 +2725,8 @@
     <col min="7" max="7" width="6.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -2744,7 +2747,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -2765,7 +2768,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
@@ -2786,7 +2789,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
@@ -2807,7 +2810,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
@@ -2828,7 +2831,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
@@ -2849,7 +2852,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
@@ -2870,7 +2873,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
@@ -2891,7 +2894,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>8</v>
       </c>
@@ -2912,7 +2915,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>9</v>
       </c>
@@ -2933,7 +2936,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
@@ -2953,8 +2956,15 @@
         <f>COUNTIF(C3:C198,9)</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>403</v>
+      </c>
+      <c r="I12">
+        <f>SUM(G3:G12)</f>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
@@ -2969,7 +2979,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="10"/>
     </row>
-    <row r="14" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
@@ -2982,7 +2992,7 @@
       <c r="D14" s="10"/>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>13</v>
       </c>
@@ -2995,7 +3005,7 @@
       <c r="D15" s="10"/>
       <c r="H15" s="10"/>
     </row>
-    <row r="16" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>14</v>
       </c>
@@ -3303,9 +3313,6 @@
       <c r="C38" s="8">
         <v>0</v>
       </c>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">

--- a/Stock Item Type Listing.xlsx
+++ b/Stock Item Type Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp2\htdocs\Internship-Yung-Kong-Website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262CE78E-B602-418D-835F-7F8568ED9A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9BD9F4E-5917-41BC-BB4C-3DF7E19093A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="410">
   <si>
     <t>Item Group</t>
   </si>
@@ -1247,6 +1247,24 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>HIGH PRESSURE REGULATOR</t>
+  </si>
+  <si>
+    <t>GENERATOR</t>
+  </si>
+  <si>
+    <t>PERIPHERAL PUMPS</t>
+  </si>
+  <si>
+    <t>WELDING MACHINE</t>
+  </si>
+  <si>
+    <t>WATER PUMP</t>
+  </si>
+  <si>
+    <t>CENTRIGUGAL PUMP</t>
   </si>
 </sst>
 </file>
@@ -2711,8 +2729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I196"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3454,7 +3472,7 @@
       <c r="F48" s="10"/>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
         <v>47</v>
       </c>
@@ -3468,7 +3486,7 @@
       <c r="F49" s="10"/>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>48</v>
       </c>
@@ -3482,7 +3500,7 @@
       <c r="F50" s="10"/>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
         <v>49</v>
       </c>
@@ -3496,7 +3514,7 @@
       <c r="F51" s="10"/>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
         <v>50</v>
       </c>
@@ -3510,7 +3528,7 @@
       <c r="F52" s="10"/>
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
         <v>51</v>
       </c>
@@ -3524,7 +3542,7 @@
       <c r="F53" s="10"/>
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
         <v>52</v>
       </c>
@@ -3538,7 +3556,7 @@
       <c r="F54" s="10"/>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
         <v>53</v>
       </c>
@@ -3552,7 +3570,7 @@
       <c r="F55" s="10"/>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
         <v>54</v>
       </c>
@@ -3563,10 +3581,9 @@
         <v>1</v>
       </c>
       <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
         <v>55</v>
       </c>
@@ -3577,10 +3594,9 @@
         <v>1</v>
       </c>
       <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
         <v>56</v>
       </c>
@@ -3591,10 +3607,9 @@
         <v>1</v>
       </c>
       <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
         <v>57</v>
       </c>
@@ -3605,10 +3620,9 @@
         <v>1</v>
       </c>
       <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
         <v>58</v>
       </c>
@@ -3619,10 +3633,9 @@
         <v>2</v>
       </c>
       <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
       <c r="G60" s="1"/>
     </row>
-    <row r="61" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
         <v>59</v>
       </c>
@@ -3633,10 +3646,9 @@
         <v>2</v>
       </c>
       <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
       <c r="G61" s="1"/>
     </row>
-    <row r="62" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
         <v>60</v>
       </c>
@@ -3646,11 +3658,13 @@
       <c r="C62" s="14">
         <v>2</v>
       </c>
-      <c r="E62" s="10"/>
-      <c r="F62" s="10"/>
-      <c r="G62" s="1"/>
-    </row>
-    <row r="63" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+    </row>
+    <row r="63" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
         <v>61</v>
       </c>
@@ -3660,11 +3674,13 @@
       <c r="C63" s="14">
         <v>2</v>
       </c>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
-      <c r="G63" s="1"/>
-    </row>
-    <row r="64" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+    </row>
+    <row r="64" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
         <v>62</v>
       </c>
@@ -3674,11 +3690,15 @@
       <c r="C64" s="14">
         <v>2</v>
       </c>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10"/>
-      <c r="G64" s="1"/>
-    </row>
-    <row r="65" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E64" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+    </row>
+    <row r="65" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
         <v>63</v>
       </c>
@@ -3688,11 +3708,15 @@
       <c r="C65" s="14">
         <v>2</v>
       </c>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10"/>
-      <c r="G65" s="1"/>
-    </row>
-    <row r="66" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E65" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+    </row>
+    <row r="66" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
         <v>64</v>
       </c>
@@ -3702,11 +3726,15 @@
       <c r="C66" s="14">
         <v>2</v>
       </c>
-      <c r="E66" s="10"/>
-      <c r="F66" s="10"/>
-      <c r="G66" s="1"/>
-    </row>
-    <row r="67" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E66" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+    </row>
+    <row r="67" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
         <v>65</v>
       </c>
@@ -3716,11 +3744,15 @@
       <c r="C67" s="14">
         <v>2</v>
       </c>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10"/>
-      <c r="G67" s="1"/>
-    </row>
-    <row r="68" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E67" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+    </row>
+    <row r="68" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
         <v>66</v>
       </c>
@@ -3730,11 +3762,15 @@
       <c r="C68" s="14">
         <v>2</v>
       </c>
-      <c r="E68" s="10"/>
-      <c r="F68" s="10"/>
-      <c r="G68" s="1"/>
-    </row>
-    <row r="69" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E68" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+    </row>
+    <row r="69" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
         <v>67</v>
       </c>
@@ -3744,11 +3780,15 @@
       <c r="C69" s="14">
         <v>2</v>
       </c>
-      <c r="E69" s="10"/>
-      <c r="F69" s="10"/>
-      <c r="G69" s="1"/>
-    </row>
-    <row r="70" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E69" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+    </row>
+    <row r="70" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
         <v>68</v>
       </c>
@@ -3758,11 +3798,13 @@
       <c r="C70" s="14">
         <v>2</v>
       </c>
-      <c r="E70" s="10"/>
-      <c r="F70" s="10"/>
-      <c r="G70" s="1"/>
-    </row>
-    <row r="71" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+    </row>
+    <row r="71" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
         <v>69</v>
       </c>
@@ -3775,8 +3817,10 @@
       <c r="E71" s="10"/>
       <c r="F71" s="10"/>
       <c r="G71" s="1"/>
-    </row>
-    <row r="72" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+    </row>
+    <row r="72" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
         <v>70</v>
       </c>
@@ -3789,8 +3833,10 @@
       <c r="E72" s="10"/>
       <c r="F72" s="10"/>
       <c r="G72" s="1"/>
-    </row>
-    <row r="73" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+    </row>
+    <row r="73" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
         <v>71</v>
       </c>
@@ -3803,8 +3849,10 @@
       <c r="E73" s="10"/>
       <c r="F73" s="10"/>
       <c r="G73" s="1"/>
-    </row>
-    <row r="74" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+    </row>
+    <row r="74" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
         <v>72</v>
       </c>
@@ -3817,8 +3865,10 @@
       <c r="E74" s="10"/>
       <c r="F74" s="10"/>
       <c r="G74" s="1"/>
-    </row>
-    <row r="75" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+    </row>
+    <row r="75" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
         <v>73</v>
       </c>
@@ -3831,8 +3881,10 @@
       <c r="E75" s="10"/>
       <c r="F75" s="10"/>
       <c r="G75" s="1"/>
-    </row>
-    <row r="76" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+    </row>
+    <row r="76" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
         <v>74</v>
       </c>
@@ -3845,8 +3897,10 @@
       <c r="E76" s="10"/>
       <c r="F76" s="10"/>
       <c r="G76" s="1"/>
-    </row>
-    <row r="77" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+    </row>
+    <row r="77" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="s">
         <v>75</v>
       </c>
@@ -3860,7 +3914,7 @@
       <c r="F77" s="10"/>
       <c r="G77" s="1"/>
     </row>
-    <row r="78" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
         <v>76</v>
       </c>
@@ -3874,7 +3928,7 @@
       <c r="F78" s="10"/>
       <c r="G78" s="1"/>
     </row>
-    <row r="79" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="s">
         <v>77</v>
       </c>
@@ -3888,7 +3942,7 @@
       <c r="F79" s="10"/>
       <c r="G79" s="1"/>
     </row>
-    <row r="80" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="s">
         <v>78</v>
       </c>

--- a/Stock Item Type Listing.xlsx
+++ b/Stock Item Type Listing.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp2\htdocs\Internship-Yung-Kong-Website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9BD9F4E-5917-41BC-BB4C-3DF7E19093A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA015F0-07D5-45EA-B374-0E5BE41AA0A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="After" sheetId="1" r:id="rId1"/>
+    <sheet name="Before" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$2:$C$196</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">After!$A$2:$C$196</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="411">
   <si>
     <t>Item Group</t>
   </si>
@@ -1265,6 +1266,9 @@
   </si>
   <si>
     <t>CENTRIGUGAL PUMP</t>
+  </si>
+  <si>
+    <t>CENTRIFUGAL PUMP</t>
   </si>
 </sst>
 </file>
@@ -1578,7 +1582,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet!$G$2</c:f>
+              <c:f>After!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1599,7 +1603,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet!$E$3:$F$12</c:f>
+              <c:f>After!$E$3:$F$12</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="10"/>
                 <c:lvl>
@@ -1671,7 +1675,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet!$G$3:$G$12</c:f>
+              <c:f>After!$G$3:$G$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1711,6 +1715,362 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5D15-4E0E-8C60-24B722565C3D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1975785776"/>
+        <c:axId val="1975782032"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1975785776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1975782032"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1975782032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1975785776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>After!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>After!$E$3:$F$12</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="10"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Building Materials</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Bolts &amp; Fasteners</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Hand Tools</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>General &amp; Household</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Welding &amp; Machinery</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Safety &amp; Security</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Electrical Accessories</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Plumbing</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Power Tools</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Paint</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>9</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>After!$G$3:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B4A0-440A-B191-CE4A81F62595}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1918,7 +2278,552 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2464,6 +3369,49 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>589816</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>5861</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>315057</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>65943</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{771E5FB2-1B89-475A-82DC-9349E11489AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2727,10 +3675,4628 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R196"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="55.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="1"/>
+    </row>
+    <row r="2" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>401</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="G3" s="30">
+        <f>COUNTIF(C3:C196,0)</f>
+        <v>43</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="R3" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="G4" s="30">
+        <f>COUNTIF(C3:C197,1)</f>
+        <v>14</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="R4" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
+        <v>2</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="G5" s="30">
+        <f>COUNTIF(C3:C197,2)</f>
+        <v>23</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="R5" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6">
+        <v>3</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="G6" s="30">
+        <f>COUNTIF(C3:C197,3)</f>
+        <v>33</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="R6" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6">
+        <v>4</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="G7" s="30">
+        <f>COUNTIF(C3:C197,4)</f>
+        <v>16</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="R7" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6">
+        <v>5</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="G8" s="30">
+        <f>COUNTIF(C3:C197,5)</f>
+        <v>14</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="R8" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C9" s="8">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6">
+        <v>6</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="G9" s="30">
+        <f>COUNTIF(C3:C197,6)</f>
+        <v>10</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="R9" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C10" s="8">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6">
+        <v>7</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="G10" s="30">
+        <f>COUNTIF(C3:C197,7)</f>
+        <v>15</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="R10" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C11" s="8">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6">
+        <v>8</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="G11" s="30">
+        <f>COUNTIF(C3:C197,8)</f>
+        <v>21</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="R11" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="C12" s="8">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6">
+        <v>9</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="G12" s="30">
+        <f>COUNTIF(C3:C198,9)</f>
+        <v>5</v>
+      </c>
+      <c r="H12" t="s">
+        <v>403</v>
+      </c>
+      <c r="I12">
+        <f>SUM(G3:G12)</f>
+        <v>194</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q12" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="R12" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C13" s="8">
+        <v>0</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="10"/>
+      <c r="P13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="R13" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C14" s="8">
+        <v>0</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="P14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="R14" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C15" s="8">
+        <v>0</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="P15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="R15" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C16" s="8">
+        <v>0</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="P16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="R16" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C17" s="8">
+        <v>0</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="1"/>
+      <c r="P17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="R17" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C18" s="8">
+        <v>0</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="1"/>
+      <c r="P18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="R18" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C19" s="8">
+        <v>0</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="1"/>
+      <c r="P19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="R19" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C20" s="8">
+        <v>0</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="P20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="R20" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C21" s="8">
+        <v>0</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="P21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="R21" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C22" s="8">
+        <v>0</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="P22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="R22" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C23" s="8">
+        <v>0</v>
+      </c>
+      <c r="E23" s="10"/>
+      <c r="P23" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="R23" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C24" s="8">
+        <v>0</v>
+      </c>
+      <c r="E24" s="10"/>
+      <c r="P24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="R24" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C25" s="8">
+        <v>0</v>
+      </c>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="1"/>
+      <c r="P25" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="R25" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C26" s="8">
+        <v>0</v>
+      </c>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="1"/>
+      <c r="P26" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="R26" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C27" s="8">
+        <v>0</v>
+      </c>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="1"/>
+      <c r="P27" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="R27" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C28" s="8">
+        <v>0</v>
+      </c>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="1"/>
+      <c r="P28" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="R28" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C29" s="8">
+        <v>0</v>
+      </c>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="1"/>
+      <c r="P29" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="R29" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="C30" s="8">
+        <v>0</v>
+      </c>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="1"/>
+      <c r="P30" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="R30" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C31" s="8">
+        <v>0</v>
+      </c>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="1"/>
+      <c r="P31" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="R31" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C32" s="8">
+        <v>0</v>
+      </c>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="1"/>
+      <c r="P32" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="R32" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="C33" s="8">
+        <v>0</v>
+      </c>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="1"/>
+      <c r="P33" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="R33" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C34" s="8">
+        <v>0</v>
+      </c>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="1"/>
+      <c r="P34" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="R34" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C35" s="8">
+        <v>0</v>
+      </c>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="1"/>
+      <c r="P35" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="R35" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C36" s="8">
+        <v>0</v>
+      </c>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="1"/>
+      <c r="P36" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q36" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="R36" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C37" s="8">
+        <v>0</v>
+      </c>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="1"/>
+      <c r="P37" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q37" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="R37" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="C38" s="8">
+        <v>0</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="R38" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="C39" s="8">
+        <v>0</v>
+      </c>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="1"/>
+      <c r="P39" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="R39" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C40" s="8">
+        <v>0</v>
+      </c>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="1"/>
+      <c r="P40" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="R40" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C41" s="8">
+        <v>0</v>
+      </c>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="1"/>
+      <c r="P41" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="R41" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="C42" s="8">
+        <v>0</v>
+      </c>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="1"/>
+      <c r="P42" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q42" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="R42" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C43" s="8">
+        <v>0</v>
+      </c>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="1"/>
+      <c r="P43" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="R43" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="C44" s="8">
+        <v>0</v>
+      </c>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="1"/>
+      <c r="P44" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q44" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="R44" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="C45" s="8">
+        <v>0</v>
+      </c>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="1"/>
+      <c r="P45" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q45" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="R45" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="C46" s="12">
+        <v>1</v>
+      </c>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="1"/>
+      <c r="P46" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q46" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="R46" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="C47" s="12">
+        <v>1</v>
+      </c>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="1"/>
+      <c r="P47" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q47" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="R47" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="C48" s="12">
+        <v>1</v>
+      </c>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="1"/>
+      <c r="P48" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q48" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="R48" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="C49" s="12">
+        <v>1</v>
+      </c>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="1"/>
+      <c r="P49" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q49" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="R49" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="C50" s="12">
+        <v>1</v>
+      </c>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="1"/>
+      <c r="P50" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q50" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="R50" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="C51" s="12">
+        <v>1</v>
+      </c>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="1"/>
+      <c r="P51" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q51" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="R51" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="C52" s="12">
+        <v>1</v>
+      </c>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="1"/>
+      <c r="P52" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q52" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="R52" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="C53" s="12">
+        <v>1</v>
+      </c>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="1"/>
+      <c r="P53" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q53" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="R53" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="C54" s="12">
+        <v>1</v>
+      </c>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="1"/>
+      <c r="P54" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q54" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="R54" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="C55" s="12">
+        <v>1</v>
+      </c>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="1"/>
+      <c r="P55" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q55" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="R55" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="C56" s="12">
+        <v>1</v>
+      </c>
+      <c r="E56" s="10"/>
+      <c r="G56" s="1"/>
+      <c r="P56" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q56" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="R56" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="C57" s="12">
+        <v>1</v>
+      </c>
+      <c r="E57" s="10"/>
+      <c r="G57" s="1"/>
+      <c r="P57" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q57" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="R57" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="C58" s="12">
+        <v>1</v>
+      </c>
+      <c r="E58" s="10"/>
+      <c r="G58" s="1"/>
+      <c r="P58" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q58" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="R58" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="C59" s="12">
+        <v>1</v>
+      </c>
+      <c r="E59" s="10"/>
+      <c r="G59" s="1"/>
+      <c r="P59" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q59" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="R59" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="C60" s="14">
+        <v>2</v>
+      </c>
+      <c r="E60" s="10"/>
+      <c r="G60" s="1"/>
+      <c r="P60" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q60" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="R60" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="C61" s="14">
+        <v>2</v>
+      </c>
+      <c r="E61" s="10"/>
+      <c r="G61" s="1"/>
+      <c r="P61" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q61" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="R61" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="C62" s="14">
+        <v>2</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="P62" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q62" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="R62" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="C63" s="14">
+        <v>2</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="P63" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q63" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="R63" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="C64" s="14">
+        <v>2</v>
+      </c>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="P64" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q64" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="R64" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65" s="32" t="s">
+        <v>256</v>
+      </c>
+      <c r="C65" s="14">
+        <v>2</v>
+      </c>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="P65" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q65" s="32" t="s">
+        <v>256</v>
+      </c>
+      <c r="R65" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="C66" s="14">
+        <v>2</v>
+      </c>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="P66" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q66" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="R66" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B67" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="C67" s="14">
+        <v>2</v>
+      </c>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="P67" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q67" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="R67" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B68" s="32" t="s">
+        <v>271</v>
+      </c>
+      <c r="C68" s="14">
+        <v>2</v>
+      </c>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="P68" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q68" s="32" t="s">
+        <v>271</v>
+      </c>
+      <c r="R68" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B69" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="C69" s="14">
+        <v>2</v>
+      </c>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="P69" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q69" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="R69" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B70" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="C70" s="14">
+        <v>2</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="P70" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q70" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="R70" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B71" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="C71" s="14">
+        <v>2</v>
+      </c>
+      <c r="E71" s="10"/>
+      <c r="F71" s="10"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="P71" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q71" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="R71" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B72" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="C72" s="14">
+        <v>2</v>
+      </c>
+      <c r="E72" s="10"/>
+      <c r="F72" s="10"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="P72" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q72" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="R72" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B73" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="C73" s="14">
+        <v>2</v>
+      </c>
+      <c r="E73" s="10"/>
+      <c r="F73" s="10"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="P73" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q73" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="R73" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B74" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="C74" s="14">
+        <v>2</v>
+      </c>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="P74" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q74" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="R74" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B75" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="C75" s="14">
+        <v>2</v>
+      </c>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="P75" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q75" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="R75" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B76" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="C76" s="14">
+        <v>2</v>
+      </c>
+      <c r="E76" s="10"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="P76" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q76" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="R76" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B77" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="C77" s="14">
+        <v>2</v>
+      </c>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="1"/>
+      <c r="P77" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q77" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="R77" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B78" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="C78" s="14">
+        <v>2</v>
+      </c>
+      <c r="E78" s="10"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="1"/>
+      <c r="P78" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q78" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="R78" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B79" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="C79" s="14">
+        <v>2</v>
+      </c>
+      <c r="E79" s="10"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="1"/>
+      <c r="P79" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q79" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="R79" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B80" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="C80" s="14">
+        <v>2</v>
+      </c>
+      <c r="E80" s="10"/>
+      <c r="F80" s="10"/>
+      <c r="G80" s="1"/>
+      <c r="P80" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q80" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="R80" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B81" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="C81" s="14">
+        <v>2</v>
+      </c>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="1"/>
+      <c r="P81" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q81" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="R81" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B82" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="C82" s="14">
+        <v>2</v>
+      </c>
+      <c r="E82" s="10"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="1"/>
+      <c r="P82" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q82" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="R82" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B83" s="33" t="s">
+        <v>307</v>
+      </c>
+      <c r="C83" s="16">
+        <v>3</v>
+      </c>
+      <c r="E83" s="10"/>
+      <c r="F83" s="10"/>
+      <c r="G83" s="1"/>
+      <c r="P83" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q83" s="33" t="s">
+        <v>307</v>
+      </c>
+      <c r="R83" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B84" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="C84" s="16">
+        <v>3</v>
+      </c>
+      <c r="E84" s="10"/>
+      <c r="F84" s="10"/>
+      <c r="G84" s="1"/>
+      <c r="P84" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q84" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="R84" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B85" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="C85" s="16">
+        <v>3</v>
+      </c>
+      <c r="E85" s="10"/>
+      <c r="F85" s="10"/>
+      <c r="G85" s="1"/>
+      <c r="P85" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q85" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="R85" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B86" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="C86" s="16">
+        <v>3</v>
+      </c>
+      <c r="E86" s="10"/>
+      <c r="F86" s="10"/>
+      <c r="G86" s="1"/>
+      <c r="P86" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q86" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="R86" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B87" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="C87" s="16">
+        <v>3</v>
+      </c>
+      <c r="E87" s="10"/>
+      <c r="F87" s="10"/>
+      <c r="G87" s="1"/>
+      <c r="P87" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q87" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="R87" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B88" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="C88" s="16">
+        <v>3</v>
+      </c>
+      <c r="E88" s="10"/>
+      <c r="F88" s="10"/>
+      <c r="G88" s="1"/>
+      <c r="P88" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q88" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="R88" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B89" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="C89" s="16">
+        <v>3</v>
+      </c>
+      <c r="E89" s="10"/>
+      <c r="F89" s="10"/>
+      <c r="G89" s="1"/>
+      <c r="P89" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q89" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="R89" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B90" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="C90" s="16">
+        <v>3</v>
+      </c>
+      <c r="E90" s="10"/>
+      <c r="F90" s="10"/>
+      <c r="G90" s="1"/>
+      <c r="P90" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q90" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="R90" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B91" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="C91" s="16">
+        <v>3</v>
+      </c>
+      <c r="E91" s="10"/>
+      <c r="F91" s="10"/>
+      <c r="G91" s="1"/>
+      <c r="P91" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q91" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="R91" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B92" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="C92" s="16">
+        <v>3</v>
+      </c>
+      <c r="E92" s="10"/>
+      <c r="F92" s="10"/>
+      <c r="G92" s="1"/>
+      <c r="P92" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q92" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="R92" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B93" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="C93" s="16">
+        <v>3</v>
+      </c>
+      <c r="E93" s="10"/>
+      <c r="F93" s="10"/>
+      <c r="G93" s="1"/>
+      <c r="P93" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q93" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="R93" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B94" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="C94" s="16">
+        <v>3</v>
+      </c>
+      <c r="E94" s="10"/>
+      <c r="F94" s="10"/>
+      <c r="G94" s="1"/>
+      <c r="P94" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q94" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="R94" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B95" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="C95" s="16">
+        <v>3</v>
+      </c>
+      <c r="E95" s="10"/>
+      <c r="F95" s="10"/>
+      <c r="G95" s="1"/>
+      <c r="P95" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q95" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="R95" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B96" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="C96" s="16">
+        <v>3</v>
+      </c>
+      <c r="E96" s="10"/>
+      <c r="F96" s="10"/>
+      <c r="G96" s="1"/>
+      <c r="P96" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q96" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="R96" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B97" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="C97" s="16">
+        <v>3</v>
+      </c>
+      <c r="E97" s="10"/>
+      <c r="F97" s="10"/>
+      <c r="G97" s="1"/>
+      <c r="P97" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q97" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="R97" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B98" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="C98" s="16">
+        <v>3</v>
+      </c>
+      <c r="E98" s="10"/>
+      <c r="F98" s="10"/>
+      <c r="G98" s="1"/>
+      <c r="P98" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q98" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="R98" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B99" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="C99" s="16">
+        <v>3</v>
+      </c>
+      <c r="E99" s="10"/>
+      <c r="F99" s="10"/>
+      <c r="G99" s="1"/>
+      <c r="P99" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q99" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="R99" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B100" s="33" t="s">
+        <v>280</v>
+      </c>
+      <c r="C100" s="16">
+        <v>3</v>
+      </c>
+      <c r="E100" s="10"/>
+      <c r="F100" s="10"/>
+      <c r="G100" s="1"/>
+      <c r="P100" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q100" s="33" t="s">
+        <v>280</v>
+      </c>
+      <c r="R100" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B101" s="33" t="s">
+        <v>289</v>
+      </c>
+      <c r="C101" s="16">
+        <v>3</v>
+      </c>
+      <c r="E101" s="10"/>
+      <c r="F101" s="10"/>
+      <c r="G101" s="1"/>
+      <c r="P101" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q101" s="33" t="s">
+        <v>289</v>
+      </c>
+      <c r="R101" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B102" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="C102" s="16">
+        <v>3</v>
+      </c>
+      <c r="E102" s="10"/>
+      <c r="F102" s="10"/>
+      <c r="G102" s="1"/>
+      <c r="P102" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q102" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="R102" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B103" s="33" t="s">
+        <v>306</v>
+      </c>
+      <c r="C103" s="16">
+        <v>3</v>
+      </c>
+      <c r="E103" s="10"/>
+      <c r="F103" s="10"/>
+      <c r="G103" s="1"/>
+      <c r="P103" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q103" s="33" t="s">
+        <v>306</v>
+      </c>
+      <c r="R103" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B104" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="C104" s="16">
+        <v>3</v>
+      </c>
+      <c r="E104" s="10"/>
+      <c r="F104" s="10"/>
+      <c r="G104" s="1"/>
+      <c r="P104" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q104" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="R104" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B105" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="C105" s="16">
+        <v>3</v>
+      </c>
+      <c r="E105" s="10"/>
+      <c r="F105" s="10"/>
+      <c r="G105" s="1"/>
+      <c r="P105" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q105" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="R105" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B106" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="C106" s="16">
+        <v>3</v>
+      </c>
+      <c r="E106" s="10"/>
+      <c r="F106" s="10"/>
+      <c r="G106" s="1"/>
+      <c r="P106" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q106" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="R106" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B107" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="C107" s="16">
+        <v>3</v>
+      </c>
+      <c r="E107" s="10"/>
+      <c r="F107" s="10"/>
+      <c r="G107" s="1"/>
+      <c r="P107" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q107" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="R107" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B108" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="C108" s="16">
+        <v>3</v>
+      </c>
+      <c r="E108" s="10"/>
+      <c r="F108" s="10"/>
+      <c r="G108" s="1"/>
+      <c r="P108" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q108" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="R108" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="B109" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="C109" s="16">
+        <v>3</v>
+      </c>
+      <c r="E109" s="10"/>
+      <c r="F109" s="10"/>
+      <c r="G109" s="1"/>
+      <c r="P109" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q109" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="R109" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B110" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="C110" s="16">
+        <v>3</v>
+      </c>
+      <c r="E110" s="10"/>
+      <c r="F110" s="10"/>
+      <c r="G110" s="1"/>
+      <c r="P110" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q110" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="R110" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B111" s="33" t="s">
+        <v>305</v>
+      </c>
+      <c r="C111" s="16">
+        <v>3</v>
+      </c>
+      <c r="E111" s="10"/>
+      <c r="F111" s="10"/>
+      <c r="G111" s="1"/>
+      <c r="P111" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q111" s="33" t="s">
+        <v>305</v>
+      </c>
+      <c r="R111" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="B112" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="C112" s="16">
+        <v>3</v>
+      </c>
+      <c r="E112" s="10"/>
+      <c r="F112" s="10"/>
+      <c r="G112" s="1"/>
+      <c r="P112" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q112" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="R112" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B113" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="C113" s="16">
+        <v>3</v>
+      </c>
+      <c r="E113" s="10"/>
+      <c r="G113" s="10"/>
+      <c r="P113" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q113" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="R113" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B114" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="C114" s="16">
+        <v>3</v>
+      </c>
+      <c r="E114" s="10"/>
+      <c r="F114" s="10"/>
+      <c r="G114" s="1"/>
+      <c r="P114" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q114" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="R114" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B115" s="33" t="s">
+        <v>281</v>
+      </c>
+      <c r="C115" s="16">
+        <v>3</v>
+      </c>
+      <c r="E115" s="10"/>
+      <c r="F115" s="10"/>
+      <c r="G115" s="1"/>
+      <c r="P115" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q115" s="33" t="s">
+        <v>281</v>
+      </c>
+      <c r="R115" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B116" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="C116" s="18">
+        <v>4</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="F116" s="10"/>
+      <c r="G116" s="1"/>
+      <c r="P116" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q116" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="R116" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="B117" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="C117" s="18">
+        <v>4</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="F117" s="10"/>
+      <c r="G117" s="1"/>
+      <c r="P117" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q117" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="R117" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="B118" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="C118" s="18">
+        <v>4</v>
+      </c>
+      <c r="E118" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="F118" s="10"/>
+      <c r="G118" s="1"/>
+      <c r="P118" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q118" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="R118" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B119" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="C119" s="18">
+        <v>4</v>
+      </c>
+      <c r="E119" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="F119" s="10"/>
+      <c r="G119" s="1"/>
+      <c r="P119" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q119" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="R119" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B120" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="C120" s="18">
+        <v>4</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="F120" s="10"/>
+      <c r="G120" s="1"/>
+      <c r="P120" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q120" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="R120" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="B121" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="C121" s="18">
+        <v>4</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="F121" s="10"/>
+      <c r="G121" s="1"/>
+      <c r="P121" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q121" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="R121" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="B122" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="C122" s="18">
+        <v>4</v>
+      </c>
+      <c r="E122" s="10"/>
+      <c r="F122" s="10"/>
+      <c r="G122" s="1"/>
+      <c r="P122" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q122" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="R122" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B123" s="34" t="s">
+        <v>308</v>
+      </c>
+      <c r="C123" s="18">
+        <v>4</v>
+      </c>
+      <c r="E123" s="10"/>
+      <c r="F123" s="10"/>
+      <c r="G123" s="1"/>
+      <c r="P123" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q123" s="34" t="s">
+        <v>308</v>
+      </c>
+      <c r="R123" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="B124" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="C124" s="18">
+        <v>4</v>
+      </c>
+      <c r="E124" s="10"/>
+      <c r="F124" s="10"/>
+      <c r="G124" s="1"/>
+      <c r="P124" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q124" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="R124" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="B125" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="C125" s="18">
+        <v>4</v>
+      </c>
+      <c r="E125" s="10"/>
+      <c r="F125" s="10"/>
+      <c r="G125" s="1"/>
+      <c r="P125" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q125" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="R125" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="B126" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="C126" s="18">
+        <v>4</v>
+      </c>
+      <c r="E126" s="10"/>
+      <c r="F126" s="10"/>
+      <c r="G126" s="1"/>
+      <c r="P126" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q126" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="R126" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="B127" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="C127" s="18">
+        <v>4</v>
+      </c>
+      <c r="E127" s="10"/>
+      <c r="F127" s="10"/>
+      <c r="G127" s="1"/>
+      <c r="P127" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q127" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="R127" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="B128" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="C128" s="18">
+        <v>4</v>
+      </c>
+      <c r="E128" s="10"/>
+      <c r="F128" s="10"/>
+      <c r="G128" s="1"/>
+      <c r="P128" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q128" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="R128" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="B129" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="C129" s="18">
+        <v>4</v>
+      </c>
+      <c r="E129" s="10"/>
+      <c r="F129" s="10"/>
+      <c r="G129" s="1"/>
+      <c r="P129" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q129" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="R129" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="B130" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="C130" s="18">
+        <v>4</v>
+      </c>
+      <c r="E130" s="10"/>
+      <c r="F130" s="10"/>
+      <c r="G130" s="1"/>
+      <c r="P130" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q130" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="R130" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="B131" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="C131" s="18">
+        <v>4</v>
+      </c>
+      <c r="E131" s="10"/>
+      <c r="F131" s="10"/>
+      <c r="G131" s="1"/>
+      <c r="P131" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q131" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="R131" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="B132" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="C132" s="20">
+        <v>5</v>
+      </c>
+      <c r="E132" s="10"/>
+      <c r="F132" s="10"/>
+      <c r="G132" s="1"/>
+      <c r="P132" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q132" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="R132" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="B133" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="C133" s="20">
+        <v>5</v>
+      </c>
+      <c r="E133" s="10"/>
+      <c r="F133" s="10"/>
+      <c r="G133" s="1"/>
+      <c r="P133" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q133" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="R133" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="B134" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="C134" s="20">
+        <v>5</v>
+      </c>
+      <c r="E134" s="10"/>
+      <c r="F134" s="10"/>
+      <c r="G134" s="1"/>
+      <c r="P134" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q134" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="R134" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="B135" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="C135" s="20">
+        <v>5</v>
+      </c>
+      <c r="E135" s="10"/>
+      <c r="F135" s="10"/>
+      <c r="G135" s="1"/>
+      <c r="P135" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q135" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="R135" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="B136" s="35" t="s">
+        <v>327</v>
+      </c>
+      <c r="C136" s="20">
+        <v>5</v>
+      </c>
+      <c r="E136" s="10"/>
+      <c r="F136" s="10"/>
+      <c r="G136" s="1"/>
+      <c r="P136" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q136" s="35" t="s">
+        <v>327</v>
+      </c>
+      <c r="R136" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="B137" s="35" t="s">
+        <v>334</v>
+      </c>
+      <c r="C137" s="20">
+        <v>5</v>
+      </c>
+      <c r="E137" s="10"/>
+      <c r="F137" s="10"/>
+      <c r="G137" s="1"/>
+      <c r="P137" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q137" s="35" t="s">
+        <v>334</v>
+      </c>
+      <c r="R137" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="B138" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="C138" s="20">
+        <v>5</v>
+      </c>
+      <c r="E138" s="10"/>
+      <c r="F138" s="10"/>
+      <c r="G138" s="1"/>
+      <c r="P138" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q138" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="R138" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="B139" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="C139" s="20">
+        <v>5</v>
+      </c>
+      <c r="E139" s="10"/>
+      <c r="F139" s="10"/>
+      <c r="G139" s="1"/>
+      <c r="P139" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q139" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="R139" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="B140" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="C140" s="20">
+        <v>5</v>
+      </c>
+      <c r="E140" s="10"/>
+      <c r="F140" s="10"/>
+      <c r="G140" s="1"/>
+      <c r="P140" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q140" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="R140" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="B141" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="C141" s="20">
+        <v>5</v>
+      </c>
+      <c r="E141" s="10"/>
+      <c r="F141" s="10"/>
+      <c r="G141" s="1"/>
+      <c r="P141" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q141" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="R141" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="B142" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="C142" s="20">
+        <v>5</v>
+      </c>
+      <c r="E142" s="10"/>
+      <c r="F142" s="10"/>
+      <c r="G142" s="1"/>
+      <c r="P142" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q142" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="R142" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="B143" s="19" t="s">
+        <v>337</v>
+      </c>
+      <c r="C143" s="20">
+        <v>5</v>
+      </c>
+      <c r="E143" s="10"/>
+      <c r="F143" s="10"/>
+      <c r="G143" s="1"/>
+      <c r="P143" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q143" s="19" t="s">
+        <v>337</v>
+      </c>
+      <c r="R143" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="B144" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="C144" s="20">
+        <v>5</v>
+      </c>
+      <c r="E144" s="10"/>
+      <c r="F144" s="10"/>
+      <c r="G144" s="1"/>
+      <c r="P144" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q144" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="R144" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="B145" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="C145" s="20">
+        <v>5</v>
+      </c>
+      <c r="E145" s="10"/>
+      <c r="F145" s="10"/>
+      <c r="G145" s="1"/>
+      <c r="P145" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q145" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="R145" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="B146" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="C146" s="22">
+        <v>6</v>
+      </c>
+      <c r="E146" s="10"/>
+      <c r="F146" s="10"/>
+      <c r="G146" s="1"/>
+      <c r="P146" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q146" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="R146" s="22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B147" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="C147" s="22">
+        <v>6</v>
+      </c>
+      <c r="E147" s="10"/>
+      <c r="F147" s="10"/>
+      <c r="G147" s="1"/>
+      <c r="P147" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q147" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="R147" s="22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="B148" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="C148" s="22">
+        <v>6</v>
+      </c>
+      <c r="E148" s="10"/>
+      <c r="F148" s="10"/>
+      <c r="G148" s="1"/>
+      <c r="P148" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q148" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="R148" s="22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="B149" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="C149" s="22">
+        <v>6</v>
+      </c>
+      <c r="E149" s="10"/>
+      <c r="F149" s="10"/>
+      <c r="G149" s="1"/>
+      <c r="P149" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q149" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="R149" s="22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="B150" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="C150" s="22">
+        <v>6</v>
+      </c>
+      <c r="E150" s="10"/>
+      <c r="F150" s="10"/>
+      <c r="G150" s="1"/>
+      <c r="P150" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q150" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="R150" s="22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="B151" s="21" t="s">
+        <v>341</v>
+      </c>
+      <c r="C151" s="22">
+        <v>6</v>
+      </c>
+      <c r="E151" s="10"/>
+      <c r="F151" s="10"/>
+      <c r="G151" s="1"/>
+      <c r="P151" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q151" s="21" t="s">
+        <v>341</v>
+      </c>
+      <c r="R151" s="22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="B152" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="C152" s="22">
+        <v>6</v>
+      </c>
+      <c r="E152" s="10"/>
+      <c r="F152" s="10"/>
+      <c r="G152" s="1"/>
+      <c r="P152" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q152" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="R152" s="22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="B153" s="21" t="s">
+        <v>344</v>
+      </c>
+      <c r="C153" s="22">
+        <v>6</v>
+      </c>
+      <c r="E153" s="10"/>
+      <c r="F153" s="10"/>
+      <c r="G153" s="1"/>
+      <c r="P153" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q153" s="21" t="s">
+        <v>344</v>
+      </c>
+      <c r="R153" s="22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="B154" s="21" t="s">
+        <v>345</v>
+      </c>
+      <c r="C154" s="22">
+        <v>6</v>
+      </c>
+      <c r="E154" s="10"/>
+      <c r="F154" s="10"/>
+      <c r="G154" s="1"/>
+      <c r="P154" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q154" s="21" t="s">
+        <v>345</v>
+      </c>
+      <c r="R154" s="22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="B155" s="21" t="s">
+        <v>342</v>
+      </c>
+      <c r="C155" s="22">
+        <v>6</v>
+      </c>
+      <c r="E155" s="10"/>
+      <c r="F155" s="10"/>
+      <c r="G155" s="1"/>
+      <c r="P155" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q155" s="21" t="s">
+        <v>342</v>
+      </c>
+      <c r="R155" s="22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="B156" s="23" t="s">
+        <v>358</v>
+      </c>
+      <c r="C156" s="24">
+        <v>7</v>
+      </c>
+      <c r="E156" s="10"/>
+      <c r="F156" s="10"/>
+      <c r="G156" s="1"/>
+      <c r="P156" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q156" s="23" t="s">
+        <v>358</v>
+      </c>
+      <c r="R156" s="24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="B157" s="23" t="s">
+        <v>356</v>
+      </c>
+      <c r="C157" s="24">
+        <v>7</v>
+      </c>
+      <c r="E157" s="10"/>
+      <c r="F157" s="10"/>
+      <c r="G157" s="1"/>
+      <c r="P157" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q157" s="23" t="s">
+        <v>356</v>
+      </c>
+      <c r="R157" s="24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="158" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="B158" s="23" t="s">
+        <v>355</v>
+      </c>
+      <c r="C158" s="24">
+        <v>7</v>
+      </c>
+      <c r="E158" s="10"/>
+      <c r="F158" s="10"/>
+      <c r="G158" s="1"/>
+      <c r="P158" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q158" s="23" t="s">
+        <v>355</v>
+      </c>
+      <c r="R158" s="24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="B159" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="C159" s="24">
+        <v>7</v>
+      </c>
+      <c r="E159" s="10"/>
+      <c r="F159" s="10"/>
+      <c r="G159" s="1"/>
+      <c r="P159" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q159" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="R159" s="24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="160" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="B160" s="23" t="s">
+        <v>353</v>
+      </c>
+      <c r="C160" s="24">
+        <v>7</v>
+      </c>
+      <c r="E160" s="10"/>
+      <c r="F160" s="10"/>
+      <c r="G160" s="1"/>
+      <c r="P160" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q160" s="23" t="s">
+        <v>353</v>
+      </c>
+      <c r="R160" s="24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="B161" s="23" t="s">
+        <v>354</v>
+      </c>
+      <c r="C161" s="24">
+        <v>7</v>
+      </c>
+      <c r="E161" s="10"/>
+      <c r="F161" s="10"/>
+      <c r="G161" s="1"/>
+      <c r="P161" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q161" s="23" t="s">
+        <v>354</v>
+      </c>
+      <c r="R161" s="24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="B162" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="C162" s="24">
+        <v>7</v>
+      </c>
+      <c r="E162" s="10"/>
+      <c r="F162" s="10"/>
+      <c r="G162" s="1"/>
+      <c r="P162" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q162" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="R162" s="24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="163" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="B163" s="23" t="s">
+        <v>350</v>
+      </c>
+      <c r="C163" s="24">
+        <v>7</v>
+      </c>
+      <c r="E163" s="10"/>
+      <c r="F163" s="10"/>
+      <c r="G163" s="1"/>
+      <c r="P163" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q163" s="23" t="s">
+        <v>350</v>
+      </c>
+      <c r="R163" s="24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="164" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="B164" s="23" t="s">
+        <v>362</v>
+      </c>
+      <c r="C164" s="24">
+        <v>7</v>
+      </c>
+      <c r="E164" s="10"/>
+      <c r="F164" s="10"/>
+      <c r="G164" s="1"/>
+      <c r="P164" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q164" s="23" t="s">
+        <v>362</v>
+      </c>
+      <c r="R164" s="24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="165" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="B165" s="23" t="s">
+        <v>361</v>
+      </c>
+      <c r="C165" s="24">
+        <v>7</v>
+      </c>
+      <c r="E165" s="10"/>
+      <c r="F165" s="10"/>
+      <c r="G165" s="1"/>
+      <c r="P165" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q165" s="23" t="s">
+        <v>361</v>
+      </c>
+      <c r="R165" s="24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="166" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="B166" s="23" t="s">
+        <v>360</v>
+      </c>
+      <c r="C166" s="24">
+        <v>7</v>
+      </c>
+      <c r="E166" s="10"/>
+      <c r="F166" s="10"/>
+      <c r="G166" s="1"/>
+      <c r="P166" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q166" s="23" t="s">
+        <v>360</v>
+      </c>
+      <c r="R166" s="24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="167" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="B167" s="23" t="s">
+        <v>359</v>
+      </c>
+      <c r="C167" s="24">
+        <v>7</v>
+      </c>
+      <c r="E167" s="10"/>
+      <c r="F167" s="10"/>
+      <c r="G167" s="1"/>
+      <c r="P167" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q167" s="23" t="s">
+        <v>359</v>
+      </c>
+      <c r="R167" s="24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="B168" s="23" t="s">
+        <v>351</v>
+      </c>
+      <c r="C168" s="24">
+        <v>7</v>
+      </c>
+      <c r="E168" s="10"/>
+      <c r="F168" s="10"/>
+      <c r="G168" s="1"/>
+      <c r="P168" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q168" s="23" t="s">
+        <v>351</v>
+      </c>
+      <c r="R168" s="24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="169" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="B169" s="23" t="s">
+        <v>349</v>
+      </c>
+      <c r="C169" s="24">
+        <v>7</v>
+      </c>
+      <c r="E169" s="10"/>
+      <c r="F169" s="10"/>
+      <c r="G169" s="1"/>
+      <c r="P169" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q169" s="23" t="s">
+        <v>349</v>
+      </c>
+      <c r="R169" s="24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="170" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="B170" s="23" t="s">
+        <v>348</v>
+      </c>
+      <c r="C170" s="24">
+        <v>7</v>
+      </c>
+      <c r="E170" s="10"/>
+      <c r="F170" s="10"/>
+      <c r="G170" s="1"/>
+      <c r="P170" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q170" s="23" t="s">
+        <v>348</v>
+      </c>
+      <c r="R170" s="24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="B171" s="25" t="s">
+        <v>372</v>
+      </c>
+      <c r="C171" s="26">
+        <v>8</v>
+      </c>
+      <c r="E171" s="10"/>
+      <c r="F171" s="10"/>
+      <c r="G171" s="1"/>
+      <c r="P171" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q171" s="25" t="s">
+        <v>372</v>
+      </c>
+      <c r="R171" s="26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="172" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="B172" s="25" t="s">
+        <v>371</v>
+      </c>
+      <c r="C172" s="26">
+        <v>8</v>
+      </c>
+      <c r="E172" s="10"/>
+      <c r="F172" s="10"/>
+      <c r="G172" s="1"/>
+      <c r="P172" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q172" s="25" t="s">
+        <v>371</v>
+      </c>
+      <c r="R172" s="26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="B173" s="25" t="s">
+        <v>370</v>
+      </c>
+      <c r="C173" s="26">
+        <v>8</v>
+      </c>
+      <c r="E173" s="10"/>
+      <c r="F173" s="10"/>
+      <c r="G173" s="1"/>
+      <c r="P173" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q173" s="25" t="s">
+        <v>370</v>
+      </c>
+      <c r="R173" s="26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="174" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="B174" s="25" t="s">
+        <v>366</v>
+      </c>
+      <c r="C174" s="26">
+        <v>8</v>
+      </c>
+      <c r="E174" s="10"/>
+      <c r="F174" s="10"/>
+      <c r="G174" s="1"/>
+      <c r="P174" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q174" s="25" t="s">
+        <v>366</v>
+      </c>
+      <c r="R174" s="26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="175" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="B175" s="25" t="s">
+        <v>374</v>
+      </c>
+      <c r="C175" s="26">
+        <v>8</v>
+      </c>
+      <c r="E175" s="10"/>
+      <c r="F175" s="10"/>
+      <c r="G175" s="1"/>
+      <c r="P175" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q175" s="25" t="s">
+        <v>374</v>
+      </c>
+      <c r="R175" s="26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="176" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="B176" s="25" t="s">
+        <v>373</v>
+      </c>
+      <c r="C176" s="26">
+        <v>8</v>
+      </c>
+      <c r="E176" s="10"/>
+      <c r="F176" s="10"/>
+      <c r="G176" s="1"/>
+      <c r="P176" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q176" s="25" t="s">
+        <v>373</v>
+      </c>
+      <c r="R176" s="26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="177" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="B177" s="25" t="s">
+        <v>363</v>
+      </c>
+      <c r="C177" s="26">
+        <v>8</v>
+      </c>
+      <c r="E177" s="10"/>
+      <c r="F177" s="10"/>
+      <c r="G177" s="1"/>
+      <c r="P177" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q177" s="25" t="s">
+        <v>363</v>
+      </c>
+      <c r="R177" s="26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="178" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="B178" s="25" t="s">
+        <v>365</v>
+      </c>
+      <c r="C178" s="26">
+        <v>8</v>
+      </c>
+      <c r="E178" s="10"/>
+      <c r="F178" s="10"/>
+      <c r="G178" s="1"/>
+      <c r="P178" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q178" s="25" t="s">
+        <v>365</v>
+      </c>
+      <c r="R178" s="26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="179" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="B179" s="25" t="s">
+        <v>375</v>
+      </c>
+      <c r="C179" s="26">
+        <v>8</v>
+      </c>
+      <c r="E179" s="10"/>
+      <c r="F179" s="10"/>
+      <c r="G179" s="1"/>
+      <c r="P179" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q179" s="25" t="s">
+        <v>375</v>
+      </c>
+      <c r="R179" s="26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="180" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="B180" s="25" t="s">
+        <v>367</v>
+      </c>
+      <c r="C180" s="26">
+        <v>8</v>
+      </c>
+      <c r="E180" s="10"/>
+      <c r="F180" s="10"/>
+      <c r="G180" s="1"/>
+      <c r="P180" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q180" s="25" t="s">
+        <v>367</v>
+      </c>
+      <c r="R180" s="26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="181" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="B181" s="25" t="s">
+        <v>368</v>
+      </c>
+      <c r="C181" s="26">
+        <v>8</v>
+      </c>
+      <c r="E181" s="10"/>
+      <c r="F181" s="10"/>
+      <c r="G181" s="1"/>
+      <c r="P181" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q181" s="25" t="s">
+        <v>368</v>
+      </c>
+      <c r="R181" s="26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="182" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="B182" s="25" t="s">
+        <v>369</v>
+      </c>
+      <c r="C182" s="26">
+        <v>8</v>
+      </c>
+      <c r="E182" s="10"/>
+      <c r="F182" s="10"/>
+      <c r="G182" s="1"/>
+      <c r="P182" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q182" s="25" t="s">
+        <v>369</v>
+      </c>
+      <c r="R182" s="26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="183" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="B183" s="25" t="s">
+        <v>383</v>
+      </c>
+      <c r="C183" s="26">
+        <v>8</v>
+      </c>
+      <c r="E183" s="10"/>
+      <c r="F183" s="10"/>
+      <c r="G183" s="1"/>
+      <c r="P183" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q183" s="25" t="s">
+        <v>383</v>
+      </c>
+      <c r="R183" s="26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="184" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="B184" s="25" t="s">
+        <v>380</v>
+      </c>
+      <c r="C184" s="26">
+        <v>8</v>
+      </c>
+      <c r="E184" s="10"/>
+      <c r="F184" s="10"/>
+      <c r="G184" s="1"/>
+      <c r="P184" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q184" s="25" t="s">
+        <v>380</v>
+      </c>
+      <c r="R184" s="26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="185" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B185" s="25" t="s">
+        <v>379</v>
+      </c>
+      <c r="C185" s="26">
+        <v>8</v>
+      </c>
+      <c r="E185" s="10"/>
+      <c r="F185" s="10"/>
+      <c r="G185" s="1"/>
+      <c r="P185" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q185" s="25" t="s">
+        <v>379</v>
+      </c>
+      <c r="R185" s="26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="186" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="B186" s="25" t="s">
+        <v>381</v>
+      </c>
+      <c r="C186" s="26">
+        <v>8</v>
+      </c>
+      <c r="E186" s="10"/>
+      <c r="F186" s="10"/>
+      <c r="G186" s="1"/>
+      <c r="P186" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q186" s="25" t="s">
+        <v>381</v>
+      </c>
+      <c r="R186" s="26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="187" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="B187" s="25" t="s">
+        <v>376</v>
+      </c>
+      <c r="C187" s="26">
+        <v>8</v>
+      </c>
+      <c r="E187" s="10"/>
+      <c r="F187" s="10"/>
+      <c r="G187" s="1"/>
+      <c r="P187" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q187" s="25" t="s">
+        <v>376</v>
+      </c>
+      <c r="R187" s="26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="188" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="B188" s="25" t="s">
+        <v>378</v>
+      </c>
+      <c r="C188" s="26">
+        <v>8</v>
+      </c>
+      <c r="E188" s="10"/>
+      <c r="F188" s="10"/>
+      <c r="G188" s="1"/>
+      <c r="P188" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q188" s="25" t="s">
+        <v>378</v>
+      </c>
+      <c r="R188" s="26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="189" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="B189" s="25" t="s">
+        <v>377</v>
+      </c>
+      <c r="C189" s="26">
+        <v>8</v>
+      </c>
+      <c r="E189" s="10"/>
+      <c r="F189" s="10"/>
+      <c r="G189" s="1"/>
+      <c r="P189" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q189" s="25" t="s">
+        <v>377</v>
+      </c>
+      <c r="R189" s="26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="190" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="B190" s="25" t="s">
+        <v>382</v>
+      </c>
+      <c r="C190" s="26">
+        <v>8</v>
+      </c>
+      <c r="E190" s="10"/>
+      <c r="F190" s="10"/>
+      <c r="G190" s="1"/>
+      <c r="P190" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q190" s="25" t="s">
+        <v>382</v>
+      </c>
+      <c r="R190" s="26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="191" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="B191" s="25" t="s">
+        <v>364</v>
+      </c>
+      <c r="C191" s="26">
+        <v>8</v>
+      </c>
+      <c r="E191" s="10"/>
+      <c r="F191" s="10"/>
+      <c r="G191" s="1"/>
+      <c r="P191" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q191" s="25" t="s">
+        <v>364</v>
+      </c>
+      <c r="R191" s="26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="192" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="B192" s="27" t="s">
+        <v>387</v>
+      </c>
+      <c r="C192" s="28">
+        <v>9</v>
+      </c>
+      <c r="E192" s="10"/>
+      <c r="F192" s="10"/>
+      <c r="G192" s="1"/>
+      <c r="P192" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q192" s="27" t="s">
+        <v>387</v>
+      </c>
+      <c r="R192" s="28">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="193" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="B193" s="27" t="s">
+        <v>385</v>
+      </c>
+      <c r="C193" s="28">
+        <v>9</v>
+      </c>
+      <c r="E193" s="10"/>
+      <c r="F193" s="10"/>
+      <c r="G193" s="1"/>
+      <c r="P193" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q193" s="27" t="s">
+        <v>385</v>
+      </c>
+      <c r="R193" s="28">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="194" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="B194" s="27" t="s">
+        <v>386</v>
+      </c>
+      <c r="C194" s="28">
+        <v>9</v>
+      </c>
+      <c r="E194" s="10"/>
+      <c r="F194" s="10"/>
+      <c r="G194" s="1"/>
+      <c r="P194" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q194" s="27" t="s">
+        <v>386</v>
+      </c>
+      <c r="R194" s="28">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="195" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="B195" s="27" t="s">
+        <v>384</v>
+      </c>
+      <c r="C195" s="28">
+        <v>9</v>
+      </c>
+      <c r="E195" s="10"/>
+      <c r="F195" s="10"/>
+      <c r="G195" s="1"/>
+      <c r="P195" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q195" s="27" t="s">
+        <v>384</v>
+      </c>
+      <c r="R195" s="28">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="196" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A196" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="B196" s="27" t="s">
+        <v>388</v>
+      </c>
+      <c r="C196" s="28">
+        <v>9</v>
+      </c>
+      <c r="E196" s="10"/>
+      <c r="F196" s="10"/>
+      <c r="G196" s="1"/>
+      <c r="P196" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q196" s="27" t="s">
+        <v>388</v>
+      </c>
+      <c r="R196" s="28">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B146:B155">
+    <sortCondition ref="B146:B155"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0679A974-2B09-48E3-8F4C-004CD247FE7D}">
   <dimension ref="A1:I196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H60" sqref="H60"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48:H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3690,9 +9256,6 @@
       <c r="C64" s="14">
         <v>2</v>
       </c>
-      <c r="E64" s="2" t="s">
-        <v>406</v>
-      </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
@@ -3708,9 +9271,6 @@
       <c r="C65" s="14">
         <v>2</v>
       </c>
-      <c r="E65" s="2" t="s">
-        <v>407</v>
-      </c>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
@@ -3726,9 +9286,6 @@
       <c r="C66" s="14">
         <v>2</v>
       </c>
-      <c r="E66" s="10" t="s">
-        <v>404</v>
-      </c>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
@@ -3744,9 +9301,6 @@
       <c r="C67" s="14">
         <v>2</v>
       </c>
-      <c r="E67" s="10" t="s">
-        <v>405</v>
-      </c>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
@@ -3762,9 +9316,6 @@
       <c r="C68" s="14">
         <v>2</v>
       </c>
-      <c r="E68" s="2" t="s">
-        <v>408</v>
-      </c>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
@@ -3779,9 +9330,6 @@
       </c>
       <c r="C69" s="14">
         <v>2</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>409</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
@@ -4456,7 +10004,9 @@
       <c r="C116" s="18">
         <v>4</v>
       </c>
-      <c r="E116" s="10"/>
+      <c r="E116" s="2" t="s">
+        <v>406</v>
+      </c>
       <c r="F116" s="10"/>
       <c r="G116" s="1"/>
     </row>
@@ -4470,7 +10020,9 @@
       <c r="C117" s="18">
         <v>4</v>
       </c>
-      <c r="E117" s="10"/>
+      <c r="E117" s="2" t="s">
+        <v>407</v>
+      </c>
       <c r="F117" s="10"/>
       <c r="G117" s="1"/>
     </row>
@@ -4484,7 +10036,9 @@
       <c r="C118" s="18">
         <v>4</v>
       </c>
-      <c r="E118" s="10"/>
+      <c r="E118" s="10" t="s">
+        <v>404</v>
+      </c>
       <c r="F118" s="10"/>
       <c r="G118" s="1"/>
     </row>
@@ -4498,7 +10052,9 @@
       <c r="C119" s="18">
         <v>4</v>
       </c>
-      <c r="E119" s="10"/>
+      <c r="E119" s="10" t="s">
+        <v>405</v>
+      </c>
       <c r="F119" s="10"/>
       <c r="G119" s="1"/>
     </row>
@@ -4512,7 +10068,9 @@
       <c r="C120" s="18">
         <v>4</v>
       </c>
-      <c r="E120" s="10"/>
+      <c r="E120" s="2" t="s">
+        <v>408</v>
+      </c>
       <c r="F120" s="10"/>
       <c r="G120" s="1"/>
     </row>
@@ -4526,7 +10084,9 @@
       <c r="C121" s="18">
         <v>4</v>
       </c>
-      <c r="E121" s="10"/>
+      <c r="E121" s="2" t="s">
+        <v>409</v>
+      </c>
       <c r="F121" s="10"/>
       <c r="G121" s="1"/>
     </row>
@@ -5581,11 +11141,7 @@
       <c r="G196" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B146:B155">
-    <sortCondition ref="B146:B155"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Stock Item Type Listing.xlsx
+++ b/Stock Item Type Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp2\htdocs\Internship-Yung-Kong-Website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA015F0-07D5-45EA-B374-0E5BE41AA0A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C624DD62-E8FF-4CBC-B266-BFB9F6D1997C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Before" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">After!$A$2:$C$196</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">After!$A$2:$C$200</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="418">
   <si>
     <t>Item Group</t>
   </si>
@@ -1269,13 +1269,34 @@
   </si>
   <si>
     <t>CENTRIFUGAL PUMP</t>
+  </si>
+  <si>
+    <t>30-2</t>
+  </si>
+  <si>
+    <t>31-2</t>
+  </si>
+  <si>
+    <t>49-3</t>
+  </si>
+  <si>
+    <t>49-4</t>
+  </si>
+  <si>
+    <t>49-5</t>
+  </si>
+  <si>
+    <t>49-6</t>
+  </si>
+  <si>
+    <t>49-7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1313,6 +1334,11 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1411,7 +1437,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1509,6 +1535,7 @@
     <xf numFmtId="49" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1689,10 +1716,10 @@
                   <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>14</c:v>
@@ -2045,10 +2072,10 @@
                   <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>14</c:v>
@@ -3675,10 +3702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R196"/>
+  <dimension ref="A1:R200"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3744,7 +3771,7 @@
         <v>391</v>
       </c>
       <c r="G3" s="30">
-        <f>COUNTIF(C3:C196,0)</f>
+        <f>COUNTIF(C3:C200,0)</f>
         <v>43</v>
       </c>
       <c r="P3" s="7" t="s">
@@ -3774,7 +3801,7 @@
         <v>400</v>
       </c>
       <c r="G4" s="30">
-        <f>COUNTIF(C3:C197,1)</f>
+        <f>COUNTIF(C3:C200,1)</f>
         <v>14</v>
       </c>
       <c r="P4" s="7" t="s">
@@ -3804,7 +3831,7 @@
         <v>392</v>
       </c>
       <c r="G5" s="30">
-        <f>COUNTIF(C3:C197,2)</f>
+        <f>COUNTIF(C3:C200,2)</f>
         <v>23</v>
       </c>
       <c r="P5" s="7" t="s">
@@ -3834,8 +3861,8 @@
         <v>393</v>
       </c>
       <c r="G6" s="30">
-        <f>COUNTIF(C3:C197,3)</f>
-        <v>33</v>
+        <f>COUNTIF(C3:C200,3)</f>
+        <v>43</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>4</v>
@@ -3864,8 +3891,8 @@
         <v>394</v>
       </c>
       <c r="G7" s="30">
-        <f>COUNTIF(C3:C197,4)</f>
-        <v>16</v>
+        <f>COUNTIF(C3:C200,4)</f>
+        <v>10</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>5</v>
@@ -3894,7 +3921,7 @@
         <v>395</v>
       </c>
       <c r="G8" s="30">
-        <f>COUNTIF(C3:C197,5)</f>
+        <f>COUNTIF(C3:C200,5)</f>
         <v>14</v>
       </c>
       <c r="P8" s="7" t="s">
@@ -3924,7 +3951,7 @@
         <v>396</v>
       </c>
       <c r="G9" s="30">
-        <f>COUNTIF(C3:C197,6)</f>
+        <f>COUNTIF(C3:C200,6)</f>
         <v>10</v>
       </c>
       <c r="P9" s="7" t="s">
@@ -3954,7 +3981,7 @@
         <v>397</v>
       </c>
       <c r="G10" s="30">
-        <f>COUNTIF(C3:C197,7)</f>
+        <f>COUNTIF(C3:C200,7)</f>
         <v>15</v>
       </c>
       <c r="P10" s="7" t="s">
@@ -3984,7 +4011,7 @@
         <v>398</v>
       </c>
       <c r="G11" s="30">
-        <f>COUNTIF(C3:C197,8)</f>
+        <f>COUNTIF(C3:C200,8)</f>
         <v>21</v>
       </c>
       <c r="P11" s="7" t="s">
@@ -4014,7 +4041,7 @@
         <v>399</v>
       </c>
       <c r="G12" s="30">
-        <f>COUNTIF(C3:C198,9)</f>
+        <f>COUNTIF(C3:C200,9)</f>
         <v>5</v>
       </c>
       <c r="H12" t="s">
@@ -4022,7 +4049,7 @@
       </c>
       <c r="I12">
         <f>SUM(G3:G12)</f>
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>10</v>
@@ -6407,17 +6434,14 @@
       </c>
     </row>
     <row r="116" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="B116" s="17" t="s">
-        <v>315</v>
-      </c>
-      <c r="C116" s="18">
-        <v>4</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>406</v>
+      <c r="A116" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="B116" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="C116" s="16">
+        <v>3</v>
       </c>
       <c r="F116" s="10"/>
       <c r="G116" s="1"/>
@@ -6432,17 +6456,14 @@
       </c>
     </row>
     <row r="117" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="B117" s="17" t="s">
-        <v>311</v>
-      </c>
-      <c r="C117" s="18">
-        <v>4</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>407</v>
+      <c r="A117" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B117" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="C117" s="16">
+        <v>3</v>
       </c>
       <c r="F117" s="10"/>
       <c r="G117" s="1"/>
@@ -6457,17 +6478,14 @@
       </c>
     </row>
     <row r="118" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="B118" s="17" t="s">
-        <v>321</v>
-      </c>
-      <c r="C118" s="18">
-        <v>4</v>
-      </c>
-      <c r="E118" s="10" t="s">
-        <v>404</v>
+      <c r="A118" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="B118" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="C118" s="16">
+        <v>3</v>
       </c>
       <c r="F118" s="10"/>
       <c r="G118" s="1"/>
@@ -6482,17 +6500,14 @@
       </c>
     </row>
     <row r="119" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="B119" s="17" t="s">
-        <v>314</v>
-      </c>
-      <c r="C119" s="18">
-        <v>4</v>
-      </c>
-      <c r="E119" s="10" t="s">
-        <v>405</v>
+      <c r="A119" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B119" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="C119" s="16">
+        <v>3</v>
       </c>
       <c r="F119" s="10"/>
       <c r="G119" s="1"/>
@@ -6507,17 +6522,14 @@
       </c>
     </row>
     <row r="120" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="B120" s="17" t="s">
-        <v>319</v>
-      </c>
-      <c r="C120" s="18">
-        <v>4</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>408</v>
+      <c r="A120" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B120" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="C120" s="16">
+        <v>3</v>
       </c>
       <c r="F120" s="10"/>
       <c r="G120" s="1"/>
@@ -6532,17 +6544,14 @@
       </c>
     </row>
     <row r="121" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="B121" s="17" t="s">
-        <v>322</v>
-      </c>
-      <c r="C121" s="18">
-        <v>4</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>410</v>
+      <c r="A121" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B121" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="C121" s="16">
+        <v>3</v>
       </c>
       <c r="F121" s="10"/>
       <c r="G121" s="1"/>
@@ -6557,14 +6566,14 @@
       </c>
     </row>
     <row r="122" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="B122" s="17" t="s">
-        <v>317</v>
-      </c>
-      <c r="C122" s="18">
-        <v>4</v>
+      <c r="A122" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B122" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="C122" s="16">
+        <v>3</v>
       </c>
       <c r="E122" s="10"/>
       <c r="F122" s="10"/>
@@ -6580,18 +6589,15 @@
       </c>
     </row>
     <row r="123" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="B123" s="34" t="s">
-        <v>308</v>
-      </c>
-      <c r="C123" s="18">
-        <v>4</v>
-      </c>
-      <c r="E123" s="10"/>
-      <c r="F123" s="10"/>
-      <c r="G123" s="1"/>
+      <c r="A123" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B123" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="C123" s="16">
+        <v>3</v>
+      </c>
       <c r="P123" s="17" t="s">
         <v>121</v>
       </c>
@@ -6603,14 +6609,14 @@
       </c>
     </row>
     <row r="124" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="B124" s="17" t="s">
-        <v>312</v>
-      </c>
-      <c r="C124" s="18">
-        <v>4</v>
+      <c r="A124" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B124" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="C124" s="16">
+        <v>3</v>
       </c>
       <c r="E124" s="10"/>
       <c r="F124" s="10"/>
@@ -6626,18 +6632,16 @@
       </c>
     </row>
     <row r="125" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="B125" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="C125" s="18">
-        <v>4</v>
+      <c r="A125" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B125" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="C125" s="16">
+        <v>3</v>
       </c>
       <c r="E125" s="10"/>
-      <c r="F125" s="10"/>
-      <c r="G125" s="1"/>
       <c r="P125" s="17" t="s">
         <v>123</v>
       </c>
@@ -6650,17 +6654,15 @@
     </row>
     <row r="126" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="17" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B126" s="17" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C126" s="18">
         <v>4</v>
       </c>
       <c r="E126" s="10"/>
-      <c r="F126" s="10"/>
-      <c r="G126" s="1"/>
       <c r="P126" s="17" t="s">
         <v>124</v>
       </c>
@@ -6673,17 +6675,15 @@
     </row>
     <row r="127" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="17" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="B127" s="17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C127" s="18">
         <v>4</v>
       </c>
       <c r="E127" s="10"/>
-      <c r="F127" s="10"/>
-      <c r="G127" s="1"/>
       <c r="P127" s="17" t="s">
         <v>125</v>
       </c>
@@ -6696,17 +6696,15 @@
     </row>
     <row r="128" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="17" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B128" s="17" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="C128" s="18">
         <v>4</v>
       </c>
       <c r="E128" s="10"/>
-      <c r="F128" s="10"/>
-      <c r="G128" s="1"/>
       <c r="P128" s="17" t="s">
         <v>126</v>
       </c>
@@ -6719,17 +6717,15 @@
     </row>
     <row r="129" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="17" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B129" s="17" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C129" s="18">
         <v>4</v>
       </c>
       <c r="E129" s="10"/>
-      <c r="F129" s="10"/>
-      <c r="G129" s="1"/>
       <c r="P129" s="17" t="s">
         <v>127</v>
       </c>
@@ -6742,17 +6738,15 @@
     </row>
     <row r="130" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="B130" s="17" t="s">
-        <v>310</v>
+        <v>129</v>
+      </c>
+      <c r="B130" s="37" t="s">
+        <v>406</v>
       </c>
       <c r="C130" s="18">
         <v>4</v>
       </c>
       <c r="E130" s="10"/>
-      <c r="F130" s="10"/>
-      <c r="G130" s="1"/>
       <c r="P130" s="17" t="s">
         <v>128</v>
       </c>
@@ -6765,17 +6759,15 @@
     </row>
     <row r="131" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="B131" s="17" t="s">
-        <v>313</v>
+        <v>413</v>
+      </c>
+      <c r="B131" s="37" t="s">
+        <v>407</v>
       </c>
       <c r="C131" s="18">
         <v>4</v>
       </c>
       <c r="E131" s="10"/>
-      <c r="F131" s="10"/>
-      <c r="G131" s="1"/>
       <c r="P131" s="17" t="s">
         <v>129</v>
       </c>
@@ -6787,18 +6779,16 @@
       </c>
     </row>
     <row r="132" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="B132" s="19" t="s">
-        <v>326</v>
-      </c>
-      <c r="C132" s="20">
-        <v>5</v>
+      <c r="A132" s="17" t="s">
+        <v>414</v>
+      </c>
+      <c r="B132" s="17" t="s">
+        <v>404</v>
+      </c>
+      <c r="C132" s="18">
+        <v>4</v>
       </c>
       <c r="E132" s="10"/>
-      <c r="F132" s="10"/>
-      <c r="G132" s="1"/>
       <c r="P132" s="19" t="s">
         <v>130</v>
       </c>
@@ -6810,18 +6800,16 @@
       </c>
     </row>
     <row r="133" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="B133" s="19" t="s">
-        <v>328</v>
-      </c>
-      <c r="C133" s="20">
-        <v>5</v>
+      <c r="A133" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="B133" s="17" t="s">
+        <v>405</v>
+      </c>
+      <c r="C133" s="18">
+        <v>4</v>
       </c>
       <c r="E133" s="10"/>
-      <c r="F133" s="10"/>
-      <c r="G133" s="1"/>
       <c r="P133" s="19" t="s">
         <v>131</v>
       </c>
@@ -6833,18 +6821,16 @@
       </c>
     </row>
     <row r="134" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="B134" s="19" t="s">
-        <v>332</v>
-      </c>
-      <c r="C134" s="20">
-        <v>5</v>
+      <c r="A134" s="17" t="s">
+        <v>416</v>
+      </c>
+      <c r="B134" s="37" t="s">
+        <v>408</v>
+      </c>
+      <c r="C134" s="18">
+        <v>4</v>
       </c>
       <c r="E134" s="10"/>
-      <c r="F134" s="10"/>
-      <c r="G134" s="1"/>
       <c r="P134" s="19" t="s">
         <v>132</v>
       </c>
@@ -6856,14 +6842,14 @@
       </c>
     </row>
     <row r="135" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="B135" s="19" t="s">
-        <v>333</v>
-      </c>
-      <c r="C135" s="20">
-        <v>5</v>
+      <c r="A135" s="17" t="s">
+        <v>417</v>
+      </c>
+      <c r="B135" s="37" t="s">
+        <v>410</v>
+      </c>
+      <c r="C135" s="18">
+        <v>4</v>
       </c>
       <c r="E135" s="10"/>
       <c r="F135" s="10"/>
@@ -6880,10 +6866,10 @@
     </row>
     <row r="136" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="B136" s="35" t="s">
-        <v>327</v>
+        <v>130</v>
+      </c>
+      <c r="B136" s="19" t="s">
+        <v>326</v>
       </c>
       <c r="C136" s="20">
         <v>5</v>
@@ -6903,10 +6889,10 @@
     </row>
     <row r="137" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="B137" s="35" t="s">
-        <v>334</v>
+        <v>131</v>
+      </c>
+      <c r="B137" s="19" t="s">
+        <v>328</v>
       </c>
       <c r="C137" s="20">
         <v>5</v>
@@ -6926,10 +6912,10 @@
     </row>
     <row r="138" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="19" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B138" s="19" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C138" s="20">
         <v>5</v>
@@ -6949,10 +6935,10 @@
     </row>
     <row r="139" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="19" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B139" s="19" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="C139" s="20">
         <v>5</v>
@@ -6972,10 +6958,10 @@
     </row>
     <row r="140" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="B140" s="19" t="s">
-        <v>324</v>
+        <v>134</v>
+      </c>
+      <c r="B140" s="35" t="s">
+        <v>327</v>
       </c>
       <c r="C140" s="20">
         <v>5</v>
@@ -6995,10 +6981,10 @@
     </row>
     <row r="141" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="B141" s="19" t="s">
-        <v>329</v>
+        <v>135</v>
+      </c>
+      <c r="B141" s="35" t="s">
+        <v>334</v>
       </c>
       <c r="C141" s="20">
         <v>5</v>
@@ -7018,10 +7004,10 @@
     </row>
     <row r="142" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="19" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B142" s="19" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C142" s="20">
         <v>5</v>
@@ -7041,10 +7027,10 @@
     </row>
     <row r="143" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="19" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B143" s="19" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="C143" s="20">
         <v>5</v>
@@ -7064,10 +7050,10 @@
     </row>
     <row r="144" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="19" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B144" s="19" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="C144" s="20">
         <v>5</v>
@@ -7087,10 +7073,10 @@
     </row>
     <row r="145" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="19" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B145" s="19" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C145" s="20">
         <v>5</v>
@@ -7109,14 +7095,14 @@
       </c>
     </row>
     <row r="146" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="B146" s="21" t="s">
-        <v>338</v>
-      </c>
-      <c r="C146" s="22">
-        <v>6</v>
+      <c r="A146" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="B146" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="C146" s="20">
+        <v>5</v>
       </c>
       <c r="E146" s="10"/>
       <c r="F146" s="10"/>
@@ -7132,14 +7118,14 @@
       </c>
     </row>
     <row r="147" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="B147" s="21" t="s">
-        <v>340</v>
-      </c>
-      <c r="C147" s="22">
-        <v>6</v>
+      <c r="A147" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="B147" s="19" t="s">
+        <v>337</v>
+      </c>
+      <c r="C147" s="20">
+        <v>5</v>
       </c>
       <c r="E147" s="10"/>
       <c r="F147" s="10"/>
@@ -7155,14 +7141,14 @@
       </c>
     </row>
     <row r="148" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="B148" s="21" t="s">
-        <v>343</v>
-      </c>
-      <c r="C148" s="22">
-        <v>6</v>
+      <c r="A148" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="B148" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="C148" s="20">
+        <v>5</v>
       </c>
       <c r="E148" s="10"/>
       <c r="F148" s="10"/>
@@ -7178,14 +7164,14 @@
       </c>
     </row>
     <row r="149" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="B149" s="21" t="s">
-        <v>347</v>
-      </c>
-      <c r="C149" s="22">
-        <v>6</v>
+      <c r="A149" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="B149" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="C149" s="20">
+        <v>5</v>
       </c>
       <c r="E149" s="10"/>
       <c r="F149" s="10"/>
@@ -7202,10 +7188,10 @@
     </row>
     <row r="150" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="21" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B150" s="21" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="C150" s="22">
         <v>6</v>
@@ -7225,10 +7211,10 @@
     </row>
     <row r="151" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="21" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B151" s="21" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C151" s="22">
         <v>6</v>
@@ -7248,10 +7234,10 @@
     </row>
     <row r="152" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="21" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B152" s="21" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="C152" s="22">
         <v>6</v>
@@ -7271,10 +7257,10 @@
     </row>
     <row r="153" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="21" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B153" s="21" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C153" s="22">
         <v>6</v>
@@ -7294,10 +7280,10 @@
     </row>
     <row r="154" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="21" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B154" s="21" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C154" s="22">
         <v>6</v>
@@ -7317,10 +7303,10 @@
     </row>
     <row r="155" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="21" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B155" s="21" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C155" s="22">
         <v>6</v>
@@ -7339,14 +7325,14 @@
       </c>
     </row>
     <row r="156" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="B156" s="23" t="s">
-        <v>358</v>
-      </c>
-      <c r="C156" s="24">
-        <v>7</v>
+      <c r="A156" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="B156" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="C156" s="22">
+        <v>6</v>
       </c>
       <c r="E156" s="10"/>
       <c r="F156" s="10"/>
@@ -7362,14 +7348,14 @@
       </c>
     </row>
     <row r="157" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="B157" s="23" t="s">
-        <v>356</v>
-      </c>
-      <c r="C157" s="24">
-        <v>7</v>
+      <c r="A157" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="B157" s="21" t="s">
+        <v>344</v>
+      </c>
+      <c r="C157" s="22">
+        <v>6</v>
       </c>
       <c r="E157" s="10"/>
       <c r="F157" s="10"/>
@@ -7385,14 +7371,14 @@
       </c>
     </row>
     <row r="158" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="B158" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="C158" s="24">
-        <v>7</v>
+      <c r="A158" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="B158" s="21" t="s">
+        <v>345</v>
+      </c>
+      <c r="C158" s="22">
+        <v>6</v>
       </c>
       <c r="E158" s="10"/>
       <c r="F158" s="10"/>
@@ -7408,14 +7394,14 @@
       </c>
     </row>
     <row r="159" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B159" s="36" t="s">
-        <v>357</v>
-      </c>
-      <c r="C159" s="24">
-        <v>7</v>
+      <c r="A159" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="B159" s="21" t="s">
+        <v>342</v>
+      </c>
+      <c r="C159" s="22">
+        <v>6</v>
       </c>
       <c r="E159" s="10"/>
       <c r="F159" s="10"/>
@@ -7432,10 +7418,10 @@
     </row>
     <row r="160" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="23" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B160" s="23" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="C160" s="24">
         <v>7</v>
@@ -7455,10 +7441,10 @@
     </row>
     <row r="161" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="23" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B161" s="23" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C161" s="24">
         <v>7</v>
@@ -7478,10 +7464,10 @@
     </row>
     <row r="162" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="23" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B162" s="23" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C162" s="24">
         <v>7</v>
@@ -7501,10 +7487,10 @@
     </row>
     <row r="163" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B163" s="23" t="s">
-        <v>350</v>
+        <v>157</v>
+      </c>
+      <c r="B163" s="36" t="s">
+        <v>357</v>
       </c>
       <c r="C163" s="24">
         <v>7</v>
@@ -7524,10 +7510,10 @@
     </row>
     <row r="164" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="23" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B164" s="23" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="C164" s="24">
         <v>7</v>
@@ -7547,10 +7533,10 @@
     </row>
     <row r="165" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="23" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B165" s="23" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="C165" s="24">
         <v>7</v>
@@ -7570,10 +7556,10 @@
     </row>
     <row r="166" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="23" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B166" s="23" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="C166" s="24">
         <v>7</v>
@@ -7593,10 +7579,10 @@
     </row>
     <row r="167" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="23" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B167" s="23" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="C167" s="24">
         <v>7</v>
@@ -7616,10 +7602,10 @@
     </row>
     <row r="168" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="23" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B168" s="23" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="C168" s="24">
         <v>7</v>
@@ -7639,10 +7625,10 @@
     </row>
     <row r="169" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="23" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B169" s="23" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="C169" s="24">
         <v>7</v>
@@ -7662,10 +7648,10 @@
     </row>
     <row r="170" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="23" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B170" s="23" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="C170" s="24">
         <v>7</v>
@@ -7684,14 +7670,14 @@
       </c>
     </row>
     <row r="171" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="B171" s="25" t="s">
-        <v>372</v>
-      </c>
-      <c r="C171" s="26">
-        <v>8</v>
+      <c r="A171" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="B171" s="23" t="s">
+        <v>359</v>
+      </c>
+      <c r="C171" s="24">
+        <v>7</v>
       </c>
       <c r="E171" s="10"/>
       <c r="F171" s="10"/>
@@ -7707,14 +7693,14 @@
       </c>
     </row>
     <row r="172" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="B172" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="C172" s="26">
-        <v>8</v>
+      <c r="A172" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="B172" s="23" t="s">
+        <v>351</v>
+      </c>
+      <c r="C172" s="24">
+        <v>7</v>
       </c>
       <c r="E172" s="10"/>
       <c r="F172" s="10"/>
@@ -7730,14 +7716,14 @@
       </c>
     </row>
     <row r="173" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="B173" s="25" t="s">
-        <v>370</v>
-      </c>
-      <c r="C173" s="26">
-        <v>8</v>
+      <c r="A173" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="B173" s="23" t="s">
+        <v>349</v>
+      </c>
+      <c r="C173" s="24">
+        <v>7</v>
       </c>
       <c r="E173" s="10"/>
       <c r="F173" s="10"/>
@@ -7753,14 +7739,14 @@
       </c>
     </row>
     <row r="174" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="B174" s="25" t="s">
-        <v>366</v>
-      </c>
-      <c r="C174" s="26">
-        <v>8</v>
+      <c r="A174" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="B174" s="23" t="s">
+        <v>348</v>
+      </c>
+      <c r="C174" s="24">
+        <v>7</v>
       </c>
       <c r="E174" s="10"/>
       <c r="F174" s="10"/>
@@ -7777,10 +7763,10 @@
     </row>
     <row r="175" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="25" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B175" s="25" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C175" s="26">
         <v>8</v>
@@ -7800,10 +7786,10 @@
     </row>
     <row r="176" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="25" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B176" s="25" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C176" s="26">
         <v>8</v>
@@ -7823,10 +7809,10 @@
     </row>
     <row r="177" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="25" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B177" s="25" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="C177" s="26">
         <v>8</v>
@@ -7846,10 +7832,10 @@
     </row>
     <row r="178" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="25" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B178" s="25" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C178" s="26">
         <v>8</v>
@@ -7869,10 +7855,10 @@
     </row>
     <row r="179" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="25" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B179" s="25" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C179" s="26">
         <v>8</v>
@@ -7892,10 +7878,10 @@
     </row>
     <row r="180" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="25" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B180" s="25" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="C180" s="26">
         <v>8</v>
@@ -7915,10 +7901,10 @@
     </row>
     <row r="181" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="25" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B181" s="25" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C181" s="26">
         <v>8</v>
@@ -7938,10 +7924,10 @@
     </row>
     <row r="182" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="25" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B182" s="25" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C182" s="26">
         <v>8</v>
@@ -7961,10 +7947,10 @@
     </row>
     <row r="183" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="25" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B183" s="25" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="C183" s="26">
         <v>8</v>
@@ -7984,10 +7970,10 @@
     </row>
     <row r="184" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="25" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B184" s="25" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="C184" s="26">
         <v>8</v>
@@ -8007,10 +7993,10 @@
     </row>
     <row r="185" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="25" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B185" s="25" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="C185" s="26">
         <v>8</v>
@@ -8030,10 +8016,10 @@
     </row>
     <row r="186" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="25" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B186" s="25" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="C186" s="26">
         <v>8</v>
@@ -8053,10 +8039,10 @@
     </row>
     <row r="187" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="25" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B187" s="25" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="C187" s="26">
         <v>8</v>
@@ -8076,10 +8062,10 @@
     </row>
     <row r="188" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="25" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B188" s="25" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C188" s="26">
         <v>8</v>
@@ -8099,10 +8085,10 @@
     </row>
     <row r="189" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="25" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B189" s="25" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C189" s="26">
         <v>8</v>
@@ -8122,10 +8108,10 @@
     </row>
     <row r="190" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="25" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B190" s="25" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C190" s="26">
         <v>8</v>
@@ -8145,10 +8131,10 @@
     </row>
     <row r="191" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="25" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B191" s="25" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="C191" s="26">
         <v>8</v>
@@ -8167,14 +8153,14 @@
       </c>
     </row>
     <row r="192" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="27" t="s">
-        <v>190</v>
-      </c>
-      <c r="B192" s="27" t="s">
-        <v>387</v>
-      </c>
-      <c r="C192" s="28">
-        <v>9</v>
+      <c r="A192" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="B192" s="25" t="s">
+        <v>378</v>
+      </c>
+      <c r="C192" s="26">
+        <v>8</v>
       </c>
       <c r="E192" s="10"/>
       <c r="F192" s="10"/>
@@ -8190,14 +8176,14 @@
       </c>
     </row>
     <row r="193" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="27" t="s">
-        <v>191</v>
-      </c>
-      <c r="B193" s="27" t="s">
-        <v>385</v>
-      </c>
-      <c r="C193" s="28">
-        <v>9</v>
+      <c r="A193" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="B193" s="25" t="s">
+        <v>377</v>
+      </c>
+      <c r="C193" s="26">
+        <v>8</v>
       </c>
       <c r="E193" s="10"/>
       <c r="F193" s="10"/>
@@ -8213,14 +8199,14 @@
       </c>
     </row>
     <row r="194" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="B194" s="27" t="s">
-        <v>386</v>
-      </c>
-      <c r="C194" s="28">
-        <v>9</v>
+      <c r="A194" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="B194" s="25" t="s">
+        <v>382</v>
+      </c>
+      <c r="C194" s="26">
+        <v>8</v>
       </c>
       <c r="E194" s="10"/>
       <c r="F194" s="10"/>
@@ -8236,14 +8222,14 @@
       </c>
     </row>
     <row r="195" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="B195" s="27" t="s">
-        <v>384</v>
-      </c>
-      <c r="C195" s="28">
-        <v>9</v>
+      <c r="A195" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="B195" s="25" t="s">
+        <v>364</v>
+      </c>
+      <c r="C195" s="26">
+        <v>8</v>
       </c>
       <c r="E195" s="10"/>
       <c r="F195" s="10"/>
@@ -8260,10 +8246,10 @@
     </row>
     <row r="196" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A196" s="27" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B196" s="27" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C196" s="28">
         <v>9</v>
@@ -8281,10 +8267,55 @@
         <v>9</v>
       </c>
     </row>
+    <row r="197" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A197" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="B197" s="27" t="s">
+        <v>385</v>
+      </c>
+      <c r="C197" s="28">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="198" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A198" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="B198" s="27" t="s">
+        <v>386</v>
+      </c>
+      <c r="C198" s="28">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="199" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A199" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="B199" s="27" t="s">
+        <v>384</v>
+      </c>
+      <c r="C199" s="28">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="200" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A200" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="B200" s="27" t="s">
+        <v>388</v>
+      </c>
+      <c r="C200" s="28">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B146:B155">
-    <sortCondition ref="B146:B155"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B150:B159">
+    <sortCondition ref="B150:B159"/>
   </sortState>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
